--- a/Progression/Progression_PTSI_2014_2015.xlsx
+++ b/Progression/Progression_PTSI_2014_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_Vide" sheetId="5" r:id="rId1"/>
@@ -4739,23 +4739,65 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4771,48 +4813,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4840,6 +4840,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4856,73 +4859,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -5581,7 +5581,7 @@
   </sheetPr>
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H1048576"/>
@@ -5650,22 +5650,22 @@
       <c r="A2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="186" t="s">
         <v>719</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="192" t="s">
         <v>819</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="172" t="s">
         <v>717</v>
       </c>
-      <c r="E2" s="169" t="s">
+      <c r="E2" s="172" t="s">
         <v>824</v>
       </c>
       <c r="F2" s="131" t="s">
         <v>823</v>
       </c>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="169" t="s">
         <v>835</v>
       </c>
       <c r="H2" s="131" t="s">
@@ -5674,7 +5674,7 @@
       <c r="I2" s="131" t="s">
         <v>837</v>
       </c>
-      <c r="J2" s="175" t="s">
+      <c r="J2" s="189" t="s">
         <v>825</v>
       </c>
       <c r="K2" s="131"/>
@@ -5696,17 +5696,17 @@
       <c r="A3" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
       <c r="F3" s="135"/>
-      <c r="G3" s="181"/>
+      <c r="G3" s="171"/>
       <c r="H3" s="135"/>
       <c r="I3" s="135" t="s">
         <v>837</v>
       </c>
-      <c r="J3" s="176"/>
+      <c r="J3" s="190"/>
       <c r="K3" s="135"/>
       <c r="L3" s="135" t="s">
         <v>723</v>
@@ -5726,11 +5726,11 @@
       <c r="A4" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="174"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="163" t="s">
         <v>820</v>
       </c>
-      <c r="D4" s="171"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="139" t="s">
         <v>830</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="I4" s="139" t="s">
         <v>838</v>
       </c>
-      <c r="J4" s="177"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="139"/>
       <c r="L4" s="139" t="s">
         <v>724</v>
@@ -5782,13 +5782,13 @@
       <c r="A6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="186" t="s">
         <v>720</v>
       </c>
       <c r="C6" s="164" t="s">
         <v>821</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="172" t="s">
         <v>721</v>
       </c>
       <c r="E6" s="131" t="s">
@@ -5802,7 +5802,7 @@
       <c r="I6" s="131" t="s">
         <v>845</v>
       </c>
-      <c r="J6" s="175" t="s">
+      <c r="J6" s="189" t="s">
         <v>764</v>
       </c>
       <c r="K6" s="131" t="s">
@@ -5824,11 +5824,11 @@
       <c r="A7" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="174"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="163" t="s">
         <v>820</v>
       </c>
-      <c r="D7" s="171"/>
+      <c r="D7" s="173"/>
       <c r="E7" s="139"/>
       <c r="F7" s="139"/>
       <c r="G7" s="139" t="s">
@@ -5838,7 +5838,7 @@
       <c r="I7" s="139" t="s">
         <v>845</v>
       </c>
-      <c r="J7" s="177"/>
+      <c r="J7" s="191"/>
       <c r="K7" s="139"/>
       <c r="L7" s="139"/>
       <c r="M7" s="139"/>
@@ -5876,13 +5876,13 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="186" t="s">
         <v>725</v>
       </c>
       <c r="C9" s="165" t="s">
         <v>822</v>
       </c>
-      <c r="D9" s="169" t="s">
+      <c r="D9" s="172" t="s">
         <v>736</v>
       </c>
       <c r="E9" s="131" t="s">
@@ -5896,7 +5896,7 @@
       <c r="I9" s="131" t="s">
         <v>840</v>
       </c>
-      <c r="J9" s="169" t="s">
+      <c r="J9" s="172" t="s">
         <v>839</v>
       </c>
       <c r="K9" s="141" t="s">
@@ -5918,11 +5918,11 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="174"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="163" t="s">
         <v>820</v>
       </c>
-      <c r="D10" s="171"/>
+      <c r="D10" s="173"/>
       <c r="E10" s="139"/>
       <c r="F10" s="139"/>
       <c r="G10" s="139" t="s">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="H10" s="139"/>
       <c r="I10" s="139"/>
-      <c r="J10" s="171"/>
+      <c r="J10" s="173"/>
       <c r="K10" s="142"/>
       <c r="L10" s="139"/>
       <c r="M10" s="139"/>
@@ -5962,11 +5962,11 @@
       <c r="A12" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="184" t="s">
         <v>729</v>
       </c>
       <c r="C12" s="144"/>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="180" t="s">
         <v>730</v>
       </c>
       <c r="E12" s="132"/>
@@ -5986,9 +5986,9 @@
       <c r="A13" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="183"/>
+      <c r="B13" s="185"/>
       <c r="C13" s="147"/>
-      <c r="D13" s="185"/>
+      <c r="D13" s="181"/>
       <c r="E13" s="148"/>
       <c r="F13" s="148"/>
       <c r="G13" s="148"/>
@@ -6020,11 +6020,11 @@
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="176" t="s">
         <v>728</v>
       </c>
       <c r="C15" s="150"/>
-      <c r="D15" s="169" t="s">
+      <c r="D15" s="172" t="s">
         <v>726</v>
       </c>
       <c r="E15" s="131"/>
@@ -6032,7 +6032,7 @@
       <c r="G15" s="131"/>
       <c r="H15" s="131"/>
       <c r="I15" s="131"/>
-      <c r="J15" s="169" t="s">
+      <c r="J15" s="172" t="s">
         <v>727</v>
       </c>
       <c r="K15" s="141" t="s">
@@ -6048,15 +6048,15 @@
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="187"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="151"/>
-      <c r="D16" s="171"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="139"/>
       <c r="F16" s="139"/>
       <c r="G16" s="139"/>
       <c r="H16" s="139"/>
       <c r="I16" s="139"/>
-      <c r="J16" s="171"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="142"/>
       <c r="L16" s="139"/>
       <c r="M16" s="139"/>
@@ -6082,11 +6082,11 @@
       <c r="A18" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="174" t="s">
         <v>735</v>
       </c>
       <c r="C18" s="150"/>
-      <c r="D18" s="169" t="s">
+      <c r="D18" s="172" t="s">
         <v>731</v>
       </c>
       <c r="E18" s="131"/>
@@ -6094,7 +6094,7 @@
       <c r="G18" s="131"/>
       <c r="H18" s="131"/>
       <c r="I18" s="131"/>
-      <c r="J18" s="169" t="s">
+      <c r="J18" s="172" t="s">
         <v>752</v>
       </c>
       <c r="K18" s="141"/>
@@ -6108,15 +6108,15 @@
       <c r="A19" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="191"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="151"/>
-      <c r="D19" s="171"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="139"/>
       <c r="F19" s="139"/>
       <c r="G19" s="139"/>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
-      <c r="J19" s="171"/>
+      <c r="J19" s="173"/>
       <c r="K19" s="142"/>
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
@@ -6142,11 +6142,11 @@
       <c r="A21" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="174" t="s">
         <v>737</v>
       </c>
       <c r="C21" s="150"/>
-      <c r="D21" s="169" t="s">
+      <c r="D21" s="172" t="s">
         <v>734</v>
       </c>
       <c r="E21" s="131"/>
@@ -6154,7 +6154,7 @@
       <c r="G21" s="131"/>
       <c r="H21" s="131"/>
       <c r="I21" s="131"/>
-      <c r="J21" s="180" t="s">
+      <c r="J21" s="169" t="s">
         <v>750</v>
       </c>
       <c r="K21" s="152"/>
@@ -6168,15 +6168,15 @@
       <c r="A22" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="192"/>
+      <c r="B22" s="183"/>
       <c r="C22" s="153"/>
-      <c r="D22" s="170"/>
+      <c r="D22" s="182"/>
       <c r="E22" s="135"/>
       <c r="F22" s="135"/>
       <c r="G22" s="135"/>
       <c r="H22" s="135"/>
       <c r="I22" s="135"/>
-      <c r="J22" s="181"/>
+      <c r="J22" s="171"/>
       <c r="K22" s="154"/>
       <c r="L22" s="135"/>
       <c r="M22" s="135"/>
@@ -6188,9 +6188,9 @@
       <c r="A23" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="191"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="151"/>
-      <c r="D23" s="171"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="139"/>
       <c r="F23" s="139"/>
       <c r="G23" s="139"/>
@@ -6224,11 +6224,11 @@
       <c r="A25" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="184" t="s">
         <v>729</v>
       </c>
       <c r="C25" s="144"/>
-      <c r="D25" s="184" t="s">
+      <c r="D25" s="180" t="s">
         <v>732</v>
       </c>
       <c r="E25" s="132"/>
@@ -6248,9 +6248,9 @@
       <c r="A26" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="183"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="147"/>
-      <c r="D26" s="185"/>
+      <c r="D26" s="181"/>
       <c r="E26" s="148"/>
       <c r="F26" s="148"/>
       <c r="G26" s="148"/>
@@ -6282,11 +6282,11 @@
       <c r="A28" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="174" t="s">
         <v>738</v>
       </c>
       <c r="C28" s="150"/>
-      <c r="D28" s="169" t="s">
+      <c r="D28" s="172" t="s">
         <v>740</v>
       </c>
       <c r="E28" s="131"/>
@@ -6294,7 +6294,7 @@
       <c r="G28" s="131"/>
       <c r="H28" s="131"/>
       <c r="I28" s="131"/>
-      <c r="J28" s="180" t="s">
+      <c r="J28" s="169" t="s">
         <v>755</v>
       </c>
       <c r="K28" s="152"/>
@@ -6308,15 +6308,15 @@
       <c r="A29" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="191"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="151"/>
-      <c r="D29" s="171"/>
+      <c r="D29" s="173"/>
       <c r="E29" s="139"/>
       <c r="F29" s="139"/>
       <c r="G29" s="139"/>
       <c r="H29" s="139"/>
       <c r="I29" s="139"/>
-      <c r="J29" s="193"/>
+      <c r="J29" s="170"/>
       <c r="K29" s="155"/>
       <c r="L29" s="139"/>
       <c r="M29" s="139"/>
@@ -6342,11 +6342,11 @@
       <c r="A31" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="174" t="s">
         <v>739</v>
       </c>
       <c r="C31" s="150"/>
-      <c r="D31" s="169" t="s">
+      <c r="D31" s="172" t="s">
         <v>740</v>
       </c>
       <c r="E31" s="131"/>
@@ -6354,7 +6354,7 @@
       <c r="G31" s="131"/>
       <c r="H31" s="131"/>
       <c r="I31" s="131"/>
-      <c r="J31" s="180" t="s">
+      <c r="J31" s="169" t="s">
         <v>759</v>
       </c>
       <c r="K31" s="152"/>
@@ -6368,15 +6368,15 @@
       <c r="A32" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="191"/>
+      <c r="B32" s="175"/>
       <c r="C32" s="151"/>
-      <c r="D32" s="171"/>
+      <c r="D32" s="173"/>
       <c r="E32" s="139"/>
       <c r="F32" s="139"/>
       <c r="G32" s="139"/>
       <c r="H32" s="139"/>
       <c r="I32" s="139"/>
-      <c r="J32" s="193"/>
+      <c r="J32" s="170"/>
       <c r="K32" s="155"/>
       <c r="L32" s="139"/>
       <c r="M32" s="139"/>
@@ -6402,11 +6402,11 @@
       <c r="A34" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="174" t="s">
         <v>743</v>
       </c>
       <c r="C34" s="150"/>
-      <c r="D34" s="169" t="s">
+      <c r="D34" s="172" t="s">
         <v>740</v>
       </c>
       <c r="E34" s="131"/>
@@ -6414,7 +6414,7 @@
       <c r="G34" s="131"/>
       <c r="H34" s="131"/>
       <c r="I34" s="131"/>
-      <c r="J34" s="180" t="s">
+      <c r="J34" s="169" t="s">
         <v>754</v>
       </c>
       <c r="K34" s="152"/>
@@ -6428,15 +6428,15 @@
       <c r="A35" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="191"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="151"/>
-      <c r="D35" s="171"/>
+      <c r="D35" s="173"/>
       <c r="E35" s="139"/>
       <c r="F35" s="139"/>
       <c r="G35" s="139"/>
       <c r="H35" s="139"/>
       <c r="I35" s="139"/>
-      <c r="J35" s="193"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="155"/>
       <c r="L35" s="139"/>
       <c r="M35" s="139"/>
@@ -6495,11 +6495,11 @@
       <c r="A39" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="178" t="s">
         <v>729</v>
       </c>
       <c r="C39" s="144"/>
-      <c r="D39" s="184" t="s">
+      <c r="D39" s="180" t="s">
         <v>733</v>
       </c>
       <c r="E39" s="132"/>
@@ -6519,9 +6519,9 @@
       <c r="A40" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="189"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="147"/>
-      <c r="D40" s="185"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="148"/>
       <c r="F40" s="148"/>
       <c r="G40" s="148"/>
@@ -6587,11 +6587,11 @@
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="176" t="s">
         <v>744</v>
       </c>
       <c r="C44" s="150"/>
-      <c r="D44" s="169" t="s">
+      <c r="D44" s="172" t="s">
         <v>742</v>
       </c>
       <c r="E44" s="131"/>
@@ -6599,7 +6599,7 @@
       <c r="G44" s="131"/>
       <c r="H44" s="131"/>
       <c r="I44" s="131"/>
-      <c r="J44" s="180" t="s">
+      <c r="J44" s="169" t="s">
         <v>757</v>
       </c>
       <c r="K44" s="152"/>
@@ -6613,15 +6613,15 @@
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="187"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="151"/>
-      <c r="D45" s="171"/>
+      <c r="D45" s="173"/>
       <c r="E45" s="139"/>
       <c r="F45" s="139"/>
       <c r="G45" s="139"/>
       <c r="H45" s="139"/>
       <c r="I45" s="139"/>
-      <c r="J45" s="193"/>
+      <c r="J45" s="170"/>
       <c r="K45" s="155"/>
       <c r="L45" s="139"/>
       <c r="M45" s="139"/>
@@ -6647,11 +6647,11 @@
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="186" t="s">
+      <c r="B47" s="176" t="s">
         <v>746</v>
       </c>
       <c r="C47" s="150"/>
-      <c r="D47" s="169" t="s">
+      <c r="D47" s="172" t="s">
         <v>742</v>
       </c>
       <c r="E47" s="131"/>
@@ -6659,7 +6659,7 @@
       <c r="G47" s="131"/>
       <c r="H47" s="131"/>
       <c r="I47" s="131"/>
-      <c r="J47" s="180" t="s">
+      <c r="J47" s="169" t="s">
         <v>756</v>
       </c>
       <c r="K47" s="152"/>
@@ -6673,15 +6673,15 @@
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="187"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="151"/>
-      <c r="D48" s="171"/>
+      <c r="D48" s="173"/>
       <c r="E48" s="139"/>
       <c r="F48" s="139"/>
       <c r="G48" s="139"/>
       <c r="H48" s="139"/>
       <c r="I48" s="139"/>
-      <c r="J48" s="193"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="155"/>
       <c r="L48" s="139"/>
       <c r="M48" s="139"/>
@@ -6747,11 +6747,11 @@
       <c r="A52" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="188" t="s">
+      <c r="B52" s="178" t="s">
         <v>751</v>
       </c>
       <c r="C52" s="144"/>
-      <c r="D52" s="184" t="s">
+      <c r="D52" s="180" t="s">
         <v>733</v>
       </c>
       <c r="E52" s="132"/>
@@ -6771,9 +6771,9 @@
       <c r="A53" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="189"/>
+      <c r="B53" s="179"/>
       <c r="C53" s="147"/>
-      <c r="D53" s="185"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="148"/>
       <c r="F53" s="148"/>
       <c r="G53" s="148"/>
@@ -6845,11 +6845,11 @@
       <c r="A57" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="190" t="s">
+      <c r="B57" s="174" t="s">
         <v>763</v>
       </c>
       <c r="C57" s="150"/>
-      <c r="D57" s="169" t="s">
+      <c r="D57" s="172" t="s">
         <v>335</v>
       </c>
       <c r="E57" s="131"/>
@@ -6857,7 +6857,7 @@
       <c r="G57" s="131"/>
       <c r="H57" s="131"/>
       <c r="I57" s="131"/>
-      <c r="J57" s="180" t="s">
+      <c r="J57" s="169" t="s">
         <v>761</v>
       </c>
       <c r="K57" s="152"/>
@@ -6871,15 +6871,15 @@
       <c r="A58" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="191"/>
+      <c r="B58" s="175"/>
       <c r="C58" s="151"/>
-      <c r="D58" s="171"/>
+      <c r="D58" s="173"/>
       <c r="E58" s="139"/>
       <c r="F58" s="139"/>
       <c r="G58" s="139"/>
       <c r="H58" s="139"/>
       <c r="I58" s="139"/>
-      <c r="J58" s="193"/>
+      <c r="J58" s="170"/>
       <c r="K58" s="155"/>
       <c r="L58" s="139"/>
       <c r="M58" s="139"/>
@@ -6905,11 +6905,11 @@
       <c r="A60" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="190" t="s">
+      <c r="B60" s="174" t="s">
         <v>831</v>
       </c>
       <c r="C60" s="150"/>
-      <c r="D60" s="169" t="s">
+      <c r="D60" s="172" t="s">
         <v>747</v>
       </c>
       <c r="E60" s="131"/>
@@ -6917,7 +6917,7 @@
       <c r="G60" s="131"/>
       <c r="H60" s="131"/>
       <c r="I60" s="131"/>
-      <c r="J60" s="180" t="s">
+      <c r="J60" s="169" t="s">
         <v>762</v>
       </c>
       <c r="K60" s="152"/>
@@ -6931,15 +6931,15 @@
       <c r="A61" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="191"/>
+      <c r="B61" s="175"/>
       <c r="C61" s="151"/>
-      <c r="D61" s="171"/>
+      <c r="D61" s="173"/>
       <c r="E61" s="139"/>
       <c r="F61" s="139"/>
       <c r="G61" s="139"/>
       <c r="H61" s="139"/>
       <c r="I61" s="139"/>
-      <c r="J61" s="193"/>
+      <c r="J61" s="170"/>
       <c r="K61" s="155"/>
       <c r="L61" s="139"/>
       <c r="M61" s="139"/>
@@ -6965,11 +6965,11 @@
       <c r="A63" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="190" t="s">
+      <c r="B63" s="174" t="s">
         <v>832</v>
       </c>
       <c r="C63" s="150"/>
-      <c r="D63" s="169" t="s">
+      <c r="D63" s="172" t="s">
         <v>749</v>
       </c>
       <c r="E63" s="131"/>
@@ -6989,9 +6989,9 @@
       <c r="A64" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="191"/>
+      <c r="B64" s="175"/>
       <c r="C64" s="151"/>
-      <c r="D64" s="171"/>
+      <c r="D64" s="173"/>
       <c r="E64" s="139"/>
       <c r="F64" s="139"/>
       <c r="G64" s="139"/>
@@ -7062,6 +7062,49 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:D64"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="J60:J61"/>
@@ -7071,49 +7114,6 @@
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J44:J45"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="20" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7440,8 +7440,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8514,8 +8514,8 @@
   </sheetPr>
   <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117:F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8553,19 +8553,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="203" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="209"/>
+      <c r="F5" s="203"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="230" t="s">
+      <c r="E6" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="230"/>
+      <c r="F6" s="212"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
@@ -8579,14 +8579,14 @@
       <c r="D7" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="E7" s="204" t="s">
+      <c r="E7" s="205" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="204"/>
-      <c r="G7" s="205" t="s">
+      <c r="F7" s="205"/>
+      <c r="G7" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="210" t="s">
+      <c r="H7" s="213" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8600,11 +8600,11 @@
       <c r="D8" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="E8" s="211" t="s">
+      <c r="E8" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="211"/>
-      <c r="G8" s="206"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="207"/>
       <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
       <c r="F9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="206"/>
+      <c r="G9" s="207"/>
       <c r="H9" s="214"/>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8638,24 +8638,24 @@
       <c r="F10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="207"/>
+      <c r="G10" s="208"/>
       <c r="H10" s="214"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="209"/>
+      <c r="F11" s="203"/>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="203" t="s">
+      <c r="E12" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="203"/>
+      <c r="F12" s="204"/>
       <c r="G12" s="10"/>
       <c r="H12" s="24"/>
     </row>
@@ -8666,14 +8666,14 @@
       <c r="D13" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="E13" s="204" t="s">
+      <c r="E13" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="204"/>
-      <c r="G13" s="205" t="s">
+      <c r="F13" s="205"/>
+      <c r="G13" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="213" t="s">
+      <c r="H13" s="209" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8687,12 +8687,12 @@
       <c r="D14" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="E14" s="211" t="s">
+      <c r="E14" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="211"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="213"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="209"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -8704,12 +8704,12 @@
       <c r="D15" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="E15" s="229" t="s">
+      <c r="E15" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="229"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="213"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="209"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
@@ -8718,12 +8718,12 @@
       <c r="D16" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="E16" s="211" t="s">
+      <c r="E16" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="211"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="213"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="209"/>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
@@ -8736,8 +8736,8 @@
       <c r="F17" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="206"/>
-      <c r="H17" s="213"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="209"/>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
@@ -8750,8 +8750,8 @@
       <c r="F18" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="207"/>
-      <c r="H18" s="213"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="209"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E19" s="6" t="s">
@@ -8763,10 +8763,10 @@
       <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="203" t="s">
+      <c r="E20" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="203"/>
+      <c r="F20" s="204"/>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -8776,14 +8776,14 @@
       <c r="D21" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="E21" s="204" t="s">
+      <c r="E21" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="204"/>
-      <c r="G21" s="226" t="s">
+      <c r="F21" s="205"/>
+      <c r="G21" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="208" t="s">
+      <c r="H21" s="218" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8797,12 +8797,12 @@
       <c r="D22" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="E22" s="211" t="s">
+      <c r="E22" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="211"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="208"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="218"/>
     </row>
     <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -8814,12 +8814,12 @@
       <c r="D23" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="E23" s="211" t="s">
+      <c r="E23" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="211"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="208"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="218"/>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
@@ -8832,8 +8832,8 @@
       <c r="F24" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="228"/>
-      <c r="H24" s="208"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="218"/>
     </row>
     <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="27"/>
@@ -8844,14 +8844,14 @@
       <c r="D26" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="E26" s="204" t="s">
+      <c r="E26" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="204"/>
-      <c r="G26" s="205" t="s">
+      <c r="F26" s="205"/>
+      <c r="G26" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="213" t="s">
+      <c r="H26" s="209" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8859,12 +8859,12 @@
       <c r="D27" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="E27" s="211" t="s">
+      <c r="E27" s="210" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="211"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="213"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="209"/>
     </row>
     <row r="28" spans="1:8" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -8876,23 +8876,23 @@
       <c r="D28" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="E28" s="211" t="s">
+      <c r="E28" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="211"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="213"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="209"/>
     </row>
     <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="211"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="213"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="209"/>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="17" t="s">
@@ -8902,8 +8902,8 @@
       <c r="F30" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="206"/>
-      <c r="H30" s="213"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="209"/>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="17" t="s">
@@ -8913,8 +8913,8 @@
       <c r="F31" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="206"/>
-      <c r="H31" s="213"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="209"/>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="17" t="s">
@@ -8924,8 +8924,8 @@
       <c r="F32" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="206"/>
-      <c r="H32" s="213"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="209"/>
     </row>
     <row r="33" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="17" t="s">
@@ -8935,8 +8935,8 @@
       <c r="F33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="206"/>
-      <c r="H33" s="213"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="209"/>
     </row>
     <row r="34" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
@@ -8946,8 +8946,8 @@
       <c r="F34" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="206"/>
-      <c r="H34" s="213"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="209"/>
     </row>
     <row r="35" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="20" t="s">
@@ -8957,8 +8957,8 @@
       <c r="F35" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="207"/>
-      <c r="H35" s="213"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="209"/>
     </row>
     <row r="36" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="29"/>
@@ -8970,14 +8970,14 @@
       <c r="D37" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="E37" s="204" t="s">
+      <c r="E37" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="204"/>
-      <c r="G37" s="205" t="s">
+      <c r="F37" s="205"/>
+      <c r="G37" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="213" t="s">
+      <c r="H37" s="209" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8985,23 +8985,23 @@
       <c r="D38" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="E38" s="211" t="s">
+      <c r="E38" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="211"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="213"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="209"/>
     </row>
     <row r="39" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="E39" s="211" t="s">
+      <c r="E39" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="211"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="213"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="209"/>
     </row>
     <row r="40" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="20" t="s">
@@ -9011,8 +9011,8 @@
       <c r="F40" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="207"/>
-      <c r="H40" s="213"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="209"/>
     </row>
     <row r="41" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F41" s="27"/>
@@ -9023,11 +9023,11 @@
       <c r="D42" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="E42" s="204" t="s">
+      <c r="E42" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="204"/>
-      <c r="G42" s="205" t="s">
+      <c r="F42" s="205"/>
+      <c r="G42" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H42" s="214" t="s">
@@ -9042,18 +9042,18 @@
         <v>118</v>
       </c>
       <c r="F43" s="30"/>
-      <c r="G43" s="206"/>
+      <c r="G43" s="207"/>
       <c r="H43" s="214"/>
     </row>
     <row r="44" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="E44" s="211" t="s">
+      <c r="E44" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="211"/>
-      <c r="G44" s="206"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="207"/>
       <c r="H44" s="214"/>
     </row>
     <row r="45" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9064,7 +9064,7 @@
       <c r="F45" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="208"/>
       <c r="H45" s="214"/>
     </row>
     <row r="46" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9076,11 +9076,11 @@
       <c r="D47" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="E47" s="204" t="s">
+      <c r="E47" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="204"/>
-      <c r="G47" s="205" t="s">
+      <c r="F47" s="205"/>
+      <c r="G47" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H47" s="8"/>
@@ -9089,22 +9089,22 @@
       <c r="D48" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="E48" s="211" t="s">
+      <c r="E48" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="211"/>
-      <c r="G48" s="206"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="207"/>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="E49" s="211" t="s">
+      <c r="E49" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="211"/>
-      <c r="G49" s="206"/>
+      <c r="F49" s="210"/>
+      <c r="G49" s="207"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9115,7 +9115,7 @@
       <c r="F50" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="207"/>
+      <c r="G50" s="208"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="4:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9127,11 +9127,11 @@
       <c r="D52" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="E52" s="204" t="s">
+      <c r="E52" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="204"/>
-      <c r="G52" s="205" t="s">
+      <c r="F52" s="205"/>
+      <c r="G52" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H52" s="8"/>
@@ -9140,11 +9140,11 @@
       <c r="D53" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="E53" s="211" t="s">
+      <c r="E53" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="211"/>
-      <c r="G53" s="206"/>
+      <c r="F53" s="210"/>
+      <c r="G53" s="207"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9155,7 +9155,7 @@
       <c r="F54" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G54" s="207"/>
+      <c r="G54" s="208"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9169,11 +9169,11 @@
       <c r="D56" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="E56" s="204" t="s">
+      <c r="E56" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="F56" s="204"/>
-      <c r="G56" s="205" t="s">
+      <c r="F56" s="205"/>
+      <c r="G56" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H56" s="8"/>
@@ -9182,33 +9182,33 @@
       <c r="D57" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="E57" s="211" t="s">
+      <c r="E57" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="211"/>
-      <c r="G57" s="206"/>
+      <c r="F57" s="210"/>
+      <c r="G57" s="207"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D58" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="E58" s="211" t="s">
+      <c r="E58" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="211"/>
-      <c r="G58" s="206"/>
+      <c r="F58" s="210"/>
+      <c r="G58" s="207"/>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="E59" s="211" t="s">
+      <c r="E59" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="F59" s="211"/>
-      <c r="G59" s="206"/>
+      <c r="F59" s="210"/>
+      <c r="G59" s="207"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9219,7 +9219,7 @@
       <c r="F60" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="207"/>
+      <c r="G60" s="208"/>
     </row>
     <row r="61" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61" s="27"/>
@@ -9230,14 +9230,14 @@
       <c r="D62" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="E62" s="204" t="s">
+      <c r="E62" s="205" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="204"/>
-      <c r="G62" s="205" t="s">
+      <c r="F62" s="205"/>
+      <c r="G62" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H62" s="213" t="s">
+      <c r="H62" s="209" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9249,30 +9249,30 @@
         <v>127</v>
       </c>
       <c r="F63" s="30"/>
-      <c r="G63" s="206"/>
-      <c r="H63" s="208"/>
+      <c r="G63" s="207"/>
+      <c r="H63" s="218"/>
     </row>
     <row r="64" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="15" t="s">
         <v>951</v>
       </c>
-      <c r="E64" s="211" t="s">
+      <c r="E64" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="211"/>
-      <c r="G64" s="206"/>
-      <c r="H64" s="208"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="207"/>
+      <c r="H64" s="218"/>
     </row>
     <row r="65" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D65" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="E65" s="211" t="s">
+      <c r="E65" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="211"/>
-      <c r="G65" s="206"/>
-      <c r="H65" s="208"/>
+      <c r="F65" s="210"/>
+      <c r="G65" s="207"/>
+      <c r="H65" s="218"/>
     </row>
     <row r="66" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="20" t="s">
@@ -9282,8 +9282,8 @@
       <c r="F66" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G66" s="207"/>
-      <c r="H66" s="208"/>
+      <c r="G66" s="208"/>
+      <c r="H66" s="218"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="27"/>
@@ -9294,11 +9294,11 @@
       <c r="D68" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="E68" s="204" t="s">
+      <c r="E68" s="205" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="204"/>
-      <c r="G68" s="205" t="s">
+      <c r="F68" s="205"/>
+      <c r="G68" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H68" s="8"/>
@@ -9313,11 +9313,11 @@
       <c r="D69" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="E69" s="211" t="s">
+      <c r="E69" s="210" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="211"/>
-      <c r="G69" s="206"/>
+      <c r="F69" s="210"/>
+      <c r="G69" s="207"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9330,11 +9330,11 @@
       <c r="D70" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="E70" s="211" t="s">
+      <c r="E70" s="210" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="211"/>
-      <c r="G70" s="206"/>
+      <c r="F70" s="210"/>
+      <c r="G70" s="207"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9347,11 +9347,11 @@
       <c r="D71" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="E71" s="211" t="s">
+      <c r="E71" s="210" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="211"/>
-      <c r="G71" s="206"/>
+      <c r="F71" s="210"/>
+      <c r="G71" s="207"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9364,11 +9364,11 @@
       <c r="D72" s="15" t="s">
         <v>957</v>
       </c>
-      <c r="E72" s="211" t="s">
+      <c r="E72" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="211"/>
-      <c r="G72" s="206"/>
+      <c r="F72" s="210"/>
+      <c r="G72" s="207"/>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9379,7 +9379,7 @@
       <c r="F73" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G73" s="207"/>
+      <c r="G73" s="208"/>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9396,14 +9396,14 @@
       <c r="D75" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="E75" s="204" t="s">
+      <c r="E75" s="205" t="s">
         <v>155</v>
       </c>
-      <c r="F75" s="204"/>
-      <c r="G75" s="205" t="s">
+      <c r="F75" s="205"/>
+      <c r="G75" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H75" s="224" t="s">
+      <c r="H75" s="219" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       <c r="D76" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="E76" s="211" t="s">
+      <c r="E76" s="210" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="225"/>
+      <c r="F76" s="210"/>
+      <c r="G76" s="207"/>
+      <c r="H76" s="220"/>
     </row>
     <row r="77" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
@@ -9434,12 +9434,12 @@
       <c r="D77" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="E77" s="211" t="s">
+      <c r="E77" s="210" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="211"/>
-      <c r="G77" s="206"/>
-      <c r="H77" s="225"/>
+      <c r="F77" s="210"/>
+      <c r="G77" s="207"/>
+      <c r="H77" s="220"/>
     </row>
     <row r="78" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
@@ -9455,8 +9455,8 @@
       <c r="F78" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="206"/>
-      <c r="H78" s="225"/>
+      <c r="G78" s="207"/>
+      <c r="H78" s="220"/>
     </row>
     <row r="79" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="16" t="s">
@@ -9469,8 +9469,8 @@
       <c r="F79" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="207"/>
-      <c r="H79" s="225"/>
+      <c r="G79" s="208"/>
+      <c r="H79" s="220"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F80" s="27"/>
@@ -9484,14 +9484,14 @@
       <c r="D81" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="E81" s="204" t="s">
+      <c r="E81" s="205" t="s">
         <v>163</v>
       </c>
-      <c r="F81" s="204"/>
-      <c r="G81" s="205" t="s">
+      <c r="F81" s="205"/>
+      <c r="G81" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H81" s="208" t="s">
+      <c r="H81" s="218" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9502,12 +9502,12 @@
       <c r="D82" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="E82" s="211" t="s">
+      <c r="E82" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="F82" s="211"/>
-      <c r="G82" s="206"/>
-      <c r="H82" s="208"/>
+      <c r="F82" s="210"/>
+      <c r="G82" s="207"/>
+      <c r="H82" s="218"/>
     </row>
     <row r="83" spans="3:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="14" t="s">
@@ -9516,12 +9516,12 @@
       <c r="D83" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="E83" s="211" t="s">
+      <c r="E83" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="211"/>
-      <c r="G83" s="206"/>
-      <c r="H83" s="208"/>
+      <c r="F83" s="210"/>
+      <c r="G83" s="207"/>
+      <c r="H83" s="218"/>
     </row>
     <row r="84" spans="3:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C84" s="14" t="s">
@@ -9530,12 +9530,12 @@
       <c r="D84" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="E84" s="211" t="s">
+      <c r="E84" s="210" t="s">
         <v>167</v>
       </c>
-      <c r="F84" s="211"/>
-      <c r="G84" s="206"/>
-      <c r="H84" s="208"/>
+      <c r="F84" s="210"/>
+      <c r="G84" s="207"/>
+      <c r="H84" s="218"/>
     </row>
     <row r="85" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C85" s="16" t="s">
@@ -9548,8 +9548,8 @@
       <c r="F85" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G85" s="206"/>
-      <c r="H85" s="208"/>
+      <c r="G85" s="207"/>
+      <c r="H85" s="218"/>
     </row>
     <row r="86" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C86" s="16" t="s">
@@ -9562,8 +9562,8 @@
       <c r="F86" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G86" s="206"/>
-      <c r="H86" s="208"/>
+      <c r="G86" s="207"/>
+      <c r="H86" s="218"/>
     </row>
     <row r="87" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="16" t="s">
@@ -9576,8 +9576,8 @@
       <c r="F87" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G87" s="207"/>
-      <c r="H87" s="208"/>
+      <c r="G87" s="208"/>
+      <c r="H87" s="218"/>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G88" s="34"/>
@@ -9590,31 +9590,31 @@
       <c r="G89" s="25"/>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E90" s="209" t="s">
+      <c r="E90" s="203" t="s">
         <v>172</v>
       </c>
-      <c r="F90" s="209"/>
+      <c r="F90" s="203"/>
       <c r="G90" s="25"/>
     </row>
     <row r="91" spans="3:8" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="203" t="s">
+      <c r="E91" s="204" t="s">
         <v>173</v>
       </c>
-      <c r="F91" s="203"/>
+      <c r="F91" s="204"/>
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="3:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D92" s="35" t="s">
         <v>863</v>
       </c>
-      <c r="E92" s="204" t="s">
+      <c r="E92" s="205" t="s">
         <v>175</v>
       </c>
-      <c r="F92" s="204"/>
-      <c r="G92" s="205" t="s">
+      <c r="F92" s="205"/>
+      <c r="G92" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H92" s="213" t="s">
+      <c r="H92" s="209" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9622,23 +9622,23 @@
       <c r="D93" s="36" t="s">
         <v>970</v>
       </c>
-      <c r="E93" s="211" t="s">
+      <c r="E93" s="210" t="s">
         <v>177</v>
       </c>
-      <c r="F93" s="211"/>
-      <c r="G93" s="206"/>
-      <c r="H93" s="213"/>
+      <c r="F93" s="210"/>
+      <c r="G93" s="207"/>
+      <c r="H93" s="209"/>
     </row>
     <row r="94" spans="3:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D94" s="36" t="s">
         <v>971</v>
       </c>
-      <c r="E94" s="211" t="s">
+      <c r="E94" s="210" t="s">
         <v>178</v>
       </c>
-      <c r="F94" s="211"/>
-      <c r="G94" s="206"/>
-      <c r="H94" s="213"/>
+      <c r="F94" s="210"/>
+      <c r="G94" s="207"/>
+      <c r="H94" s="209"/>
     </row>
     <row r="95" spans="3:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D95" s="37" t="s">
@@ -9648,8 +9648,8 @@
       <c r="F95" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G95" s="206"/>
-      <c r="H95" s="213"/>
+      <c r="G95" s="207"/>
+      <c r="H95" s="209"/>
     </row>
     <row r="96" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D96" s="37" t="s">
@@ -9659,8 +9659,8 @@
       <c r="F96" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G96" s="206"/>
-      <c r="H96" s="213"/>
+      <c r="G96" s="207"/>
+      <c r="H96" s="209"/>
     </row>
     <row r="97" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D97" s="37" t="s">
@@ -9670,8 +9670,8 @@
       <c r="F97" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="G97" s="206"/>
-      <c r="H97" s="213"/>
+      <c r="G97" s="207"/>
+      <c r="H97" s="209"/>
     </row>
     <row r="98" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="38" t="s">
@@ -9681,37 +9681,37 @@
       <c r="F98" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="207"/>
-      <c r="H98" s="213"/>
+      <c r="G98" s="208"/>
+      <c r="H98" s="209"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E100" s="223" t="s">
+      <c r="E100" s="221" t="s">
         <v>183</v>
       </c>
-      <c r="F100" s="223"/>
+      <c r="F100" s="221"/>
     </row>
     <row r="101" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E101" s="203" t="s">
+      <c r="E101" s="204" t="s">
         <v>185</v>
       </c>
-      <c r="F101" s="203"/>
-      <c r="G101" s="203"/>
+      <c r="F101" s="204"/>
+      <c r="G101" s="204"/>
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D102" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="E102" s="204" t="s">
+      <c r="E102" s="205" t="s">
         <v>187</v>
       </c>
-      <c r="F102" s="204"/>
-      <c r="G102" s="205" t="s">
+      <c r="F102" s="205"/>
+      <c r="G102" s="206" t="s">
         <v>72</v>
       </c>
       <c r="H102" s="8"/>
@@ -9726,11 +9726,11 @@
       <c r="D103" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="E103" s="211" t="s">
+      <c r="E103" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="F103" s="211"/>
-      <c r="G103" s="206"/>
+      <c r="F103" s="210"/>
+      <c r="G103" s="207"/>
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9743,11 +9743,11 @@
       <c r="D104" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="E104" s="211" t="s">
+      <c r="E104" s="210" t="s">
         <v>191</v>
       </c>
-      <c r="F104" s="211"/>
-      <c r="G104" s="206"/>
+      <c r="F104" s="210"/>
+      <c r="G104" s="207"/>
       <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9760,11 +9760,11 @@
       <c r="D105" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="E105" s="211" t="s">
+      <c r="E105" s="210" t="s">
         <v>193</v>
       </c>
-      <c r="F105" s="211"/>
-      <c r="G105" s="206"/>
+      <c r="F105" s="210"/>
+      <c r="G105" s="207"/>
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -9778,7 +9778,7 @@
       <c r="F106" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="G106" s="206"/>
+      <c r="G106" s="207"/>
       <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
       <c r="F107" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="G107" s="206"/>
+      <c r="G107" s="207"/>
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9806,7 +9806,7 @@
       <c r="F108" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G108" s="207"/>
+      <c r="G108" s="208"/>
       <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9823,14 +9823,14 @@
       <c r="D110" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="E110" s="204" t="s">
+      <c r="E110" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="F110" s="204"/>
-      <c r="G110" s="205" t="s">
+      <c r="F110" s="205"/>
+      <c r="G110" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H110" s="213" t="s">
+      <c r="H110" s="209" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9838,34 +9838,34 @@
       <c r="D111" s="15" t="s">
         <v>982</v>
       </c>
-      <c r="E111" s="211" t="s">
+      <c r="E111" s="210" t="s">
         <v>200</v>
       </c>
-      <c r="F111" s="211"/>
-      <c r="G111" s="206"/>
-      <c r="H111" s="208"/>
+      <c r="F111" s="210"/>
+      <c r="G111" s="207"/>
+      <c r="H111" s="218"/>
     </row>
     <row r="112" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D112" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="E112" s="211" t="s">
+      <c r="E112" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="F112" s="211"/>
-      <c r="G112" s="206"/>
-      <c r="H112" s="208"/>
+      <c r="F112" s="210"/>
+      <c r="G112" s="207"/>
+      <c r="H112" s="218"/>
     </row>
     <row r="113" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D113" s="15" t="s">
         <v>984</v>
       </c>
-      <c r="E113" s="211" t="s">
+      <c r="E113" s="210" t="s">
         <v>202</v>
       </c>
-      <c r="F113" s="211"/>
-      <c r="G113" s="206"/>
-      <c r="H113" s="208"/>
+      <c r="F113" s="210"/>
+      <c r="G113" s="207"/>
+      <c r="H113" s="218"/>
     </row>
     <row r="114" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="20" t="s">
@@ -9875,8 +9875,8 @@
       <c r="F114" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="G114" s="207"/>
-      <c r="H114" s="208"/>
+      <c r="G114" s="208"/>
+      <c r="H114" s="218"/>
     </row>
     <row r="115" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="27"/>
@@ -9890,11 +9890,11 @@
       <c r="D116" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="E116" s="204" t="s">
+      <c r="E116" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="F116" s="204"/>
-      <c r="G116" s="205" t="s">
+      <c r="F116" s="205"/>
+      <c r="G116" s="206" t="s">
         <v>72</v>
       </c>
       <c r="H116" s="8"/>
@@ -9909,11 +9909,11 @@
       <c r="D117" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="E117" s="211" t="s">
+      <c r="E117" s="210" t="s">
         <v>209</v>
       </c>
-      <c r="F117" s="211"/>
-      <c r="G117" s="206"/>
+      <c r="F117" s="210"/>
+      <c r="G117" s="207"/>
       <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9926,11 +9926,11 @@
       <c r="D118" s="15" t="s">
         <v>987</v>
       </c>
-      <c r="E118" s="211" t="s">
+      <c r="E118" s="210" t="s">
         <v>210</v>
       </c>
-      <c r="F118" s="211"/>
-      <c r="G118" s="206"/>
+      <c r="F118" s="210"/>
+      <c r="G118" s="207"/>
       <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -9943,11 +9943,11 @@
       <c r="D119" s="15" t="s">
         <v>988</v>
       </c>
-      <c r="E119" s="211" t="s">
+      <c r="E119" s="210" t="s">
         <v>211</v>
       </c>
-      <c r="F119" s="211"/>
-      <c r="G119" s="206"/>
+      <c r="F119" s="210"/>
+      <c r="G119" s="207"/>
       <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9964,7 +9964,7 @@
       <c r="F120" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G120" s="206"/>
+      <c r="G120" s="207"/>
       <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9981,7 +9981,7 @@
       <c r="F121" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="G121" s="207"/>
+      <c r="G121" s="208"/>
       <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9993,14 +9993,14 @@
       <c r="D123" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="E123" s="204" t="s">
+      <c r="E123" s="205" t="s">
         <v>215</v>
       </c>
-      <c r="F123" s="204"/>
-      <c r="G123" s="205" t="s">
+      <c r="F123" s="205"/>
+      <c r="G123" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H123" s="210" t="s">
+      <c r="H123" s="213" t="s">
         <v>216</v>
       </c>
     </row>
@@ -10014,33 +10014,33 @@
       <c r="D124" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="E124" s="211" t="s">
+      <c r="E124" s="210" t="s">
         <v>218</v>
       </c>
-      <c r="F124" s="211"/>
-      <c r="G124" s="206"/>
+      <c r="F124" s="210"/>
+      <c r="G124" s="207"/>
       <c r="H124" s="214"/>
     </row>
     <row r="125" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D125" s="15" t="s">
         <v>992</v>
       </c>
-      <c r="E125" s="211" t="s">
+      <c r="E125" s="210" t="s">
         <v>219</v>
       </c>
-      <c r="F125" s="211"/>
-      <c r="G125" s="206"/>
+      <c r="F125" s="210"/>
+      <c r="G125" s="207"/>
       <c r="H125" s="214"/>
     </row>
     <row r="126" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D126" s="15" t="s">
         <v>993</v>
       </c>
-      <c r="E126" s="211" t="s">
+      <c r="E126" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="F126" s="211"/>
-      <c r="G126" s="206"/>
+      <c r="F126" s="210"/>
+      <c r="G126" s="207"/>
       <c r="H126" s="214"/>
     </row>
     <row r="127" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10051,7 +10051,7 @@
       <c r="F127" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G127" s="207"/>
+      <c r="G127" s="208"/>
       <c r="H127" s="214"/>
     </row>
     <row r="128" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10063,11 +10063,11 @@
       <c r="D129" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="E129" s="204" t="s">
+      <c r="E129" s="205" t="s">
         <v>223</v>
       </c>
-      <c r="F129" s="204"/>
-      <c r="G129" s="205" t="s">
+      <c r="F129" s="205"/>
+      <c r="G129" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H129" s="8"/>
@@ -10080,29 +10080,29 @@
         <v>224</v>
       </c>
       <c r="F130" s="222"/>
-      <c r="G130" s="206"/>
+      <c r="G130" s="207"/>
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D131" s="15" t="s">
         <v>996</v>
       </c>
-      <c r="E131" s="211" t="s">
+      <c r="E131" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="F131" s="211"/>
-      <c r="G131" s="206"/>
+      <c r="F131" s="210"/>
+      <c r="G131" s="207"/>
       <c r="H131" s="8"/>
     </row>
     <row r="132" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D132" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="E132" s="211" t="s">
+      <c r="E132" s="210" t="s">
         <v>226</v>
       </c>
-      <c r="F132" s="211"/>
-      <c r="G132" s="206"/>
+      <c r="F132" s="210"/>
+      <c r="G132" s="207"/>
       <c r="H132" s="8"/>
     </row>
     <row r="133" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10113,7 +10113,7 @@
       <c r="F133" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="G133" s="206"/>
+      <c r="G133" s="207"/>
       <c r="H133" s="8"/>
     </row>
     <row r="134" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10124,7 +10124,7 @@
       <c r="F134" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="G134" s="207"/>
+      <c r="G134" s="208"/>
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10138,14 +10138,14 @@
       <c r="D136" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="E136" s="204" t="s">
+      <c r="E136" s="205" t="s">
         <v>230</v>
       </c>
-      <c r="F136" s="204"/>
-      <c r="G136" s="205" t="s">
+      <c r="F136" s="205"/>
+      <c r="G136" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H136" s="210" t="s">
+      <c r="H136" s="213" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10153,44 +10153,44 @@
       <c r="D137" s="15" t="s">
         <v>1000</v>
       </c>
-      <c r="E137" s="211" t="s">
+      <c r="E137" s="210" t="s">
         <v>232</v>
       </c>
-      <c r="F137" s="211"/>
-      <c r="G137" s="206"/>
+      <c r="F137" s="210"/>
+      <c r="G137" s="207"/>
       <c r="H137" s="214"/>
     </row>
     <row r="138" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D138" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="E138" s="211" t="s">
+      <c r="E138" s="210" t="s">
         <v>233</v>
       </c>
-      <c r="F138" s="211"/>
-      <c r="G138" s="206"/>
+      <c r="F138" s="210"/>
+      <c r="G138" s="207"/>
       <c r="H138" s="214"/>
     </row>
     <row r="139" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D139" s="15" t="s">
         <v>1002</v>
       </c>
-      <c r="E139" s="211" t="s">
+      <c r="E139" s="210" t="s">
         <v>234</v>
       </c>
-      <c r="F139" s="211"/>
-      <c r="G139" s="206"/>
+      <c r="F139" s="210"/>
+      <c r="G139" s="207"/>
       <c r="H139" s="214"/>
     </row>
     <row r="140" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D140" s="15" t="s">
         <v>1003</v>
       </c>
-      <c r="E140" s="211" t="s">
+      <c r="E140" s="210" t="s">
         <v>235</v>
       </c>
-      <c r="F140" s="211"/>
-      <c r="G140" s="206"/>
+      <c r="F140" s="210"/>
+      <c r="G140" s="207"/>
       <c r="H140" s="214"/>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.25">
@@ -10201,7 +10201,7 @@
       <c r="F141" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="G141" s="206"/>
+      <c r="G141" s="207"/>
       <c r="H141" s="214"/>
     </row>
     <row r="142" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10212,7 +10212,7 @@
       <c r="F142" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G142" s="207"/>
+      <c r="G142" s="208"/>
       <c r="H142" s="214"/>
     </row>
     <row r="143" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10224,14 +10224,14 @@
       <c r="D144" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="E144" s="204" t="s">
+      <c r="E144" s="205" t="s">
         <v>239</v>
       </c>
-      <c r="F144" s="204"/>
-      <c r="G144" s="205" t="s">
+      <c r="F144" s="205"/>
+      <c r="G144" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H144" s="213" t="s">
+      <c r="H144" s="209" t="s">
         <v>240</v>
       </c>
     </row>
@@ -10239,78 +10239,78 @@
       <c r="D145" s="15" t="s">
         <v>1006</v>
       </c>
-      <c r="E145" s="211" t="s">
+      <c r="E145" s="210" t="s">
         <v>241</v>
       </c>
-      <c r="F145" s="211"/>
-      <c r="G145" s="206"/>
-      <c r="H145" s="213"/>
+      <c r="F145" s="210"/>
+      <c r="G145" s="207"/>
+      <c r="H145" s="209"/>
     </row>
     <row r="146" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D146" s="15" t="s">
         <v>1007</v>
       </c>
-      <c r="E146" s="211" t="s">
+      <c r="E146" s="210" t="s">
         <v>242</v>
       </c>
-      <c r="F146" s="211"/>
-      <c r="G146" s="206"/>
-      <c r="H146" s="213"/>
+      <c r="F146" s="210"/>
+      <c r="G146" s="207"/>
+      <c r="H146" s="209"/>
     </row>
     <row r="147" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D147" s="15" t="s">
         <v>1008</v>
       </c>
-      <c r="E147" s="211" t="s">
+      <c r="E147" s="210" t="s">
         <v>243</v>
       </c>
-      <c r="F147" s="211"/>
-      <c r="G147" s="206"/>
-      <c r="H147" s="213"/>
+      <c r="F147" s="210"/>
+      <c r="G147" s="207"/>
+      <c r="H147" s="209"/>
     </row>
     <row r="148" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D148" s="15" t="s">
         <v>1009</v>
       </c>
-      <c r="E148" s="211" t="s">
+      <c r="E148" s="210" t="s">
         <v>244</v>
       </c>
-      <c r="F148" s="211"/>
-      <c r="G148" s="206"/>
-      <c r="H148" s="213"/>
+      <c r="F148" s="210"/>
+      <c r="G148" s="207"/>
+      <c r="H148" s="209"/>
     </row>
     <row r="149" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D149" s="15" t="s">
         <v>1010</v>
       </c>
-      <c r="E149" s="211" t="s">
+      <c r="E149" s="210" t="s">
         <v>245</v>
       </c>
-      <c r="F149" s="211"/>
-      <c r="G149" s="206"/>
-      <c r="H149" s="213"/>
+      <c r="F149" s="210"/>
+      <c r="G149" s="207"/>
+      <c r="H149" s="209"/>
     </row>
     <row r="150" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D150" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="E150" s="211" t="s">
+      <c r="E150" s="210" t="s">
         <v>246</v>
       </c>
-      <c r="F150" s="211"/>
-      <c r="G150" s="206"/>
-      <c r="H150" s="213"/>
+      <c r="F150" s="210"/>
+      <c r="G150" s="207"/>
+      <c r="H150" s="209"/>
     </row>
     <row r="151" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D151" s="15" t="s">
         <v>1012</v>
       </c>
-      <c r="E151" s="211" t="s">
+      <c r="E151" s="210" t="s">
         <v>247</v>
       </c>
-      <c r="F151" s="211"/>
-      <c r="G151" s="206"/>
-      <c r="H151" s="213"/>
+      <c r="F151" s="210"/>
+      <c r="G151" s="207"/>
+      <c r="H151" s="209"/>
     </row>
     <row r="152" spans="4:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D152" s="17" t="s">
@@ -10320,8 +10320,8 @@
       <c r="F152" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="G152" s="206"/>
-      <c r="H152" s="213"/>
+      <c r="G152" s="207"/>
+      <c r="H152" s="209"/>
     </row>
     <row r="153" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="20" t="s">
@@ -10331,8 +10331,8 @@
       <c r="F153" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G153" s="207"/>
-      <c r="H153" s="213"/>
+      <c r="G153" s="208"/>
+      <c r="H153" s="209"/>
     </row>
     <row r="154" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F154" s="27"/>
@@ -10343,14 +10343,14 @@
       <c r="D155" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="E155" s="204" t="s">
+      <c r="E155" s="205" t="s">
         <v>251</v>
       </c>
-      <c r="F155" s="204"/>
-      <c r="G155" s="205" t="s">
+      <c r="F155" s="205"/>
+      <c r="G155" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H155" s="208" t="s">
+      <c r="H155" s="218" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10358,23 +10358,23 @@
       <c r="D156" s="15" t="s">
         <v>1015</v>
       </c>
-      <c r="E156" s="211" t="s">
+      <c r="E156" s="210" t="s">
         <v>253</v>
       </c>
-      <c r="F156" s="211"/>
-      <c r="G156" s="206"/>
-      <c r="H156" s="208"/>
+      <c r="F156" s="210"/>
+      <c r="G156" s="207"/>
+      <c r="H156" s="218"/>
     </row>
     <row r="157" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D157" s="15" t="s">
         <v>1016</v>
       </c>
-      <c r="E157" s="211" t="s">
+      <c r="E157" s="210" t="s">
         <v>254</v>
       </c>
-      <c r="F157" s="211"/>
-      <c r="G157" s="206"/>
-      <c r="H157" s="208"/>
+      <c r="F157" s="210"/>
+      <c r="G157" s="207"/>
+      <c r="H157" s="218"/>
     </row>
     <row r="158" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D158" s="17" t="s">
@@ -10384,8 +10384,8 @@
       <c r="F158" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="G158" s="206"/>
-      <c r="H158" s="208"/>
+      <c r="G158" s="207"/>
+      <c r="H158" s="218"/>
     </row>
     <row r="159" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D159" s="17" t="s">
@@ -10395,8 +10395,8 @@
       <c r="F159" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G159" s="206"/>
-      <c r="H159" s="208"/>
+      <c r="G159" s="207"/>
+      <c r="H159" s="218"/>
     </row>
     <row r="160" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="20" t="s">
@@ -10406,8 +10406,8 @@
       <c r="F160" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G160" s="207"/>
-      <c r="H160" s="208"/>
+      <c r="G160" s="208"/>
+      <c r="H160" s="218"/>
     </row>
     <row r="161" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F161" s="27"/>
@@ -10418,11 +10418,11 @@
       <c r="D162" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="E162" s="204" t="s">
+      <c r="E162" s="205" t="s">
         <v>259</v>
       </c>
-      <c r="F162" s="204"/>
-      <c r="G162" s="205" t="s">
+      <c r="F162" s="205"/>
+      <c r="G162" s="206" t="s">
         <v>72</v>
       </c>
       <c r="H162" s="8"/>
@@ -10431,11 +10431,11 @@
       <c r="D163" s="15" t="s">
         <v>1020</v>
       </c>
-      <c r="E163" s="211" t="s">
+      <c r="E163" s="210" t="s">
         <v>260</v>
       </c>
-      <c r="F163" s="211"/>
-      <c r="G163" s="206"/>
+      <c r="F163" s="210"/>
+      <c r="G163" s="207"/>
       <c r="H163" s="8"/>
     </row>
     <row r="164" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10449,7 +10449,7 @@
       <c r="F164" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="G164" s="206"/>
+      <c r="G164" s="207"/>
       <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10468,7 +10468,7 @@
       <c r="F165" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G165" s="207"/>
+      <c r="G165" s="208"/>
       <c r="H165" s="8"/>
     </row>
     <row r="166" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -10479,10 +10479,10 @@
         <v>266</v>
       </c>
       <c r="F166" s="40"/>
-      <c r="G166" s="205" t="s">
+      <c r="G166" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H166" s="210" t="s">
+      <c r="H166" s="213" t="s">
         <v>267</v>
       </c>
     </row>
@@ -10494,18 +10494,18 @@
       <c r="F167" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="G167" s="207"/>
-      <c r="H167" s="210"/>
+      <c r="G167" s="208"/>
+      <c r="H167" s="213"/>
     </row>
     <row r="168" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D168" s="39" t="s">
         <v>1025</v>
       </c>
-      <c r="E168" s="217" t="s">
+      <c r="E168" s="223" t="s">
         <v>269</v>
       </c>
-      <c r="F168" s="217"/>
-      <c r="G168" s="205" t="s">
+      <c r="F168" s="223"/>
+      <c r="G168" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H168" s="214" t="s">
@@ -10520,7 +10520,7 @@
       <c r="F169" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="G169" s="206"/>
+      <c r="G169" s="207"/>
       <c r="H169" s="214"/>
     </row>
     <row r="170" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -10531,7 +10531,7 @@
       <c r="F170" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="G170" s="206"/>
+      <c r="G170" s="207"/>
       <c r="H170" s="214"/>
     </row>
     <row r="171" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10542,18 +10542,18 @@
       <c r="F171" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="G171" s="207"/>
+      <c r="G171" s="208"/>
       <c r="H171" s="214"/>
     </row>
     <row r="172" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D172" s="39" t="s">
         <v>1029</v>
       </c>
-      <c r="E172" s="217" t="s">
+      <c r="E172" s="223" t="s">
         <v>274</v>
       </c>
-      <c r="F172" s="217"/>
-      <c r="G172" s="205" t="s">
+      <c r="F172" s="223"/>
+      <c r="G172" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H172" s="8"/>
@@ -10566,7 +10566,7 @@
       <c r="F173" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="G173" s="206"/>
+      <c r="G173" s="207"/>
       <c r="H173" s="8"/>
     </row>
     <row r="174" spans="1:8" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -10577,18 +10577,18 @@
       <c r="F174" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="G174" s="207"/>
+      <c r="G174" s="208"/>
       <c r="H174" s="8"/>
     </row>
     <row r="175" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D175" s="39" t="s">
         <v>1032</v>
       </c>
-      <c r="E175" s="217" t="s">
+      <c r="E175" s="223" t="s">
         <v>277</v>
       </c>
-      <c r="F175" s="217"/>
-      <c r="G175" s="205" t="s">
+      <c r="F175" s="223"/>
+      <c r="G175" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H175" s="8"/>
@@ -10601,7 +10601,7 @@
       <c r="F176" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="G176" s="206"/>
+      <c r="G176" s="207"/>
       <c r="H176" s="8"/>
     </row>
     <row r="177" spans="1:8" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -10612,7 +10612,7 @@
       <c r="F177" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="G177" s="207"/>
+      <c r="G177" s="208"/>
       <c r="H177" s="8"/>
     </row>
     <row r="178" spans="1:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10624,11 +10624,11 @@
       <c r="D179" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="E179" s="204" t="s">
+      <c r="E179" s="205" t="s">
         <v>281</v>
       </c>
-      <c r="F179" s="204"/>
-      <c r="G179" s="205" t="s">
+      <c r="F179" s="205"/>
+      <c r="G179" s="206" t="s">
         <v>72</v>
       </c>
       <c r="H179" s="8"/>
@@ -10643,11 +10643,11 @@
       <c r="D180" s="15" t="s">
         <v>1035</v>
       </c>
-      <c r="E180" s="211" t="s">
+      <c r="E180" s="210" t="s">
         <v>284</v>
       </c>
-      <c r="F180" s="211"/>
-      <c r="G180" s="206"/>
+      <c r="F180" s="210"/>
+      <c r="G180" s="207"/>
       <c r="H180" s="8"/>
     </row>
     <row r="181" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10664,7 +10664,7 @@
       <c r="F181" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="G181" s="206"/>
+      <c r="G181" s="207"/>
       <c r="H181" s="8"/>
     </row>
     <row r="182" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10678,7 +10678,7 @@
       <c r="F182" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="G182" s="206"/>
+      <c r="G182" s="207"/>
       <c r="H182" s="8"/>
     </row>
     <row r="183" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10692,7 +10692,7 @@
       <c r="F183" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="G183" s="206"/>
+      <c r="G183" s="207"/>
       <c r="H183" s="8"/>
     </row>
     <row r="184" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10706,7 +10706,7 @@
       <c r="F184" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G184" s="207"/>
+      <c r="G184" s="208"/>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -10719,11 +10719,11 @@
       <c r="D185" s="39" t="s">
         <v>1040</v>
       </c>
-      <c r="E185" s="217" t="s">
+      <c r="E185" s="223" t="s">
         <v>292</v>
       </c>
-      <c r="F185" s="217"/>
-      <c r="G185" s="205" t="s">
+      <c r="F185" s="223"/>
+      <c r="G185" s="206" t="s">
         <v>72</v>
       </c>
       <c r="H185" s="8"/>
@@ -10738,11 +10738,11 @@
       <c r="D186" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="E186" s="211" t="s">
+      <c r="E186" s="210" t="s">
         <v>294</v>
       </c>
-      <c r="F186" s="211"/>
-      <c r="G186" s="206"/>
+      <c r="F186" s="210"/>
+      <c r="G186" s="207"/>
       <c r="H186" s="8"/>
     </row>
     <row r="187" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -10755,11 +10755,11 @@
       <c r="D187" s="15" t="s">
         <v>1042</v>
       </c>
-      <c r="E187" s="211" t="s">
+      <c r="E187" s="210" t="s">
         <v>295</v>
       </c>
-      <c r="F187" s="211"/>
-      <c r="G187" s="206"/>
+      <c r="F187" s="210"/>
+      <c r="G187" s="207"/>
       <c r="H187" s="8"/>
     </row>
     <row r="188" spans="1:8" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10772,11 +10772,11 @@
       <c r="D188" s="43" t="s">
         <v>1043</v>
       </c>
-      <c r="E188" s="218" t="s">
+      <c r="E188" s="224" t="s">
         <v>296</v>
       </c>
-      <c r="F188" s="218"/>
-      <c r="G188" s="207"/>
+      <c r="F188" s="224"/>
+      <c r="G188" s="208"/>
       <c r="H188" s="8"/>
     </row>
     <row r="189" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -10786,14 +10786,14 @@
       <c r="D189" s="39" t="s">
         <v>1044</v>
       </c>
-      <c r="E189" s="217" t="s">
+      <c r="E189" s="223" t="s">
         <v>297</v>
       </c>
-      <c r="F189" s="217"/>
-      <c r="G189" s="205" t="s">
+      <c r="F189" s="223"/>
+      <c r="G189" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="H189" s="210" t="s">
+      <c r="H189" s="213" t="s">
         <v>298</v>
       </c>
     </row>
@@ -10808,8 +10808,8 @@
       <c r="F190" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="G190" s="206"/>
-      <c r="H190" s="210"/>
+      <c r="G190" s="207"/>
+      <c r="H190" s="213"/>
     </row>
     <row r="191" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B191" s="16" t="s">
@@ -10822,8 +10822,8 @@
       <c r="F191" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="G191" s="206"/>
-      <c r="H191" s="210"/>
+      <c r="G191" s="207"/>
+      <c r="H191" s="213"/>
     </row>
     <row r="192" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="16" t="s">
@@ -10836,8 +10836,8 @@
       <c r="F192" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="G192" s="206"/>
-      <c r="H192" s="210"/>
+      <c r="G192" s="207"/>
+      <c r="H192" s="213"/>
     </row>
     <row r="193" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="16" t="s">
@@ -10850,8 +10850,8 @@
       <c r="F193" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="G193" s="207"/>
-      <c r="H193" s="210"/>
+      <c r="G193" s="208"/>
+      <c r="H193" s="213"/>
     </row>
     <row r="194" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F194" s="27"/>
@@ -10865,11 +10865,11 @@
       <c r="D195" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E195" s="204" t="s">
+      <c r="E195" s="205" t="s">
         <v>305</v>
       </c>
-      <c r="F195" s="204"/>
-      <c r="G195" s="205" t="s">
+      <c r="F195" s="205"/>
+      <c r="G195" s="206" t="s">
         <v>72</v>
       </c>
       <c r="H195" s="8"/>
@@ -10881,11 +10881,11 @@
       <c r="D196" s="15" t="s">
         <v>1049</v>
       </c>
-      <c r="E196" s="211" t="s">
+      <c r="E196" s="210" t="s">
         <v>306</v>
       </c>
-      <c r="F196" s="211"/>
-      <c r="G196" s="206"/>
+      <c r="F196" s="210"/>
+      <c r="G196" s="207"/>
       <c r="H196" s="8"/>
     </row>
     <row r="197" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -10895,11 +10895,11 @@
       <c r="D197" s="15" t="s">
         <v>1050</v>
       </c>
-      <c r="E197" s="211" t="s">
+      <c r="E197" s="210" t="s">
         <v>307</v>
       </c>
-      <c r="F197" s="211"/>
-      <c r="G197" s="206"/>
+      <c r="F197" s="210"/>
+      <c r="G197" s="207"/>
       <c r="H197" s="8"/>
     </row>
     <row r="198" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -10909,11 +10909,11 @@
       <c r="D198" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="E198" s="211" t="s">
+      <c r="E198" s="210" t="s">
         <v>308</v>
       </c>
-      <c r="F198" s="211"/>
-      <c r="G198" s="206"/>
+      <c r="F198" s="210"/>
+      <c r="G198" s="207"/>
       <c r="H198" s="8"/>
     </row>
     <row r="199" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10927,7 +10927,7 @@
       <c r="F199" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="G199" s="206"/>
+      <c r="G199" s="207"/>
       <c r="H199" s="8"/>
     </row>
     <row r="200" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -10944,7 +10944,7 @@
       <c r="F200" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G200" s="206"/>
+      <c r="G200" s="207"/>
       <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10958,7 +10958,7 @@
       <c r="F201" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="G201" s="207"/>
+      <c r="G201" s="208"/>
       <c r="H201" s="8"/>
     </row>
     <row r="202" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10972,11 +10972,11 @@
       <c r="D203" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="E203" s="204" t="s">
+      <c r="E203" s="205" t="s">
         <v>315</v>
       </c>
-      <c r="F203" s="204"/>
-      <c r="G203" s="205" t="s">
+      <c r="F203" s="205"/>
+      <c r="G203" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H203" s="8"/>
@@ -10985,33 +10985,33 @@
       <c r="D204" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="E204" s="211" t="s">
+      <c r="E204" s="210" t="s">
         <v>316</v>
       </c>
-      <c r="F204" s="211"/>
-      <c r="G204" s="206"/>
+      <c r="F204" s="210"/>
+      <c r="G204" s="207"/>
       <c r="H204" s="8"/>
     </row>
     <row r="205" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D205" s="15" t="s">
         <v>1056</v>
       </c>
-      <c r="E205" s="211" t="s">
+      <c r="E205" s="210" t="s">
         <v>317</v>
       </c>
-      <c r="F205" s="211"/>
-      <c r="G205" s="206"/>
+      <c r="F205" s="210"/>
+      <c r="G205" s="207"/>
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D206" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="E206" s="211" t="s">
+      <c r="E206" s="210" t="s">
         <v>318</v>
       </c>
-      <c r="F206" s="211"/>
-      <c r="G206" s="206"/>
+      <c r="F206" s="210"/>
+      <c r="G206" s="207"/>
       <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:8" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11022,7 +11022,7 @@
       <c r="F207" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="G207" s="207"/>
+      <c r="G207" s="208"/>
       <c r="H207" s="8" t="s">
         <v>320</v>
       </c>
@@ -11039,11 +11039,11 @@
       <c r="D209" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="E209" s="204" t="s">
+      <c r="E209" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="F209" s="204"/>
-      <c r="G209" s="205" t="s">
+      <c r="F209" s="205"/>
+      <c r="G209" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H209" s="8"/>
@@ -11052,33 +11052,33 @@
       <c r="D210" s="15" t="s">
         <v>1059</v>
       </c>
-      <c r="E210" s="211" t="s">
+      <c r="E210" s="210" t="s">
         <v>324</v>
       </c>
-      <c r="F210" s="211"/>
-      <c r="G210" s="206"/>
+      <c r="F210" s="210"/>
+      <c r="G210" s="207"/>
       <c r="H210" s="8"/>
     </row>
     <row r="211" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D211" s="15" t="s">
         <v>1060</v>
       </c>
-      <c r="E211" s="211" t="s">
+      <c r="E211" s="210" t="s">
         <v>325</v>
       </c>
-      <c r="F211" s="211"/>
-      <c r="G211" s="206"/>
+      <c r="F211" s="210"/>
+      <c r="G211" s="207"/>
       <c r="H211" s="8"/>
     </row>
     <row r="212" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D212" s="15" t="s">
         <v>1061</v>
       </c>
-      <c r="E212" s="211" t="s">
+      <c r="E212" s="210" t="s">
         <v>326</v>
       </c>
-      <c r="F212" s="211"/>
-      <c r="G212" s="206"/>
+      <c r="F212" s="210"/>
+      <c r="G212" s="207"/>
       <c r="H212" s="8"/>
     </row>
     <row r="213" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11089,7 +11089,7 @@
       <c r="F213" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="G213" s="206"/>
+      <c r="G213" s="207"/>
       <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -11100,7 +11100,7 @@
       <c r="F214" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="G214" s="206"/>
+      <c r="G214" s="207"/>
       <c r="H214" s="8"/>
     </row>
     <row r="215" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
       <c r="F215" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="G215" s="206"/>
+      <c r="G215" s="207"/>
       <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11122,7 +11122,7 @@
       <c r="F216" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="G216" s="206"/>
+      <c r="G216" s="207"/>
       <c r="H216" s="8"/>
     </row>
     <row r="217" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11133,7 +11133,7 @@
       <c r="F217" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="G217" s="206"/>
+      <c r="G217" s="207"/>
       <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11144,7 +11144,7 @@
       <c r="F218" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="G218" s="207"/>
+      <c r="G218" s="208"/>
       <c r="H218" s="8"/>
     </row>
     <row r="219" spans="1:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11162,11 +11162,11 @@
       <c r="D220" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="E220" s="204" t="s">
+      <c r="E220" s="205" t="s">
         <v>335</v>
       </c>
-      <c r="F220" s="204"/>
-      <c r="G220" s="205" t="s">
+      <c r="F220" s="205"/>
+      <c r="G220" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H220" s="8"/>
@@ -11181,11 +11181,11 @@
       <c r="D221" s="15" t="s">
         <v>1068</v>
       </c>
-      <c r="E221" s="211" t="s">
+      <c r="E221" s="210" t="s">
         <v>337</v>
       </c>
-      <c r="F221" s="211"/>
-      <c r="G221" s="206"/>
+      <c r="F221" s="210"/>
+      <c r="G221" s="207"/>
       <c r="H221" s="8"/>
     </row>
     <row r="222" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -11198,11 +11198,11 @@
       <c r="D222" s="15" t="s">
         <v>1069</v>
       </c>
-      <c r="E222" s="211" t="s">
+      <c r="E222" s="210" t="s">
         <v>338</v>
       </c>
-      <c r="F222" s="211"/>
-      <c r="G222" s="206"/>
+      <c r="F222" s="210"/>
+      <c r="G222" s="207"/>
       <c r="H222" s="8"/>
     </row>
     <row r="223" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -11215,11 +11215,11 @@
       <c r="D223" s="15" t="s">
         <v>1070</v>
       </c>
-      <c r="E223" s="211" t="s">
+      <c r="E223" s="210" t="s">
         <v>339</v>
       </c>
-      <c r="F223" s="211"/>
-      <c r="G223" s="206"/>
+      <c r="F223" s="210"/>
+      <c r="G223" s="207"/>
       <c r="H223" s="8"/>
     </row>
     <row r="224" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11236,7 +11236,7 @@
       <c r="F224" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="G224" s="206"/>
+      <c r="G224" s="207"/>
       <c r="H224" s="8"/>
     </row>
     <row r="225" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -11253,7 +11253,7 @@
       <c r="F225" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="G225" s="206"/>
+      <c r="G225" s="207"/>
       <c r="H225" s="8"/>
     </row>
     <row r="226" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -11270,7 +11270,7 @@
       <c r="F226" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="G226" s="206"/>
+      <c r="G226" s="207"/>
       <c r="H226" s="8"/>
     </row>
     <row r="227" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11287,7 +11287,7 @@
       <c r="F227" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="G227" s="207"/>
+      <c r="G227" s="208"/>
       <c r="H227" s="8"/>
     </row>
     <row r="228" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -11300,11 +11300,11 @@
       <c r="D228" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="E228" s="217" t="s">
+      <c r="E228" s="223" t="s">
         <v>344</v>
       </c>
-      <c r="F228" s="217"/>
-      <c r="G228" s="205" t="s">
+      <c r="F228" s="223"/>
+      <c r="G228" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H228" s="8"/>
@@ -11323,7 +11323,7 @@
       <c r="F229" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="G229" s="207"/>
+      <c r="G229" s="208"/>
       <c r="H229" s="8"/>
     </row>
     <row r="230" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11337,11 +11337,11 @@
       <c r="D231" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="E231" s="204" t="s">
+      <c r="E231" s="205" t="s">
         <v>348</v>
       </c>
-      <c r="F231" s="204"/>
-      <c r="G231" s="205" t="s">
+      <c r="F231" s="205"/>
+      <c r="G231" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H231" s="8"/>
@@ -11350,44 +11350,44 @@
       <c r="D232" s="15" t="s">
         <v>1077</v>
       </c>
-      <c r="E232" s="211" t="s">
+      <c r="E232" s="210" t="s">
         <v>349</v>
       </c>
-      <c r="F232" s="211"/>
-      <c r="G232" s="206"/>
+      <c r="F232" s="210"/>
+      <c r="G232" s="207"/>
       <c r="H232" s="8"/>
     </row>
     <row r="233" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D233" s="15" t="s">
         <v>1078</v>
       </c>
-      <c r="E233" s="211" t="s">
+      <c r="E233" s="210" t="s">
         <v>350</v>
       </c>
-      <c r="F233" s="211"/>
-      <c r="G233" s="206"/>
+      <c r="F233" s="210"/>
+      <c r="G233" s="207"/>
       <c r="H233" s="8"/>
     </row>
     <row r="234" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D234" s="15" t="s">
         <v>1079</v>
       </c>
-      <c r="E234" s="211" t="s">
+      <c r="E234" s="210" t="s">
         <v>351</v>
       </c>
-      <c r="F234" s="211"/>
-      <c r="G234" s="206"/>
+      <c r="F234" s="210"/>
+      <c r="G234" s="207"/>
       <c r="H234" s="8"/>
     </row>
     <row r="235" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D235" s="15" t="s">
         <v>1080</v>
       </c>
-      <c r="E235" s="211" t="s">
+      <c r="E235" s="210" t="s">
         <v>351</v>
       </c>
-      <c r="F235" s="211"/>
-      <c r="G235" s="206"/>
+      <c r="F235" s="210"/>
+      <c r="G235" s="207"/>
       <c r="H235" s="8"/>
     </row>
     <row r="236" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11398,7 +11398,7 @@
       <c r="F236" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="G236" s="206"/>
+      <c r="G236" s="207"/>
       <c r="H236" s="8"/>
     </row>
     <row r="237" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11409,7 +11409,7 @@
       <c r="F237" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="G237" s="206"/>
+      <c r="G237" s="207"/>
       <c r="H237" s="8"/>
     </row>
     <row r="238" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11420,7 +11420,7 @@
       <c r="F238" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="G238" s="207"/>
+      <c r="G238" s="208"/>
       <c r="H238" s="8"/>
     </row>
     <row r="239" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11434,11 +11434,11 @@
       <c r="D240" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="E240" s="204" t="s">
+      <c r="E240" s="205" t="s">
         <v>356</v>
       </c>
-      <c r="F240" s="204"/>
-      <c r="G240" s="205" t="s">
+      <c r="F240" s="205"/>
+      <c r="G240" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H240" s="8"/>
@@ -11447,44 +11447,44 @@
       <c r="D241" s="15" t="s">
         <v>1084</v>
       </c>
-      <c r="E241" s="211" t="s">
+      <c r="E241" s="210" t="s">
         <v>357</v>
       </c>
-      <c r="F241" s="211"/>
-      <c r="G241" s="206"/>
+      <c r="F241" s="210"/>
+      <c r="G241" s="207"/>
       <c r="H241" s="8"/>
     </row>
     <row r="242" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D242" s="15" t="s">
         <v>1085</v>
       </c>
-      <c r="E242" s="211" t="s">
+      <c r="E242" s="210" t="s">
         <v>358</v>
       </c>
-      <c r="F242" s="211"/>
-      <c r="G242" s="206"/>
+      <c r="F242" s="210"/>
+      <c r="G242" s="207"/>
       <c r="H242" s="8"/>
     </row>
     <row r="243" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D243" s="15" t="s">
         <v>1086</v>
       </c>
-      <c r="E243" s="211" t="s">
+      <c r="E243" s="210" t="s">
         <v>359</v>
       </c>
-      <c r="F243" s="211"/>
-      <c r="G243" s="206"/>
+      <c r="F243" s="210"/>
+      <c r="G243" s="207"/>
       <c r="H243" s="8"/>
     </row>
     <row r="244" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D244" s="15" t="s">
         <v>1087</v>
       </c>
-      <c r="E244" s="211" t="s">
+      <c r="E244" s="210" t="s">
         <v>360</v>
       </c>
-      <c r="F244" s="211"/>
-      <c r="G244" s="206"/>
+      <c r="F244" s="210"/>
+      <c r="G244" s="207"/>
       <c r="H244" s="8"/>
     </row>
     <row r="245" spans="4:8" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11495,7 +11495,7 @@
       <c r="F245" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="G245" s="206"/>
+      <c r="G245" s="207"/>
       <c r="H245" s="8"/>
     </row>
     <row r="246" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11506,7 +11506,7 @@
       <c r="F246" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="G246" s="206"/>
+      <c r="G246" s="207"/>
       <c r="H246" s="8"/>
     </row>
     <row r="247" spans="4:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
       <c r="F247" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="G247" s="206"/>
+      <c r="G247" s="207"/>
       <c r="H247" s="8"/>
     </row>
     <row r="248" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11528,18 +11528,18 @@
       <c r="F248" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="G248" s="207"/>
+      <c r="G248" s="208"/>
       <c r="H248" s="8"/>
     </row>
     <row r="249" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D249" s="39" t="s">
         <v>1092</v>
       </c>
-      <c r="E249" s="217" t="s">
+      <c r="E249" s="223" t="s">
         <v>365</v>
       </c>
-      <c r="F249" s="217"/>
-      <c r="G249" s="205" t="s">
+      <c r="F249" s="223"/>
+      <c r="G249" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H249" s="8"/>
@@ -11548,11 +11548,11 @@
       <c r="D250" s="15" t="s">
         <v>1093</v>
       </c>
-      <c r="E250" s="211" t="s">
+      <c r="E250" s="210" t="s">
         <v>366</v>
       </c>
-      <c r="F250" s="211"/>
-      <c r="G250" s="206"/>
+      <c r="F250" s="210"/>
+      <c r="G250" s="207"/>
       <c r="H250" s="8"/>
     </row>
     <row r="251" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11563,7 +11563,7 @@
       <c r="F251" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="G251" s="206"/>
+      <c r="G251" s="207"/>
       <c r="H251" s="8"/>
     </row>
     <row r="252" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11574,7 +11574,7 @@
       <c r="F252" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G252" s="207"/>
+      <c r="G252" s="208"/>
       <c r="H252" s="8"/>
     </row>
     <row r="253" spans="4:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11586,14 +11586,14 @@
       <c r="D254" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="E254" s="204" t="s">
+      <c r="E254" s="205" t="s">
         <v>370</v>
       </c>
-      <c r="F254" s="204"/>
-      <c r="G254" s="205" t="s">
+      <c r="F254" s="205"/>
+      <c r="G254" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H254" s="210" t="s">
+      <c r="H254" s="213" t="s">
         <v>371</v>
       </c>
     </row>
@@ -11601,56 +11601,56 @@
       <c r="D255" s="15" t="s">
         <v>1096</v>
       </c>
-      <c r="E255" s="211" t="s">
+      <c r="E255" s="210" t="s">
         <v>372</v>
       </c>
-      <c r="F255" s="211"/>
-      <c r="G255" s="206"/>
-      <c r="H255" s="210"/>
+      <c r="F255" s="210"/>
+      <c r="G255" s="207"/>
+      <c r="H255" s="213"/>
     </row>
     <row r="256" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D256" s="15" t="s">
         <v>1097</v>
       </c>
-      <c r="E256" s="211" t="s">
+      <c r="E256" s="210" t="s">
         <v>373</v>
       </c>
-      <c r="F256" s="211"/>
-      <c r="G256" s="206"/>
-      <c r="H256" s="210"/>
+      <c r="F256" s="210"/>
+      <c r="G256" s="207"/>
+      <c r="H256" s="213"/>
     </row>
     <row r="257" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D257" s="15" t="s">
         <v>1098</v>
       </c>
-      <c r="E257" s="211" t="s">
+      <c r="E257" s="210" t="s">
         <v>374</v>
       </c>
-      <c r="F257" s="211"/>
-      <c r="G257" s="206"/>
-      <c r="H257" s="210"/>
+      <c r="F257" s="210"/>
+      <c r="G257" s="207"/>
+      <c r="H257" s="213"/>
     </row>
     <row r="258" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D258" s="15" t="s">
         <v>1099</v>
       </c>
-      <c r="E258" s="211" t="s">
+      <c r="E258" s="210" t="s">
         <v>375</v>
       </c>
-      <c r="F258" s="211"/>
-      <c r="G258" s="206"/>
-      <c r="H258" s="210"/>
+      <c r="F258" s="210"/>
+      <c r="G258" s="207"/>
+      <c r="H258" s="213"/>
     </row>
     <row r="259" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D259" s="15" t="s">
         <v>1100</v>
       </c>
-      <c r="E259" s="211" t="s">
+      <c r="E259" s="210" t="s">
         <v>376</v>
       </c>
-      <c r="F259" s="211"/>
-      <c r="G259" s="206"/>
-      <c r="H259" s="210"/>
+      <c r="F259" s="210"/>
+      <c r="G259" s="207"/>
+      <c r="H259" s="213"/>
     </row>
     <row r="260" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D260" s="17" t="s">
@@ -11660,8 +11660,8 @@
       <c r="F260" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="G260" s="206"/>
-      <c r="H260" s="210"/>
+      <c r="G260" s="207"/>
+      <c r="H260" s="213"/>
     </row>
     <row r="261" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D261" s="20" t="s">
@@ -11671,32 +11671,32 @@
       <c r="F261" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="G261" s="207"/>
-      <c r="H261" s="210"/>
+      <c r="G261" s="208"/>
+      <c r="H261" s="213"/>
     </row>
     <row r="262" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E262" s="219"/>
-      <c r="F262" s="219"/>
+      <c r="E262" s="225"/>
+      <c r="F262" s="225"/>
       <c r="G262" s="25"/>
       <c r="H262" s="28"/>
     </row>
     <row r="263" spans="4:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E263" s="219"/>
-      <c r="F263" s="219"/>
+      <c r="E263" s="225"/>
+      <c r="F263" s="225"/>
       <c r="H263" s="8"/>
     </row>
     <row r="264" spans="4:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D264" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="E264" s="204" t="s">
+      <c r="E264" s="205" t="s">
         <v>380</v>
       </c>
-      <c r="F264" s="204"/>
-      <c r="G264" s="205" t="s">
+      <c r="F264" s="205"/>
+      <c r="G264" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H264" s="221" t="s">
+      <c r="H264" s="226" t="s">
         <v>381</v>
       </c>
     </row>
@@ -11704,23 +11704,23 @@
       <c r="D265" s="15" t="s">
         <v>1103</v>
       </c>
-      <c r="E265" s="211" t="s">
+      <c r="E265" s="210" t="s">
         <v>382</v>
       </c>
-      <c r="F265" s="211"/>
-      <c r="G265" s="206"/>
-      <c r="H265" s="221"/>
+      <c r="F265" s="210"/>
+      <c r="G265" s="207"/>
+      <c r="H265" s="226"/>
     </row>
     <row r="266" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D266" s="15" t="s">
         <v>1104</v>
       </c>
-      <c r="E266" s="211" t="s">
+      <c r="E266" s="210" t="s">
         <v>383</v>
       </c>
-      <c r="F266" s="211"/>
-      <c r="G266" s="206"/>
-      <c r="H266" s="221"/>
+      <c r="F266" s="210"/>
+      <c r="G266" s="207"/>
+      <c r="H266" s="226"/>
     </row>
     <row r="267" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D267" s="17" t="s">
@@ -11730,8 +11730,8 @@
       <c r="F267" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="G267" s="206"/>
-      <c r="H267" s="221"/>
+      <c r="G267" s="207"/>
+      <c r="H267" s="226"/>
     </row>
     <row r="268" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D268" s="20" t="s">
@@ -11741,23 +11741,23 @@
       <c r="F268" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="G268" s="207"/>
-      <c r="H268" s="221"/>
+      <c r="G268" s="208"/>
+      <c r="H268" s="226"/>
     </row>
     <row r="269" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E269" s="219"/>
-      <c r="F269" s="219"/>
+      <c r="E269" s="225"/>
+      <c r="F269" s="225"/>
       <c r="G269" s="25"/>
     </row>
     <row r="270" spans="4:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D270" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="E270" s="204" t="s">
+      <c r="E270" s="205" t="s">
         <v>387</v>
       </c>
-      <c r="F270" s="204"/>
-      <c r="G270" s="205" t="s">
+      <c r="F270" s="205"/>
+      <c r="G270" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H270" s="8"/>
@@ -11766,12 +11766,12 @@
       <c r="D271" s="15" t="s">
         <v>1107</v>
       </c>
-      <c r="E271" s="211" t="s">
+      <c r="E271" s="210" t="s">
         <v>389</v>
       </c>
-      <c r="F271" s="211"/>
-      <c r="G271" s="206"/>
-      <c r="H271" s="220" t="s">
+      <c r="F271" s="210"/>
+      <c r="G271" s="207"/>
+      <c r="H271" s="227" t="s">
         <v>390</v>
       </c>
     </row>
@@ -11783,18 +11783,18 @@
       <c r="F272" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="G272" s="207"/>
-      <c r="H272" s="220"/>
+      <c r="G272" s="208"/>
+      <c r="H272" s="227"/>
     </row>
     <row r="273" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D273" s="15" t="s">
         <v>1109</v>
       </c>
-      <c r="E273" s="211" t="s">
+      <c r="E273" s="210" t="s">
         <v>392</v>
       </c>
-      <c r="F273" s="211"/>
-      <c r="G273" s="206" t="s">
+      <c r="F273" s="210"/>
+      <c r="G273" s="207" t="s">
         <v>388</v>
       </c>
       <c r="H273" s="8"/>
@@ -11803,33 +11803,33 @@
       <c r="D274" s="15" t="s">
         <v>1110</v>
       </c>
-      <c r="E274" s="211" t="s">
+      <c r="E274" s="210" t="s">
         <v>393</v>
       </c>
-      <c r="F274" s="211"/>
-      <c r="G274" s="206"/>
+      <c r="F274" s="210"/>
+      <c r="G274" s="207"/>
       <c r="H274" s="8"/>
     </row>
     <row r="275" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D275" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="E275" s="211" t="s">
+      <c r="E275" s="210" t="s">
         <v>394</v>
       </c>
-      <c r="F275" s="211"/>
-      <c r="G275" s="206"/>
+      <c r="F275" s="210"/>
+      <c r="G275" s="207"/>
       <c r="H275" s="8"/>
     </row>
     <row r="276" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D276" s="15" t="s">
         <v>1112</v>
       </c>
-      <c r="E276" s="211" t="s">
+      <c r="E276" s="210" t="s">
         <v>395</v>
       </c>
-      <c r="F276" s="211"/>
-      <c r="G276" s="206"/>
+      <c r="F276" s="210"/>
+      <c r="G276" s="207"/>
       <c r="H276" s="8"/>
     </row>
     <row r="277" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11840,7 +11840,7 @@
       <c r="F277" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="G277" s="206"/>
+      <c r="G277" s="207"/>
       <c r="H277" s="8"/>
     </row>
     <row r="278" spans="4:8" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11851,18 +11851,18 @@
       <c r="F278" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="G278" s="207"/>
+      <c r="G278" s="208"/>
       <c r="H278" s="8"/>
     </row>
     <row r="279" spans="4:8" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D279" s="39" t="s">
         <v>1115</v>
       </c>
-      <c r="E279" s="217" t="s">
+      <c r="E279" s="223" t="s">
         <v>398</v>
       </c>
-      <c r="F279" s="217"/>
-      <c r="G279" s="205" t="s">
+      <c r="F279" s="223"/>
+      <c r="G279" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H279" s="8"/>
@@ -11871,23 +11871,23 @@
       <c r="D280" s="15" t="s">
         <v>1116</v>
       </c>
-      <c r="E280" s="211" t="s">
+      <c r="E280" s="210" t="s">
         <v>399</v>
       </c>
-      <c r="F280" s="211"/>
-      <c r="G280" s="206"/>
+      <c r="F280" s="210"/>
+      <c r="G280" s="207"/>
       <c r="H280" s="8"/>
     </row>
     <row r="281" spans="4:8" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D281" s="15" t="s">
         <v>1117</v>
       </c>
-      <c r="E281" s="211" t="s">
+      <c r="E281" s="210" t="s">
         <v>400</v>
       </c>
-      <c r="F281" s="211"/>
-      <c r="G281" s="206"/>
-      <c r="H281" s="210" t="s">
+      <c r="F281" s="210"/>
+      <c r="G281" s="207"/>
+      <c r="H281" s="213" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11899,39 +11899,39 @@
       <c r="F282" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="G282" s="207"/>
-      <c r="H282" s="210"/>
+      <c r="G282" s="208"/>
+      <c r="H282" s="213"/>
     </row>
     <row r="283" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G283" s="25"/>
       <c r="H283" s="28"/>
     </row>
     <row r="284" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E284" s="209" t="s">
+      <c r="E284" s="203" t="s">
         <v>403</v>
       </c>
-      <c r="F284" s="209"/>
+      <c r="F284" s="203"/>
       <c r="G284" s="25"/>
     </row>
     <row r="285" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E285" s="203" t="s">
+      <c r="E285" s="204" t="s">
         <v>404</v>
       </c>
-      <c r="F285" s="203"/>
+      <c r="F285" s="204"/>
       <c r="G285" s="25"/>
     </row>
     <row r="286" spans="4:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D286" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="E286" s="204" t="s">
+      <c r="E286" s="205" t="s">
         <v>406</v>
       </c>
-      <c r="F286" s="204"/>
-      <c r="G286" s="205" t="s">
+      <c r="F286" s="205"/>
+      <c r="G286" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H286" s="213" t="s">
+      <c r="H286" s="209" t="s">
         <v>407</v>
       </c>
     </row>
@@ -11939,23 +11939,23 @@
       <c r="D287" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="E287" s="211" t="s">
+      <c r="E287" s="210" t="s">
         <v>408</v>
       </c>
-      <c r="F287" s="211"/>
-      <c r="G287" s="206"/>
-      <c r="H287" s="213"/>
+      <c r="F287" s="210"/>
+      <c r="G287" s="207"/>
+      <c r="H287" s="209"/>
     </row>
     <row r="288" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D288" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="E288" s="211" t="s">
+      <c r="E288" s="210" t="s">
         <v>409</v>
       </c>
-      <c r="F288" s="211"/>
-      <c r="G288" s="206"/>
-      <c r="H288" s="213"/>
+      <c r="F288" s="210"/>
+      <c r="G288" s="207"/>
+      <c r="H288" s="209"/>
     </row>
     <row r="289" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D289" s="20" t="s">
@@ -11965,18 +11965,18 @@
       <c r="F289" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="G289" s="207"/>
-      <c r="H289" s="213"/>
+      <c r="G289" s="208"/>
+      <c r="H289" s="209"/>
     </row>
     <row r="290" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D290" s="39" t="s">
         <v>1122</v>
       </c>
-      <c r="E290" s="217" t="s">
+      <c r="E290" s="223" t="s">
         <v>411</v>
       </c>
-      <c r="F290" s="217"/>
-      <c r="G290" s="205" t="s">
+      <c r="F290" s="223"/>
+      <c r="G290" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H290" s="8"/>
@@ -11989,7 +11989,7 @@
       <c r="F291" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="G291" s="207"/>
+      <c r="G291" s="208"/>
       <c r="H291" s="8"/>
     </row>
     <row r="292" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -12004,21 +12004,21 @@
       <c r="G293" s="25"/>
     </row>
     <row r="294" spans="1:8" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E294" s="203" t="s">
+      <c r="E294" s="204" t="s">
         <v>414</v>
       </c>
-      <c r="F294" s="203"/>
+      <c r="F294" s="204"/>
       <c r="G294" s="25"/>
     </row>
     <row r="295" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D295" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="E295" s="204" t="s">
+      <c r="E295" s="205" t="s">
         <v>416</v>
       </c>
-      <c r="F295" s="204"/>
-      <c r="G295" s="205" t="s">
+      <c r="F295" s="205"/>
+      <c r="G295" s="206" t="s">
         <v>72</v>
       </c>
       <c r="H295" s="8"/>
@@ -12033,11 +12033,11 @@
       <c r="D296" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="E296" s="211" t="s">
+      <c r="E296" s="210" t="s">
         <v>419</v>
       </c>
-      <c r="F296" s="211"/>
-      <c r="G296" s="206"/>
+      <c r="F296" s="210"/>
+      <c r="G296" s="207"/>
       <c r="H296" s="8"/>
     </row>
     <row r="297" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -12050,11 +12050,11 @@
       <c r="D297" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="E297" s="211" t="s">
+      <c r="E297" s="210" t="s">
         <v>421</v>
       </c>
-      <c r="F297" s="211"/>
-      <c r="G297" s="206"/>
+      <c r="F297" s="210"/>
+      <c r="G297" s="207"/>
       <c r="H297" s="8"/>
     </row>
     <row r="298" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12065,7 +12065,7 @@
       <c r="F298" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="G298" s="206"/>
+      <c r="G298" s="207"/>
       <c r="H298" s="8"/>
     </row>
     <row r="299" spans="1:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -12079,7 +12079,7 @@
       <c r="F299" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="G299" s="206"/>
+      <c r="G299" s="207"/>
       <c r="H299" s="8"/>
     </row>
     <row r="300" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12093,7 +12093,7 @@
       <c r="F300" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="G300" s="207"/>
+      <c r="G300" s="208"/>
       <c r="H300" s="8"/>
     </row>
     <row r="301" spans="1:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12105,14 +12105,14 @@
       <c r="D302" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E302" s="204" t="s">
+      <c r="E302" s="205" t="s">
         <v>429</v>
       </c>
-      <c r="F302" s="204"/>
-      <c r="G302" s="205" t="s">
+      <c r="F302" s="205"/>
+      <c r="G302" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H302" s="210" t="s">
+      <c r="H302" s="213" t="s">
         <v>430</v>
       </c>
     </row>
@@ -12126,22 +12126,22 @@
       <c r="D303" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="E303" s="211" t="s">
+      <c r="E303" s="210" t="s">
         <v>433</v>
       </c>
-      <c r="F303" s="211"/>
-      <c r="G303" s="206"/>
+      <c r="F303" s="210"/>
+      <c r="G303" s="207"/>
       <c r="H303" s="214"/>
     </row>
     <row r="304" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D304" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="E304" s="211" t="s">
+      <c r="E304" s="210" t="s">
         <v>435</v>
       </c>
-      <c r="F304" s="211"/>
-      <c r="G304" s="206"/>
+      <c r="F304" s="210"/>
+      <c r="G304" s="207"/>
       <c r="H304" s="214"/>
     </row>
     <row r="305" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12158,7 +12158,7 @@
       <c r="F305" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="G305" s="206"/>
+      <c r="G305" s="207"/>
       <c r="H305" s="214"/>
     </row>
     <row r="306" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12175,7 +12175,7 @@
       <c r="F306" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="G306" s="206"/>
+      <c r="G306" s="207"/>
       <c r="H306" s="214"/>
     </row>
     <row r="307" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12186,7 +12186,7 @@
       <c r="F307" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="G307" s="207"/>
+      <c r="G307" s="208"/>
       <c r="H307" s="214"/>
     </row>
     <row r="308" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12198,11 +12198,11 @@
       <c r="D309" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="E309" s="204" t="s">
+      <c r="E309" s="205" t="s">
         <v>443</v>
       </c>
-      <c r="F309" s="204"/>
-      <c r="G309" s="205" t="s">
+      <c r="F309" s="205"/>
+      <c r="G309" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H309" s="8"/>
@@ -12211,11 +12211,11 @@
       <c r="D310" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="E310" s="211" t="s">
+      <c r="E310" s="210" t="s">
         <v>445</v>
       </c>
-      <c r="F310" s="211"/>
-      <c r="G310" s="206"/>
+      <c r="F310" s="210"/>
+      <c r="G310" s="207"/>
       <c r="H310" s="8"/>
     </row>
     <row r="311" spans="1:8" s="16" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12226,21 +12226,21 @@
       <c r="F311" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G311" s="207"/>
+      <c r="G311" s="208"/>
       <c r="H311" s="8"/>
     </row>
     <row r="312" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D312" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="E312" s="217" t="s">
+      <c r="E312" s="223" t="s">
         <v>449</v>
       </c>
-      <c r="F312" s="217"/>
-      <c r="G312" s="205" t="s">
+      <c r="F312" s="223"/>
+      <c r="G312" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H312" s="213" t="s">
+      <c r="H312" s="209" t="s">
         <v>450</v>
       </c>
     </row>
@@ -12252,8 +12252,8 @@
       <c r="F313" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="G313" s="207"/>
-      <c r="H313" s="213"/>
+      <c r="G313" s="208"/>
+      <c r="H313" s="209"/>
     </row>
     <row r="314" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F314" s="27"/>
@@ -12264,14 +12264,14 @@
       <c r="D315" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="E315" s="204" t="s">
+      <c r="E315" s="205" t="s">
         <v>454</v>
       </c>
-      <c r="F315" s="204"/>
-      <c r="G315" s="205" t="s">
+      <c r="F315" s="205"/>
+      <c r="G315" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="H315" s="213" t="s">
+      <c r="H315" s="209" t="s">
         <v>455</v>
       </c>
     </row>
@@ -12282,12 +12282,12 @@
       <c r="D316" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="E316" s="211" t="s">
+      <c r="E316" s="210" t="s">
         <v>458</v>
       </c>
-      <c r="F316" s="211"/>
-      <c r="G316" s="206"/>
-      <c r="H316" s="213"/>
+      <c r="F316" s="210"/>
+      <c r="G316" s="207"/>
+      <c r="H316" s="209"/>
     </row>
     <row r="317" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="16" t="s">
@@ -12300,8 +12300,8 @@
       <c r="F317" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="G317" s="206"/>
-      <c r="H317" s="213"/>
+      <c r="G317" s="207"/>
+      <c r="H317" s="209"/>
     </row>
     <row r="318" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B318" s="16" t="s">
@@ -12314,8 +12314,8 @@
       <c r="F318" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="G318" s="207"/>
-      <c r="H318" s="213"/>
+      <c r="G318" s="208"/>
+      <c r="H318" s="209"/>
     </row>
     <row r="319" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F319" s="27"/>
@@ -12329,11 +12329,11 @@
       <c r="D320" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="E320" s="204" t="s">
+      <c r="E320" s="205" t="s">
         <v>465</v>
       </c>
-      <c r="F320" s="204"/>
-      <c r="G320" s="205" t="s">
+      <c r="F320" s="205"/>
+      <c r="G320" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H320" s="8"/>
@@ -12348,11 +12348,11 @@
       <c r="D321" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="E321" s="211" t="s">
+      <c r="E321" s="210" t="s">
         <v>467</v>
       </c>
-      <c r="F321" s="211"/>
-      <c r="G321" s="206"/>
+      <c r="F321" s="210"/>
+      <c r="G321" s="207"/>
       <c r="H321" s="8"/>
     </row>
     <row r="322" spans="1:8" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -12369,7 +12369,7 @@
       <c r="F322" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="G322" s="206"/>
+      <c r="G322" s="207"/>
       <c r="H322" s="8"/>
     </row>
     <row r="323" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12386,7 +12386,7 @@
       <c r="F323" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="G323" s="207"/>
+      <c r="G323" s="208"/>
       <c r="H323" s="8"/>
     </row>
     <row r="324" spans="1:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12401,11 +12401,11 @@
       <c r="D325" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="E325" s="204" t="s">
+      <c r="E325" s="205" t="s">
         <v>476</v>
       </c>
-      <c r="F325" s="204"/>
-      <c r="G325" s="205" t="s">
+      <c r="F325" s="205"/>
+      <c r="G325" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H325" s="8"/>
@@ -12414,33 +12414,33 @@
       <c r="D326" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="E326" s="211" t="s">
+      <c r="E326" s="210" t="s">
         <v>478</v>
       </c>
-      <c r="F326" s="211"/>
-      <c r="G326" s="206"/>
+      <c r="F326" s="210"/>
+      <c r="G326" s="207"/>
       <c r="H326" s="8"/>
     </row>
     <row r="327" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D327" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="E327" s="211" t="s">
+      <c r="E327" s="210" t="s">
         <v>480</v>
       </c>
-      <c r="F327" s="211"/>
-      <c r="G327" s="206"/>
+      <c r="F327" s="210"/>
+      <c r="G327" s="207"/>
       <c r="H327" s="8"/>
     </row>
     <row r="328" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D328" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="E328" s="211" t="s">
+      <c r="E328" s="210" t="s">
         <v>482</v>
       </c>
-      <c r="F328" s="211"/>
-      <c r="G328" s="206"/>
+      <c r="F328" s="210"/>
+      <c r="G328" s="207"/>
       <c r="H328" s="8"/>
     </row>
     <row r="329" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12451,21 +12451,21 @@
       <c r="F329" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="G329" s="207"/>
+      <c r="G329" s="208"/>
       <c r="H329" s="8"/>
     </row>
     <row r="330" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D330" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="E330" s="217" t="s">
+      <c r="E330" s="223" t="s">
         <v>486</v>
       </c>
-      <c r="F330" s="217"/>
-      <c r="G330" s="205" t="s">
+      <c r="F330" s="223"/>
+      <c r="G330" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H330" s="210" t="s">
+      <c r="H330" s="213" t="s">
         <v>487</v>
       </c>
     </row>
@@ -12477,18 +12477,18 @@
       <c r="F331" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="G331" s="207"/>
-      <c r="H331" s="210"/>
+      <c r="G331" s="208"/>
+      <c r="H331" s="213"/>
     </row>
     <row r="332" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D332" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="E332" s="217" t="s">
+      <c r="E332" s="223" t="s">
         <v>491</v>
       </c>
-      <c r="F332" s="217"/>
-      <c r="G332" s="205" t="s">
+      <c r="F332" s="223"/>
+      <c r="G332" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H332" s="8"/>
@@ -12501,7 +12501,7 @@
       <c r="F333" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="G333" s="206"/>
+      <c r="G333" s="207"/>
       <c r="H333" s="8"/>
     </row>
     <row r="334" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12512,29 +12512,29 @@
       <c r="F334" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="G334" s="206"/>
+      <c r="G334" s="207"/>
       <c r="H334" s="8"/>
     </row>
     <row r="335" spans="1:8" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D335" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="E335" s="218" t="s">
+      <c r="E335" s="224" t="s">
         <v>497</v>
       </c>
-      <c r="F335" s="218"/>
-      <c r="G335" s="207"/>
+      <c r="F335" s="224"/>
+      <c r="G335" s="208"/>
       <c r="H335" s="8"/>
     </row>
     <row r="336" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D336" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="E336" s="217" t="s">
+      <c r="E336" s="223" t="s">
         <v>499</v>
       </c>
-      <c r="F336" s="217"/>
-      <c r="G336" s="205" t="s">
+      <c r="F336" s="223"/>
+      <c r="G336" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H336" s="8"/>
@@ -12547,7 +12547,7 @@
       <c r="F337" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="G337" s="206"/>
+      <c r="G337" s="207"/>
       <c r="H337" s="8"/>
     </row>
     <row r="338" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12558,7 +12558,7 @@
       <c r="F338" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="G338" s="207"/>
+      <c r="G338" s="208"/>
       <c r="H338" s="8"/>
     </row>
     <row r="339" spans="3:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -12574,31 +12574,31 @@
       <c r="G340" s="25"/>
     </row>
     <row r="341" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E341" s="209" t="s">
+      <c r="E341" s="203" t="s">
         <v>505</v>
       </c>
-      <c r="F341" s="209"/>
+      <c r="F341" s="203"/>
       <c r="G341" s="25"/>
     </row>
     <row r="342" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C342" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E342" s="203" t="s">
+      <c r="E342" s="204" t="s">
         <v>506</v>
       </c>
-      <c r="F342" s="203"/>
+      <c r="F342" s="204"/>
       <c r="G342" s="25"/>
     </row>
     <row r="343" spans="3:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D343" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="E343" s="204" t="s">
+      <c r="E343" s="205" t="s">
         <v>508</v>
       </c>
-      <c r="F343" s="204"/>
-      <c r="G343" s="205" t="s">
+      <c r="F343" s="205"/>
+      <c r="G343" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H343" s="8"/>
@@ -12607,11 +12607,11 @@
       <c r="D344" s="15" t="s">
         <v>1124</v>
       </c>
-      <c r="E344" s="211" t="s">
+      <c r="E344" s="210" t="s">
         <v>509</v>
       </c>
-      <c r="F344" s="211"/>
-      <c r="G344" s="206"/>
+      <c r="F344" s="210"/>
+      <c r="G344" s="207"/>
       <c r="H344" s="8"/>
     </row>
     <row r="345" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12622,7 +12622,7 @@
       <c r="F345" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="G345" s="206"/>
+      <c r="G345" s="207"/>
       <c r="H345" s="8"/>
     </row>
     <row r="346" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12633,7 +12633,7 @@
       <c r="F346" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G346" s="206"/>
+      <c r="G346" s="207"/>
       <c r="H346" s="8"/>
     </row>
     <row r="347" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12644,7 +12644,7 @@
       <c r="F347" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="G347" s="206"/>
+      <c r="G347" s="207"/>
       <c r="H347" s="8"/>
     </row>
     <row r="348" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12655,7 +12655,7 @@
       <c r="F348" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="G348" s="207"/>
+      <c r="G348" s="208"/>
       <c r="H348" s="8"/>
     </row>
     <row r="349" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12666,31 +12666,31 @@
       <c r="H349" s="8"/>
     </row>
     <row r="350" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E350" s="209" t="s">
+      <c r="E350" s="203" t="s">
         <v>514</v>
       </c>
-      <c r="F350" s="209"/>
+      <c r="F350" s="203"/>
       <c r="G350" s="25"/>
     </row>
     <row r="351" spans="3:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C351" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E351" s="203" t="s">
+      <c r="E351" s="204" t="s">
         <v>515</v>
       </c>
-      <c r="F351" s="203"/>
+      <c r="F351" s="204"/>
       <c r="G351" s="25"/>
     </row>
     <row r="352" spans="3:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D352" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="E352" s="204" t="s">
+      <c r="E352" s="205" t="s">
         <v>517</v>
       </c>
-      <c r="F352" s="204"/>
-      <c r="G352" s="205" t="s">
+      <c r="F352" s="205"/>
+      <c r="G352" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H352" s="8"/>
@@ -12699,33 +12699,33 @@
       <c r="D353" s="15" t="s">
         <v>1129</v>
       </c>
-      <c r="E353" s="211" t="s">
+      <c r="E353" s="210" t="s">
         <v>518</v>
       </c>
-      <c r="F353" s="211"/>
-      <c r="G353" s="206"/>
+      <c r="F353" s="210"/>
+      <c r="G353" s="207"/>
       <c r="H353" s="8"/>
     </row>
     <row r="354" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D354" s="15" t="s">
         <v>1130</v>
       </c>
-      <c r="E354" s="211" t="s">
+      <c r="E354" s="210" t="s">
         <v>519</v>
       </c>
-      <c r="F354" s="211"/>
-      <c r="G354" s="206"/>
+      <c r="F354" s="210"/>
+      <c r="G354" s="207"/>
       <c r="H354" s="8"/>
     </row>
     <row r="355" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D355" s="15" t="s">
         <v>1131</v>
       </c>
-      <c r="E355" s="211" t="s">
+      <c r="E355" s="210" t="s">
         <v>520</v>
       </c>
-      <c r="F355" s="211"/>
-      <c r="G355" s="206"/>
+      <c r="F355" s="210"/>
+      <c r="G355" s="207"/>
       <c r="H355" s="8"/>
     </row>
     <row r="356" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12736,7 +12736,7 @@
       <c r="F356" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="G356" s="206"/>
+      <c r="G356" s="207"/>
       <c r="H356" s="8"/>
     </row>
     <row r="357" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12747,7 +12747,7 @@
       <c r="F357" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="G357" s="206"/>
+      <c r="G357" s="207"/>
       <c r="H357" s="8"/>
     </row>
     <row r="358" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12758,7 +12758,7 @@
       <c r="F358" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="G358" s="206"/>
+      <c r="G358" s="207"/>
       <c r="H358" s="8"/>
     </row>
     <row r="359" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12769,7 +12769,7 @@
       <c r="F359" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="G359" s="206"/>
+      <c r="G359" s="207"/>
       <c r="H359" s="8"/>
     </row>
     <row r="360" spans="4:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -12780,7 +12780,7 @@
       <c r="F360" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="G360" s="206"/>
+      <c r="G360" s="207"/>
       <c r="H360" s="8"/>
     </row>
     <row r="361" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12791,7 +12791,7 @@
       <c r="F361" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="G361" s="207"/>
+      <c r="G361" s="208"/>
       <c r="H361" s="8"/>
     </row>
     <row r="362" spans="4:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -12800,28 +12800,28 @@
       <c r="H362" s="8"/>
     </row>
     <row r="363" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E363" s="209" t="s">
+      <c r="E363" s="203" t="s">
         <v>527</v>
       </c>
-      <c r="F363" s="209"/>
+      <c r="F363" s="203"/>
       <c r="G363" s="25"/>
     </row>
     <row r="364" spans="4:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E364" s="203" t="s">
+      <c r="E364" s="204" t="s">
         <v>528</v>
       </c>
-      <c r="F364" s="203"/>
+      <c r="F364" s="204"/>
       <c r="G364" s="25"/>
     </row>
     <row r="365" spans="4:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D365" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E365" s="204" t="s">
+      <c r="E365" s="205" t="s">
         <v>530</v>
       </c>
-      <c r="F365" s="204"/>
-      <c r="G365" s="205" t="s">
+      <c r="F365" s="205"/>
+      <c r="G365" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H365" s="8"/>
@@ -12830,22 +12830,22 @@
       <c r="D366" s="15" t="s">
         <v>1138</v>
       </c>
-      <c r="E366" s="211" t="s">
+      <c r="E366" s="210" t="s">
         <v>497</v>
       </c>
-      <c r="F366" s="211"/>
-      <c r="G366" s="206"/>
+      <c r="F366" s="210"/>
+      <c r="G366" s="207"/>
       <c r="H366" s="8"/>
     </row>
     <row r="367" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D367" s="15" t="s">
         <v>1139</v>
       </c>
-      <c r="E367" s="211" t="s">
+      <c r="E367" s="210" t="s">
         <v>499</v>
       </c>
-      <c r="F367" s="211"/>
-      <c r="G367" s="206"/>
+      <c r="F367" s="210"/>
+      <c r="G367" s="207"/>
       <c r="H367" s="8"/>
     </row>
     <row r="368" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12856,7 +12856,7 @@
       <c r="F368" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="G368" s="206"/>
+      <c r="G368" s="207"/>
       <c r="H368" s="8"/>
     </row>
     <row r="369" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
       <c r="F369" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="G369" s="206"/>
+      <c r="G369" s="207"/>
       <c r="H369" s="8"/>
     </row>
     <row r="370" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12878,7 +12878,7 @@
       <c r="F370" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="G370" s="206"/>
+      <c r="G370" s="207"/>
       <c r="H370" s="8"/>
     </row>
     <row r="371" spans="4:8" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12889,7 +12889,7 @@
       <c r="F371" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="G371" s="207"/>
+      <c r="G371" s="208"/>
       <c r="H371" s="8"/>
     </row>
     <row r="372" spans="4:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12901,11 +12901,11 @@
       <c r="D373" s="13" t="s">
         <v>887</v>
       </c>
-      <c r="E373" s="204" t="s">
+      <c r="E373" s="205" t="s">
         <v>497</v>
       </c>
-      <c r="F373" s="204"/>
-      <c r="G373" s="205" t="s">
+      <c r="F373" s="205"/>
+      <c r="G373" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H373" s="8"/>
@@ -12914,11 +12914,11 @@
       <c r="D374" s="15" t="s">
         <v>1144</v>
       </c>
-      <c r="E374" s="211" t="s">
+      <c r="E374" s="210" t="s">
         <v>536</v>
       </c>
-      <c r="F374" s="211"/>
-      <c r="G374" s="206"/>
+      <c r="F374" s="210"/>
+      <c r="G374" s="207"/>
       <c r="H374" s="8"/>
     </row>
     <row r="375" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
       <c r="F375" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="G375" s="206"/>
+      <c r="G375" s="207"/>
       <c r="H375" s="8"/>
     </row>
     <row r="376" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12940,7 +12940,7 @@
       <c r="F376" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="G376" s="207"/>
+      <c r="G376" s="208"/>
       <c r="H376" s="8"/>
     </row>
     <row r="377" spans="4:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -12955,32 +12955,32 @@
       <c r="G378" s="25"/>
     </row>
     <row r="379" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E379" s="209" t="s">
+      <c r="E379" s="203" t="s">
         <v>539</v>
       </c>
-      <c r="F379" s="209"/>
+      <c r="F379" s="203"/>
       <c r="G379" s="25"/>
     </row>
     <row r="380" spans="4:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D380" s="168"/>
-      <c r="E380" s="203" t="s">
+      <c r="E380" s="204" t="s">
         <v>540</v>
       </c>
-      <c r="F380" s="203"/>
+      <c r="F380" s="204"/>
       <c r="G380" s="25"/>
     </row>
     <row r="381" spans="4:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D381" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="E381" s="204" t="s">
+      <c r="E381" s="205" t="s">
         <v>542</v>
       </c>
-      <c r="F381" s="204"/>
-      <c r="G381" s="205" t="s">
+      <c r="F381" s="205"/>
+      <c r="G381" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H381" s="210" t="s">
+      <c r="H381" s="213" t="s">
         <v>543</v>
       </c>
     </row>
@@ -12988,23 +12988,23 @@
       <c r="D382" s="15" t="s">
         <v>1147</v>
       </c>
-      <c r="E382" s="211" t="s">
+      <c r="E382" s="210" t="s">
         <v>544</v>
       </c>
-      <c r="F382" s="211"/>
-      <c r="G382" s="206"/>
-      <c r="H382" s="210"/>
+      <c r="F382" s="210"/>
+      <c r="G382" s="207"/>
+      <c r="H382" s="213"/>
     </row>
     <row r="383" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D383" s="15" t="s">
         <v>1148</v>
       </c>
-      <c r="E383" s="211" t="s">
+      <c r="E383" s="210" t="s">
         <v>545</v>
       </c>
-      <c r="F383" s="211"/>
-      <c r="G383" s="206"/>
-      <c r="H383" s="210"/>
+      <c r="F383" s="210"/>
+      <c r="G383" s="207"/>
+      <c r="H383" s="213"/>
     </row>
     <row r="384" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D384" s="17" t="s">
@@ -13014,8 +13014,8 @@
       <c r="F384" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="G384" s="206"/>
-      <c r="H384" s="210"/>
+      <c r="G384" s="207"/>
+      <c r="H384" s="213"/>
     </row>
     <row r="385" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D385" s="20" t="s">
@@ -13025,8 +13025,8 @@
       <c r="F385" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G385" s="207"/>
-      <c r="H385" s="210"/>
+      <c r="G385" s="208"/>
+      <c r="H385" s="213"/>
     </row>
     <row r="386" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F386" s="27"/>
@@ -13037,11 +13037,11 @@
       <c r="D387" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="E387" s="204" t="s">
+      <c r="E387" s="205" t="s">
         <v>549</v>
       </c>
-      <c r="F387" s="204"/>
-      <c r="G387" s="205" t="s">
+      <c r="F387" s="205"/>
+      <c r="G387" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H387" s="8"/>
@@ -13050,22 +13050,22 @@
       <c r="D388" s="15" t="s">
         <v>1151</v>
       </c>
-      <c r="E388" s="211" t="s">
+      <c r="E388" s="210" t="s">
         <v>550</v>
       </c>
-      <c r="F388" s="211"/>
-      <c r="G388" s="206"/>
+      <c r="F388" s="210"/>
+      <c r="G388" s="207"/>
       <c r="H388" s="8"/>
     </row>
     <row r="389" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D389" s="15" t="s">
         <v>1152</v>
       </c>
-      <c r="E389" s="211" t="s">
+      <c r="E389" s="210" t="s">
         <v>551</v>
       </c>
-      <c r="F389" s="211"/>
-      <c r="G389" s="206"/>
+      <c r="F389" s="210"/>
+      <c r="G389" s="207"/>
       <c r="H389" s="8"/>
     </row>
     <row r="390" spans="4:8" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13076,7 +13076,7 @@
       <c r="F390" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="G390" s="207"/>
+      <c r="G390" s="208"/>
       <c r="H390" s="8"/>
     </row>
     <row r="391" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13090,14 +13090,14 @@
       <c r="D392" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="E392" s="204" t="s">
+      <c r="E392" s="205" t="s">
         <v>554</v>
       </c>
-      <c r="F392" s="204"/>
-      <c r="G392" s="205" t="s">
+      <c r="F392" s="205"/>
+      <c r="G392" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H392" s="213" t="s">
+      <c r="H392" s="209" t="s">
         <v>555</v>
       </c>
     </row>
@@ -13105,67 +13105,67 @@
       <c r="D393" s="15" t="s">
         <v>1154</v>
       </c>
-      <c r="E393" s="211" t="s">
+      <c r="E393" s="210" t="s">
         <v>556</v>
       </c>
-      <c r="F393" s="211"/>
-      <c r="G393" s="206"/>
-      <c r="H393" s="213"/>
+      <c r="F393" s="210"/>
+      <c r="G393" s="207"/>
+      <c r="H393" s="209"/>
     </row>
     <row r="394" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D394" s="15" t="s">
         <v>1155</v>
       </c>
-      <c r="E394" s="211" t="s">
+      <c r="E394" s="210" t="s">
         <v>557</v>
       </c>
-      <c r="F394" s="211"/>
-      <c r="G394" s="206"/>
-      <c r="H394" s="213"/>
+      <c r="F394" s="210"/>
+      <c r="G394" s="207"/>
+      <c r="H394" s="209"/>
     </row>
     <row r="395" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D395" s="15" t="s">
         <v>1156</v>
       </c>
-      <c r="E395" s="211" t="s">
+      <c r="E395" s="210" t="s">
         <v>558</v>
       </c>
-      <c r="F395" s="211"/>
-      <c r="G395" s="206"/>
-      <c r="H395" s="213"/>
+      <c r="F395" s="210"/>
+      <c r="G395" s="207"/>
+      <c r="H395" s="209"/>
     </row>
     <row r="396" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D396" s="15" t="s">
         <v>1157</v>
       </c>
-      <c r="E396" s="211" t="s">
+      <c r="E396" s="210" t="s">
         <v>559</v>
       </c>
-      <c r="F396" s="211"/>
-      <c r="G396" s="206"/>
-      <c r="H396" s="213"/>
+      <c r="F396" s="210"/>
+      <c r="G396" s="207"/>
+      <c r="H396" s="209"/>
     </row>
     <row r="397" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D397" s="15" t="s">
         <v>1158</v>
       </c>
-      <c r="E397" s="211" t="s">
+      <c r="E397" s="210" t="s">
         <v>560</v>
       </c>
-      <c r="F397" s="211"/>
-      <c r="G397" s="206"/>
-      <c r="H397" s="213"/>
+      <c r="F397" s="210"/>
+      <c r="G397" s="207"/>
+      <c r="H397" s="209"/>
     </row>
     <row r="398" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D398" s="15" t="s">
         <v>1159</v>
       </c>
-      <c r="E398" s="211" t="s">
+      <c r="E398" s="210" t="s">
         <v>561</v>
       </c>
-      <c r="F398" s="211"/>
-      <c r="G398" s="206"/>
-      <c r="H398" s="213"/>
+      <c r="F398" s="210"/>
+      <c r="G398" s="207"/>
+      <c r="H398" s="209"/>
     </row>
     <row r="399" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D399" s="17" t="s">
@@ -13175,8 +13175,8 @@
       <c r="F399" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="G399" s="206"/>
-      <c r="H399" s="213"/>
+      <c r="G399" s="207"/>
+      <c r="H399" s="209"/>
     </row>
     <row r="400" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D400" s="20" t="s">
@@ -13186,8 +13186,8 @@
       <c r="F400" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="G400" s="207"/>
-      <c r="H400" s="213"/>
+      <c r="G400" s="208"/>
+      <c r="H400" s="209"/>
     </row>
     <row r="401" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F401" s="27"/>
@@ -13198,14 +13198,14 @@
       <c r="D402" s="13" t="s">
         <v>891</v>
       </c>
-      <c r="E402" s="204" t="s">
+      <c r="E402" s="205" t="s">
         <v>565</v>
       </c>
-      <c r="F402" s="204"/>
-      <c r="G402" s="205" t="s">
+      <c r="F402" s="205"/>
+      <c r="G402" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H402" s="213" t="s">
+      <c r="H402" s="209" t="s">
         <v>566</v>
       </c>
     </row>
@@ -13213,12 +13213,12 @@
       <c r="D403" s="15" t="s">
         <v>1162</v>
       </c>
-      <c r="E403" s="211" t="s">
+      <c r="E403" s="210" t="s">
         <v>567</v>
       </c>
-      <c r="F403" s="211"/>
-      <c r="G403" s="206"/>
-      <c r="H403" s="213"/>
+      <c r="F403" s="210"/>
+      <c r="G403" s="207"/>
+      <c r="H403" s="209"/>
     </row>
     <row r="404" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="14" t="s">
@@ -13227,67 +13227,67 @@
       <c r="D404" s="15" t="s">
         <v>1163</v>
       </c>
-      <c r="E404" s="211" t="s">
+      <c r="E404" s="210" t="s">
         <v>568</v>
       </c>
-      <c r="F404" s="211"/>
-      <c r="G404" s="206"/>
-      <c r="H404" s="213"/>
+      <c r="F404" s="210"/>
+      <c r="G404" s="207"/>
+      <c r="H404" s="209"/>
     </row>
     <row r="405" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D405" s="15" t="s">
         <v>1164</v>
       </c>
-      <c r="E405" s="211" t="s">
+      <c r="E405" s="210" t="s">
         <v>569</v>
       </c>
-      <c r="F405" s="211"/>
-      <c r="G405" s="206"/>
-      <c r="H405" s="213"/>
+      <c r="F405" s="210"/>
+      <c r="G405" s="207"/>
+      <c r="H405" s="209"/>
     </row>
     <row r="406" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D406" s="15" t="s">
         <v>1165</v>
       </c>
-      <c r="E406" s="211" t="s">
+      <c r="E406" s="210" t="s">
         <v>570</v>
       </c>
-      <c r="F406" s="211"/>
-      <c r="G406" s="206"/>
-      <c r="H406" s="213"/>
+      <c r="F406" s="210"/>
+      <c r="G406" s="207"/>
+      <c r="H406" s="209"/>
     </row>
     <row r="407" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D407" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="E407" s="211" t="s">
+      <c r="E407" s="210" t="s">
         <v>571</v>
       </c>
-      <c r="F407" s="211"/>
-      <c r="G407" s="206"/>
-      <c r="H407" s="213"/>
+      <c r="F407" s="210"/>
+      <c r="G407" s="207"/>
+      <c r="H407" s="209"/>
     </row>
     <row r="408" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D408" s="15" t="s">
         <v>1167</v>
       </c>
-      <c r="E408" s="211" t="s">
+      <c r="E408" s="210" t="s">
         <v>572</v>
       </c>
-      <c r="F408" s="211"/>
-      <c r="G408" s="206"/>
-      <c r="H408" s="213"/>
+      <c r="F408" s="210"/>
+      <c r="G408" s="207"/>
+      <c r="H408" s="209"/>
     </row>
     <row r="409" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D409" s="15" t="s">
         <v>1168</v>
       </c>
-      <c r="E409" s="211" t="s">
+      <c r="E409" s="210" t="s">
         <v>573</v>
       </c>
-      <c r="F409" s="211"/>
-      <c r="G409" s="206"/>
-      <c r="H409" s="213"/>
+      <c r="F409" s="210"/>
+      <c r="G409" s="207"/>
+      <c r="H409" s="209"/>
     </row>
     <row r="410" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D410" s="17" t="s">
@@ -13297,8 +13297,8 @@
       <c r="F410" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="G410" s="206"/>
-      <c r="H410" s="213"/>
+      <c r="G410" s="207"/>
+      <c r="H410" s="209"/>
     </row>
     <row r="411" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D411" s="20" t="s">
@@ -13308,39 +13308,39 @@
       <c r="F411" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="G411" s="207"/>
-      <c r="H411" s="213"/>
+      <c r="G411" s="208"/>
+      <c r="H411" s="209"/>
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G412" s="25"/>
       <c r="H412" s="28"/>
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E413" s="209" t="s">
+      <c r="E413" s="203" t="s">
         <v>576</v>
       </c>
-      <c r="F413" s="209"/>
+      <c r="F413" s="203"/>
       <c r="G413" s="25"/>
     </row>
     <row r="414" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E414" s="203" t="s">
+      <c r="E414" s="204" t="s">
         <v>577</v>
       </c>
-      <c r="F414" s="203"/>
+      <c r="F414" s="204"/>
       <c r="G414" s="25"/>
     </row>
     <row r="415" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D415" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="E415" s="204" t="s">
+      <c r="E415" s="205" t="s">
         <v>579</v>
       </c>
-      <c r="F415" s="204"/>
-      <c r="G415" s="205" t="s">
+      <c r="F415" s="205"/>
+      <c r="G415" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H415" s="210" t="s">
+      <c r="H415" s="213" t="s">
         <v>580</v>
       </c>
     </row>
@@ -13348,11 +13348,11 @@
       <c r="D416" s="15" t="s">
         <v>1171</v>
       </c>
-      <c r="E416" s="211" t="s">
+      <c r="E416" s="210" t="s">
         <v>581</v>
       </c>
-      <c r="F416" s="211"/>
-      <c r="G416" s="206"/>
+      <c r="F416" s="210"/>
+      <c r="G416" s="207"/>
       <c r="H416" s="214"/>
     </row>
     <row r="417" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -13363,7 +13363,7 @@
       <c r="F417" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="G417" s="206"/>
+      <c r="G417" s="207"/>
       <c r="H417" s="214"/>
     </row>
     <row r="418" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13374,7 +13374,7 @@
       <c r="F418" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="G418" s="207"/>
+      <c r="G418" s="208"/>
       <c r="H418" s="214"/>
     </row>
     <row r="419" spans="4:8" x14ac:dyDescent="0.25">
@@ -13382,31 +13382,31 @@
       <c r="H419" s="28"/>
     </row>
     <row r="420" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E420" s="209" t="s">
+      <c r="E420" s="203" t="s">
         <v>583</v>
       </c>
-      <c r="F420" s="209"/>
+      <c r="F420" s="203"/>
       <c r="G420" s="25"/>
     </row>
     <row r="421" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E421" s="203" t="s">
+      <c r="E421" s="204" t="s">
         <v>584</v>
       </c>
-      <c r="F421" s="203"/>
+      <c r="F421" s="204"/>
       <c r="G421" s="25"/>
     </row>
     <row r="422" spans="4:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D422" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="E422" s="204" t="s">
+      <c r="E422" s="205" t="s">
         <v>586</v>
       </c>
-      <c r="F422" s="204"/>
-      <c r="G422" s="205" t="s">
+      <c r="F422" s="205"/>
+      <c r="G422" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H422" s="210" t="s">
+      <c r="H422" s="213" t="s">
         <v>587</v>
       </c>
     </row>
@@ -13414,77 +13414,77 @@
       <c r="D423" s="15" t="s">
         <v>1174</v>
       </c>
-      <c r="E423" s="211" t="s">
+      <c r="E423" s="210" t="s">
         <v>588</v>
       </c>
-      <c r="F423" s="211"/>
-      <c r="G423" s="206"/>
+      <c r="F423" s="210"/>
+      <c r="G423" s="207"/>
       <c r="H423" s="214"/>
     </row>
     <row r="424" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D424" s="15" t="s">
         <v>1175</v>
       </c>
-      <c r="E424" s="211" t="s">
+      <c r="E424" s="210" t="s">
         <v>589</v>
       </c>
-      <c r="F424" s="211"/>
-      <c r="G424" s="206"/>
+      <c r="F424" s="210"/>
+      <c r="G424" s="207"/>
       <c r="H424" s="214"/>
     </row>
     <row r="425" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D425" s="15" t="s">
         <v>1176</v>
       </c>
-      <c r="E425" s="211" t="s">
+      <c r="E425" s="210" t="s">
         <v>590</v>
       </c>
-      <c r="F425" s="211"/>
-      <c r="G425" s="206"/>
+      <c r="F425" s="210"/>
+      <c r="G425" s="207"/>
       <c r="H425" s="214"/>
     </row>
     <row r="426" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D426" s="15" t="s">
         <v>1177</v>
       </c>
-      <c r="E426" s="211" t="s">
+      <c r="E426" s="210" t="s">
         <v>591</v>
       </c>
-      <c r="F426" s="211"/>
-      <c r="G426" s="206"/>
+      <c r="F426" s="210"/>
+      <c r="G426" s="207"/>
       <c r="H426" s="214"/>
     </row>
     <row r="427" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D427" s="15" t="s">
         <v>1178</v>
       </c>
-      <c r="E427" s="211" t="s">
+      <c r="E427" s="210" t="s">
         <v>592</v>
       </c>
-      <c r="F427" s="211"/>
-      <c r="G427" s="206"/>
+      <c r="F427" s="210"/>
+      <c r="G427" s="207"/>
       <c r="H427" s="214"/>
     </row>
     <row r="428" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D428" s="15" t="s">
         <v>1179</v>
       </c>
-      <c r="E428" s="211" t="s">
+      <c r="E428" s="210" t="s">
         <v>593</v>
       </c>
-      <c r="F428" s="211"/>
-      <c r="G428" s="206"/>
+      <c r="F428" s="210"/>
+      <c r="G428" s="207"/>
       <c r="H428" s="214"/>
     </row>
     <row r="429" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D429" s="15" t="s">
         <v>1180</v>
       </c>
-      <c r="E429" s="211" t="s">
+      <c r="E429" s="210" t="s">
         <v>594</v>
       </c>
-      <c r="F429" s="211"/>
-      <c r="G429" s="206"/>
+      <c r="F429" s="210"/>
+      <c r="G429" s="207"/>
       <c r="H429" s="214"/>
     </row>
     <row r="430" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13495,7 +13495,7 @@
       <c r="F430" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="G430" s="207"/>
+      <c r="G430" s="208"/>
       <c r="H430" s="214"/>
     </row>
     <row r="431" spans="4:8" x14ac:dyDescent="0.25">
@@ -13509,10 +13509,10 @@
       <c r="G432" s="25"/>
     </row>
     <row r="433" spans="2:8" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E433" s="203" t="s">
+      <c r="E433" s="204" t="s">
         <v>597</v>
       </c>
-      <c r="F433" s="203"/>
+      <c r="F433" s="204"/>
       <c r="G433" s="25"/>
     </row>
     <row r="434" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -13522,44 +13522,44 @@
       <c r="D434" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E434" s="204" t="s">
+      <c r="E434" s="205" t="s">
         <v>599</v>
       </c>
-      <c r="F434" s="204"/>
-      <c r="G434" s="205" t="s">
+      <c r="F434" s="205"/>
+      <c r="G434" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H434" s="210" t="s">
+      <c r="H434" s="213" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="435" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D435" s="49"/>
-      <c r="E435" s="215" t="s">
+      <c r="E435" s="228" t="s">
         <v>601</v>
       </c>
-      <c r="F435" s="215"/>
-      <c r="G435" s="206"/>
+      <c r="F435" s="228"/>
+      <c r="G435" s="207"/>
       <c r="H435" s="214"/>
     </row>
     <row r="436" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D436" s="50" t="s">
         <v>602</v>
       </c>
-      <c r="E436" s="216" t="s">
+      <c r="E436" s="229" t="s">
         <v>603</v>
       </c>
-      <c r="F436" s="216"/>
-      <c r="G436" s="206"/>
+      <c r="F436" s="229"/>
+      <c r="G436" s="207"/>
       <c r="H436" s="214"/>
     </row>
     <row r="437" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D437" s="49"/>
-      <c r="E437" s="215" t="s">
+      <c r="E437" s="228" t="s">
         <v>604</v>
       </c>
-      <c r="F437" s="215"/>
-      <c r="G437" s="206"/>
+      <c r="F437" s="228"/>
+      <c r="G437" s="207"/>
       <c r="H437" s="214"/>
     </row>
     <row r="438" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -13573,7 +13573,7 @@
       <c r="F438" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="G438" s="206"/>
+      <c r="G438" s="207"/>
       <c r="H438" s="214"/>
     </row>
     <row r="439" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -13584,7 +13584,7 @@
       <c r="F439" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="G439" s="206"/>
+      <c r="G439" s="207"/>
       <c r="H439" s="214"/>
     </row>
     <row r="440" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13595,7 +13595,7 @@
       <c r="F440" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="G440" s="207"/>
+      <c r="G440" s="208"/>
       <c r="H440" s="214"/>
     </row>
     <row r="441" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13606,14 +13606,14 @@
       <c r="D442" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E442" s="204" t="s">
+      <c r="E442" s="205" t="s">
         <v>612</v>
       </c>
-      <c r="F442" s="204"/>
-      <c r="G442" s="205" t="s">
+      <c r="F442" s="205"/>
+      <c r="G442" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="H442" s="210" t="s">
+      <c r="H442" s="213" t="s">
         <v>613</v>
       </c>
     </row>
@@ -13621,23 +13621,23 @@
       <c r="D443" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="E443" s="211" t="s">
+      <c r="E443" s="210" t="s">
         <v>615</v>
       </c>
-      <c r="F443" s="211"/>
-      <c r="G443" s="206"/>
-      <c r="H443" s="210"/>
+      <c r="F443" s="210"/>
+      <c r="G443" s="207"/>
+      <c r="H443" s="213"/>
     </row>
     <row r="444" spans="2:8" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D444" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="E444" s="211" t="s">
+      <c r="E444" s="210" t="s">
         <v>617</v>
       </c>
-      <c r="F444" s="211"/>
-      <c r="G444" s="206"/>
-      <c r="H444" s="210"/>
+      <c r="F444" s="210"/>
+      <c r="G444" s="207"/>
+      <c r="H444" s="213"/>
     </row>
     <row r="445" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D445" s="20" t="s">
@@ -13647,8 +13647,8 @@
       <c r="F445" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="G445" s="207"/>
-      <c r="H445" s="210"/>
+      <c r="G445" s="208"/>
+      <c r="H445" s="213"/>
     </row>
     <row r="446" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D446" s="51"/>
@@ -13659,14 +13659,14 @@
       <c r="D447" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="E447" s="204" t="s">
+      <c r="E447" s="205" t="s">
         <v>621</v>
       </c>
-      <c r="F447" s="204"/>
-      <c r="G447" s="205" t="s">
+      <c r="F447" s="205"/>
+      <c r="G447" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H447" s="213" t="s">
+      <c r="H447" s="209" t="s">
         <v>622</v>
       </c>
     </row>
@@ -13674,12 +13674,12 @@
       <c r="D448" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="E448" s="211" t="s">
+      <c r="E448" s="210" t="s">
         <v>624</v>
       </c>
-      <c r="F448" s="211"/>
-      <c r="G448" s="206"/>
-      <c r="H448" s="213"/>
+      <c r="F448" s="210"/>
+      <c r="G448" s="207"/>
+      <c r="H448" s="209"/>
     </row>
     <row r="449" spans="4:8" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D449" s="17" t="s">
@@ -13689,8 +13689,8 @@
       <c r="F449" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="G449" s="206"/>
-      <c r="H449" s="213"/>
+      <c r="G449" s="207"/>
+      <c r="H449" s="209"/>
     </row>
     <row r="450" spans="4:8" s="16" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D450" s="20" t="s">
@@ -13700,8 +13700,8 @@
       <c r="F450" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="G450" s="207"/>
-      <c r="H450" s="213"/>
+      <c r="G450" s="208"/>
+      <c r="H450" s="209"/>
     </row>
     <row r="451" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G451" s="25"/>
@@ -13711,14 +13711,14 @@
       <c r="D452" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="E452" s="204" t="s">
+      <c r="E452" s="205" t="s">
         <v>630</v>
       </c>
-      <c r="F452" s="204"/>
-      <c r="G452" s="205" t="s">
+      <c r="F452" s="205"/>
+      <c r="G452" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H452" s="210" t="s">
+      <c r="H452" s="213" t="s">
         <v>631</v>
       </c>
     </row>
@@ -13726,34 +13726,34 @@
       <c r="D453" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="E453" s="211" t="s">
+      <c r="E453" s="210" t="s">
         <v>633</v>
       </c>
-      <c r="F453" s="211"/>
-      <c r="G453" s="206"/>
-      <c r="H453" s="210"/>
+      <c r="F453" s="210"/>
+      <c r="G453" s="207"/>
+      <c r="H453" s="213"/>
     </row>
     <row r="454" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D454" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="E454" s="211" t="s">
+      <c r="E454" s="210" t="s">
         <v>635</v>
       </c>
-      <c r="F454" s="211"/>
-      <c r="G454" s="206"/>
-      <c r="H454" s="210"/>
+      <c r="F454" s="210"/>
+      <c r="G454" s="207"/>
+      <c r="H454" s="213"/>
     </row>
     <row r="455" spans="4:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D455" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="E455" s="212" t="s">
+      <c r="E455" s="230" t="s">
         <v>637</v>
       </c>
-      <c r="F455" s="212"/>
-      <c r="G455" s="206"/>
-      <c r="H455" s="210"/>
+      <c r="F455" s="230"/>
+      <c r="G455" s="207"/>
+      <c r="H455" s="213"/>
     </row>
     <row r="456" spans="4:8" s="16" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D456" s="20" t="s">
@@ -13763,8 +13763,8 @@
       <c r="F456" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="G456" s="207"/>
-      <c r="H456" s="210"/>
+      <c r="G456" s="208"/>
+      <c r="H456" s="213"/>
     </row>
     <row r="457" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G457" s="25"/>
@@ -13774,14 +13774,14 @@
       <c r="D458" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="E458" s="204" t="s">
+      <c r="E458" s="205" t="s">
         <v>641</v>
       </c>
-      <c r="F458" s="204"/>
-      <c r="G458" s="205" t="s">
+      <c r="F458" s="205"/>
+      <c r="G458" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H458" s="210" t="s">
+      <c r="H458" s="213" t="s">
         <v>642</v>
       </c>
     </row>
@@ -13793,8 +13793,8 @@
       <c r="F459" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="G459" s="206"/>
-      <c r="H459" s="210"/>
+      <c r="G459" s="207"/>
+      <c r="H459" s="213"/>
     </row>
     <row r="460" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D460" s="17" t="s">
@@ -13804,8 +13804,8 @@
       <c r="F460" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="G460" s="206"/>
-      <c r="H460" s="210"/>
+      <c r="G460" s="207"/>
+      <c r="H460" s="213"/>
     </row>
     <row r="461" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D461" s="20" t="s">
@@ -13815,8 +13815,8 @@
       <c r="F461" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="G461" s="207"/>
-      <c r="H461" s="210"/>
+      <c r="G461" s="208"/>
+      <c r="H461" s="213"/>
     </row>
     <row r="462" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G462" s="25"/>
@@ -13829,31 +13829,31 @@
       <c r="G463" s="25"/>
     </row>
     <row r="464" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E464" s="209" t="s">
+      <c r="E464" s="203" t="s">
         <v>650</v>
       </c>
-      <c r="F464" s="209"/>
+      <c r="F464" s="203"/>
       <c r="G464" s="25"/>
     </row>
     <row r="465" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E465" s="203" t="s">
+      <c r="E465" s="204" t="s">
         <v>651</v>
       </c>
-      <c r="F465" s="203"/>
+      <c r="F465" s="204"/>
       <c r="G465" s="4"/>
     </row>
     <row r="466" spans="4:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D466" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="E466" s="204" t="s">
+      <c r="E466" s="205" t="s">
         <v>653</v>
       </c>
-      <c r="F466" s="204"/>
-      <c r="G466" s="205" t="s">
+      <c r="F466" s="205"/>
+      <c r="G466" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H466" s="210" t="s">
+      <c r="H466" s="213" t="s">
         <v>654</v>
       </c>
     </row>
@@ -13865,8 +13865,8 @@
       <c r="F467" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="G467" s="206"/>
-      <c r="H467" s="210"/>
+      <c r="G467" s="207"/>
+      <c r="H467" s="213"/>
     </row>
     <row r="468" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D468" s="17" t="s">
@@ -13876,8 +13876,8 @@
       <c r="F468" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="G468" s="206"/>
-      <c r="H468" s="210"/>
+      <c r="G468" s="207"/>
+      <c r="H468" s="213"/>
     </row>
     <row r="469" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D469" s="20" t="s">
@@ -13887,8 +13887,8 @@
       <c r="F469" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="G469" s="207"/>
-      <c r="H469" s="210"/>
+      <c r="G469" s="208"/>
+      <c r="H469" s="213"/>
     </row>
     <row r="470" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F470" s="27"/>
@@ -13899,14 +13899,14 @@
       <c r="D471" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="E471" s="204" t="s">
+      <c r="E471" s="205" t="s">
         <v>659</v>
       </c>
-      <c r="F471" s="204"/>
-      <c r="G471" s="205" t="s">
+      <c r="F471" s="205"/>
+      <c r="G471" s="206" t="s">
         <v>388</v>
       </c>
-      <c r="H471" s="208" t="s">
+      <c r="H471" s="218" t="s">
         <v>660</v>
       </c>
     </row>
@@ -13918,8 +13918,8 @@
       <c r="F472" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="G472" s="206"/>
-      <c r="H472" s="208"/>
+      <c r="G472" s="207"/>
+      <c r="H472" s="218"/>
     </row>
     <row r="473" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D473" s="17" t="s">
@@ -13929,8 +13929,8 @@
       <c r="F473" s="19" t="s">
         <v>662</v>
       </c>
-      <c r="G473" s="206"/>
-      <c r="H473" s="208"/>
+      <c r="G473" s="207"/>
+      <c r="H473" s="218"/>
     </row>
     <row r="474" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D474" s="17" t="s">
@@ -13940,8 +13940,8 @@
       <c r="F474" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="G474" s="206"/>
-      <c r="H474" s="208"/>
+      <c r="G474" s="207"/>
+      <c r="H474" s="218"/>
     </row>
     <row r="475" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D475" s="17" t="s">
@@ -13951,8 +13951,8 @@
       <c r="F475" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="G475" s="206"/>
-      <c r="H475" s="208"/>
+      <c r="G475" s="207"/>
+      <c r="H475" s="218"/>
     </row>
     <row r="476" spans="4:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D476" s="17" t="s">
@@ -13962,8 +13962,8 @@
       <c r="F476" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="G476" s="206"/>
-      <c r="H476" s="208"/>
+      <c r="G476" s="207"/>
+      <c r="H476" s="218"/>
     </row>
     <row r="477" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D477" s="20" t="s">
@@ -13973,8 +13973,8 @@
       <c r="F477" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="G477" s="207"/>
-      <c r="H477" s="208"/>
+      <c r="G477" s="208"/>
+      <c r="H477" s="218"/>
     </row>
     <row r="478" spans="4:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G478" s="25"/>
@@ -13984,11 +13984,11 @@
       <c r="D479" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="E479" s="204" t="s">
+      <c r="E479" s="205" t="s">
         <v>668</v>
       </c>
-      <c r="F479" s="204"/>
-      <c r="G479" s="205" t="s">
+      <c r="F479" s="205"/>
+      <c r="G479" s="206" t="s">
         <v>116</v>
       </c>
       <c r="H479" s="8"/>
@@ -14001,7 +14001,7 @@
       <c r="F480" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="G480" s="207"/>
+      <c r="G480" s="208"/>
       <c r="H480" s="8"/>
     </row>
     <row r="481" spans="3:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -14012,31 +14012,31 @@
       <c r="H481" s="8"/>
     </row>
     <row r="482" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E482" s="209" t="s">
+      <c r="E482" s="203" t="s">
         <v>670</v>
       </c>
-      <c r="F482" s="209"/>
+      <c r="F482" s="203"/>
       <c r="G482" s="10"/>
     </row>
     <row r="483" spans="3:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C483" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E483" s="203" t="s">
+      <c r="E483" s="204" t="s">
         <v>671</v>
       </c>
-      <c r="F483" s="203"/>
+      <c r="F483" s="204"/>
       <c r="G483" s="25"/>
     </row>
     <row r="484" spans="3:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D484" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="E484" s="204" t="s">
+      <c r="E484" s="205" t="s">
         <v>673</v>
       </c>
-      <c r="F484" s="204"/>
-      <c r="G484" s="205" t="s">
+      <c r="F484" s="205"/>
+      <c r="G484" s="206" t="s">
         <v>102</v>
       </c>
       <c r="H484" s="8"/>
@@ -14049,7 +14049,7 @@
       <c r="F485" s="19" t="s">
         <v>674</v>
       </c>
-      <c r="G485" s="206"/>
+      <c r="G485" s="207"/>
       <c r="H485" s="8"/>
     </row>
     <row r="486" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -14060,7 +14060,7 @@
       <c r="F486" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="G486" s="206"/>
+      <c r="G486" s="207"/>
       <c r="H486" s="8"/>
     </row>
     <row r="487" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14071,7 +14071,7 @@
       <c r="F487" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="G487" s="207"/>
+      <c r="G487" s="208"/>
       <c r="H487" s="8"/>
     </row>
     <row r="488" spans="3:8" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14090,7 +14090,7 @@
         <v>678</v>
       </c>
       <c r="F489" s="59"/>
-      <c r="G489" s="205" t="s">
+      <c r="G489" s="206" t="s">
         <v>388</v>
       </c>
       <c r="H489" s="8"/>
@@ -14103,7 +14103,7 @@
       <c r="F490" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="G490" s="206"/>
+      <c r="G490" s="207"/>
       <c r="H490" s="8"/>
     </row>
     <row r="491" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14114,69 +14114,306 @@
       <c r="F491" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="G491" s="207"/>
+      <c r="G491" s="208"/>
       <c r="H491" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="371">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:G35"/>
-    <mergeCell ref="H26:H35"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:G73"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E483:F483"/>
+    <mergeCell ref="E484:F484"/>
+    <mergeCell ref="G484:G487"/>
+    <mergeCell ref="G489:G491"/>
+    <mergeCell ref="E471:F471"/>
+    <mergeCell ref="G471:G477"/>
+    <mergeCell ref="H471:H477"/>
+    <mergeCell ref="E479:F479"/>
+    <mergeCell ref="G479:G480"/>
+    <mergeCell ref="E482:F482"/>
+    <mergeCell ref="E466:F466"/>
+    <mergeCell ref="G466:G469"/>
+    <mergeCell ref="H466:H469"/>
+    <mergeCell ref="E452:F452"/>
+    <mergeCell ref="G452:G456"/>
+    <mergeCell ref="H452:H456"/>
+    <mergeCell ref="E453:F453"/>
+    <mergeCell ref="E454:F454"/>
+    <mergeCell ref="E455:F455"/>
+    <mergeCell ref="E447:F447"/>
+    <mergeCell ref="G447:G450"/>
+    <mergeCell ref="H447:H450"/>
+    <mergeCell ref="E448:F448"/>
+    <mergeCell ref="E458:F458"/>
+    <mergeCell ref="G458:G461"/>
+    <mergeCell ref="H458:H461"/>
+    <mergeCell ref="E464:F464"/>
+    <mergeCell ref="E465:F465"/>
+    <mergeCell ref="E433:F433"/>
+    <mergeCell ref="E434:F434"/>
+    <mergeCell ref="G434:G440"/>
+    <mergeCell ref="H434:H440"/>
+    <mergeCell ref="E435:F435"/>
+    <mergeCell ref="E436:F436"/>
+    <mergeCell ref="E437:F437"/>
+    <mergeCell ref="E442:F442"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="H442:H445"/>
+    <mergeCell ref="E443:F443"/>
+    <mergeCell ref="E444:F444"/>
+    <mergeCell ref="E420:F420"/>
+    <mergeCell ref="E421:F421"/>
+    <mergeCell ref="E422:F422"/>
+    <mergeCell ref="G422:G430"/>
+    <mergeCell ref="H422:H430"/>
+    <mergeCell ref="E423:F423"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E426:F426"/>
+    <mergeCell ref="E427:F427"/>
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="E414:F414"/>
+    <mergeCell ref="E415:F415"/>
+    <mergeCell ref="G415:G418"/>
+    <mergeCell ref="H415:H418"/>
+    <mergeCell ref="E416:F416"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="G402:G411"/>
+    <mergeCell ref="H402:H411"/>
+    <mergeCell ref="E403:F403"/>
+    <mergeCell ref="E404:F404"/>
+    <mergeCell ref="E405:F405"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="E409:F409"/>
+    <mergeCell ref="E392:F392"/>
+    <mergeCell ref="G392:G400"/>
+    <mergeCell ref="H392:H400"/>
+    <mergeCell ref="E393:F393"/>
+    <mergeCell ref="E394:F394"/>
+    <mergeCell ref="E395:F395"/>
+    <mergeCell ref="E396:F396"/>
+    <mergeCell ref="E397:F397"/>
+    <mergeCell ref="E398:F398"/>
+    <mergeCell ref="H381:H385"/>
+    <mergeCell ref="E382:F382"/>
+    <mergeCell ref="E383:F383"/>
+    <mergeCell ref="E387:F387"/>
+    <mergeCell ref="G387:G390"/>
+    <mergeCell ref="E388:F388"/>
+    <mergeCell ref="E389:F389"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="G373:G376"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E380:F380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="G381:G385"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="G365:G371"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="G352:G361"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="G336:G338"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="G343:G348"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="G330:G331"/>
+    <mergeCell ref="H330:H331"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="G332:G335"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="G320:G323"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="G325:G329"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="G312:G313"/>
+    <mergeCell ref="H312:H313"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="G315:G318"/>
+    <mergeCell ref="H315:H318"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="G302:G307"/>
+    <mergeCell ref="H302:H307"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="G309:G311"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="G295:G300"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="G286:G289"/>
+    <mergeCell ref="H286:H289"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="E281:F281"/>
+    <mergeCell ref="H281:H282"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="G270:G272"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="H271:H272"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="G273:G278"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="G264:G268"/>
+    <mergeCell ref="H264:H268"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="G249:G252"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="G254:G261"/>
+    <mergeCell ref="H254:H261"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="G240:G248"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="G231:G238"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="G220:G227"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="G228:G229"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:G207"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="G209:G218"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="G189:G193"/>
+    <mergeCell ref="H189:H193"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="G195:G201"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:G177"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:G184"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:G188"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:G171"/>
+    <mergeCell ref="H168:H171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:G174"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:G160"/>
+    <mergeCell ref="H155:H160"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="G144:G153"/>
+    <mergeCell ref="H144:H153"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:G142"/>
+    <mergeCell ref="H136:H142"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:G121"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:G114"/>
+    <mergeCell ref="H110:H114"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:G108"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="E91:F91"/>
@@ -14195,301 +14432,64 @@
     <mergeCell ref="H81:H87"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H110:H114"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:G108"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:G121"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:G127"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:G114"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:G142"/>
-    <mergeCell ref="H136:H142"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="G144:G153"/>
-    <mergeCell ref="H144:H153"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:G171"/>
-    <mergeCell ref="H168:H171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:G174"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:G160"/>
-    <mergeCell ref="H155:H160"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:G165"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="G189:G193"/>
-    <mergeCell ref="H189:H193"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="G195:G201"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:G177"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:G184"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:G188"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="G220:G227"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="G228:G229"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:G207"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="G209:G218"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="G240:G248"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="G231:G238"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="G264:G268"/>
-    <mergeCell ref="H264:H268"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="G249:G252"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="G254:G261"/>
-    <mergeCell ref="H254:H261"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="G270:G272"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="H271:H272"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="G273:G278"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="H286:H289"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="G279:G282"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="E281:F281"/>
-    <mergeCell ref="H281:H282"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="G295:G300"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="G286:G289"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="G312:G313"/>
-    <mergeCell ref="H312:H313"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="G315:G318"/>
-    <mergeCell ref="H315:H318"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="G302:G307"/>
-    <mergeCell ref="H302:H307"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="G309:G311"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="H330:H331"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="G332:G335"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="G320:G323"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="G325:G329"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="G336:G338"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="G343:G348"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="G330:G331"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="G365:G371"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="G352:G361"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="H381:H385"/>
-    <mergeCell ref="E382:F382"/>
-    <mergeCell ref="E383:F383"/>
-    <mergeCell ref="E387:F387"/>
-    <mergeCell ref="G387:G390"/>
-    <mergeCell ref="E388:F388"/>
-    <mergeCell ref="E389:F389"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="G373:G376"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E380:F380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="G381:G385"/>
-    <mergeCell ref="E392:F392"/>
-    <mergeCell ref="G392:G400"/>
-    <mergeCell ref="H392:H400"/>
-    <mergeCell ref="E393:F393"/>
-    <mergeCell ref="E394:F394"/>
-    <mergeCell ref="E395:F395"/>
-    <mergeCell ref="E396:F396"/>
-    <mergeCell ref="E397:F397"/>
-    <mergeCell ref="E398:F398"/>
-    <mergeCell ref="E413:F413"/>
-    <mergeCell ref="E414:F414"/>
-    <mergeCell ref="E415:F415"/>
-    <mergeCell ref="G415:G418"/>
-    <mergeCell ref="H415:H418"/>
-    <mergeCell ref="E416:F416"/>
-    <mergeCell ref="E402:F402"/>
-    <mergeCell ref="G402:G411"/>
-    <mergeCell ref="H402:H411"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="E404:F404"/>
-    <mergeCell ref="E405:F405"/>
-    <mergeCell ref="E406:F406"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="E409:F409"/>
-    <mergeCell ref="E420:F420"/>
-    <mergeCell ref="E421:F421"/>
-    <mergeCell ref="E422:F422"/>
-    <mergeCell ref="G422:G430"/>
-    <mergeCell ref="H422:H430"/>
-    <mergeCell ref="E423:F423"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E426:F426"/>
-    <mergeCell ref="E427:F427"/>
-    <mergeCell ref="E428:F428"/>
-    <mergeCell ref="E429:F429"/>
-    <mergeCell ref="E433:F433"/>
-    <mergeCell ref="E434:F434"/>
-    <mergeCell ref="G434:G440"/>
-    <mergeCell ref="H434:H440"/>
-    <mergeCell ref="E435:F435"/>
-    <mergeCell ref="E436:F436"/>
-    <mergeCell ref="E437:F437"/>
-    <mergeCell ref="E442:F442"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="H442:H445"/>
-    <mergeCell ref="E443:F443"/>
-    <mergeCell ref="E444:F444"/>
-    <mergeCell ref="E447:F447"/>
-    <mergeCell ref="G447:G450"/>
-    <mergeCell ref="H447:H450"/>
-    <mergeCell ref="E448:F448"/>
-    <mergeCell ref="E458:F458"/>
-    <mergeCell ref="G458:G461"/>
-    <mergeCell ref="H458:H461"/>
-    <mergeCell ref="E464:F464"/>
-    <mergeCell ref="E465:F465"/>
-    <mergeCell ref="E466:F466"/>
-    <mergeCell ref="G466:G469"/>
-    <mergeCell ref="H466:H469"/>
-    <mergeCell ref="E452:F452"/>
-    <mergeCell ref="G452:G456"/>
-    <mergeCell ref="H452:H456"/>
-    <mergeCell ref="E453:F453"/>
-    <mergeCell ref="E454:F454"/>
-    <mergeCell ref="E455:F455"/>
-    <mergeCell ref="E483:F483"/>
-    <mergeCell ref="E484:F484"/>
-    <mergeCell ref="G484:G487"/>
-    <mergeCell ref="G489:G491"/>
-    <mergeCell ref="E471:F471"/>
-    <mergeCell ref="G471:G477"/>
-    <mergeCell ref="H471:H477"/>
-    <mergeCell ref="E479:F479"/>
-    <mergeCell ref="G479:G480"/>
-    <mergeCell ref="E482:F482"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:G73"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:G35"/>
+    <mergeCell ref="H26:H35"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progression/Progression_PTSI_2014_2015.xlsx
+++ b/Progression/Progression_PTSI_2014_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="885" windowWidth="14805" windowHeight="7230" tabRatio="611" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="7170" tabRatio="611"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PTSI_Rouviere" sheetId="7" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="1681">
   <si>
     <t>Séquence</t>
   </si>
@@ -3508,9 +3508,6 @@
     <t xml:space="preserve">CI8. Découverte des fonctionnalités d'assemblage d'un modeleur 3D. </t>
   </si>
   <si>
-    <t xml:space="preserve">CI8. Découvrir les opérations de base d'un modeleur 3D. </t>
-  </si>
-  <si>
     <t>CI1 - IS</t>
   </si>
   <si>
@@ -3939,9 +3936,6 @@
   </si>
   <si>
     <t xml:space="preserve">Conception d'un réseau local. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI1. Découverte de l'IS et des systèmes : chaîne d'énergie pneumatique. </t>
   </si>
   <si>
     <t>Séquence 1, TP1</t>
@@ -5178,9 +5172,6 @@
 Communiquer en utilisant les outil de la représentation 2D et 3D. </t>
   </si>
   <si>
-    <t>CI3 Modélisation cin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Étude des performances des systèmes. </t>
   </si>
   <si>
@@ -5255,9 +5246,6 @@
   <si>
     <t>CI1. Exploitation des outils de l'IS.
 Bouilloire, Robuglass, SysReeduc</t>
-  </si>
-  <si>
-    <t>CI1 Ilot - Découverte de la chaîne d'information : capsuleuse, cordeuse, pilote, robotino.</t>
   </si>
   <si>
     <t xml:space="preserve">Interrogation de cours : IS - Dessin : Machine de traction. Dessin des éprouvettes et système d'attache. </t>
@@ -5367,6 +5355,25 @@
   </si>
   <si>
     <t>02_Cin_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité 1 : CI8. Découvrir les opérations de base d'un modeleur 3D. </t>
+  </si>
+  <si>
+    <t>Activité 2
+CI1 Ilot - Découverte de la chaîne d'information : capsuleuse, cordeuse, pilote, robotino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité 2 -  Présentations. </t>
+  </si>
+  <si>
+    <t>CI3 Modélisation cin
+Schéma cinématiques. (03_CIN_02_Application_07)</t>
+  </si>
+  <si>
+    <t>CI3 Modélisation cin
+Liaisons cinématiques. 
+(03_CIN_02_Application_01 &amp; 02)</t>
   </si>
 </sst>
 </file>
@@ -6960,175 +6967,175 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7433,7 +7440,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7453,7 +7460,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7757,12 +7764,12 @@
   </sheetPr>
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7783,7 +7790,7 @@
       <c r="B1" s="70"/>
       <c r="C1" s="126"/>
       <c r="D1" s="69" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>1</v>
@@ -7801,7 +7808,7 @@
         <v>1075</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="K1" s="69" t="s">
         <v>1076</v>
@@ -7819,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="Q1" s="69" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="R1" s="69" t="s">
         <v>9</v>
@@ -7829,40 +7836,40 @@
       <c r="A2" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="268" t="s">
         <v>999</v>
       </c>
       <c r="C2" s="162" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D2" s="262" t="s">
-        <v>1635</v>
+        <v>1084</v>
+      </c>
+      <c r="D2" s="261" t="s">
+        <v>1632</v>
       </c>
       <c r="E2" s="154" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F2" s="248" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F2" s="297" t="s">
         <v>1072</v>
       </c>
-      <c r="G2" s="262" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H2" s="262" t="s">
+      <c r="G2" s="261" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H2" s="261" t="s">
         <v>1082</v>
       </c>
-      <c r="I2" s="262"/>
-      <c r="J2" s="290" t="s">
-        <v>1621</v>
+      <c r="I2" s="261"/>
+      <c r="J2" s="292" t="s">
+        <v>1619</v>
       </c>
       <c r="K2" s="154" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L2" s="154" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="M2" s="154"/>
       <c r="N2" s="154" t="s">
-        <v>1084</v>
+        <v>1676</v>
       </c>
       <c r="O2" s="163"/>
       <c r="P2" s="163"/>
@@ -7873,177 +7880,177 @@
       <c r="A3" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="270"/>
+      <c r="B3" s="269"/>
       <c r="C3" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D3" s="263"/>
+        <v>1085</v>
+      </c>
+      <c r="D3" s="262"/>
       <c r="E3" s="158" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="263"/>
+        <v>1163</v>
+      </c>
+      <c r="F3" s="256"/>
+      <c r="G3" s="262"/>
       <c r="H3" s="158" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="I3" s="158" t="s">
-        <v>1620</v>
-      </c>
-      <c r="J3" s="291"/>
+        <v>1618</v>
+      </c>
+      <c r="J3" s="293"/>
       <c r="K3" s="158" t="s">
         <v>1083</v>
       </c>
       <c r="L3" s="158" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="M3" s="158"/>
-      <c r="N3" s="250" t="s">
-        <v>1647</v>
+      <c r="N3" s="248" t="s">
+        <v>1677</v>
       </c>
       <c r="O3" s="165"/>
       <c r="P3" s="158"/>
       <c r="Q3" s="158" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="R3" s="159" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="63.75" customHeight="1">
       <c r="A4" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="268" t="s">
         <v>1000</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D4" s="254" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D4" s="252" t="s">
         <v>1001</v>
       </c>
       <c r="E4" s="154" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H4" s="154" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I4" s="154" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J4" s="294"/>
+      <c r="K4" s="154" t="s">
         <v>1088</v>
       </c>
-      <c r="H4" s="154" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I4" s="154" t="s">
-        <v>1650</v>
-      </c>
-      <c r="J4" s="292"/>
-      <c r="K4" s="154" t="s">
+      <c r="L4" s="154" t="s">
         <v>1089</v>
       </c>
-      <c r="L4" s="154" t="s">
-        <v>1090</v>
-      </c>
       <c r="M4" s="154"/>
-      <c r="N4" s="251"/>
+      <c r="N4" s="249"/>
       <c r="O4" s="163"/>
       <c r="P4" s="154" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="Q4" s="154" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="R4" s="155" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="60.75" customHeight="1" thickBot="1">
       <c r="A5" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="270"/>
+      <c r="B5" s="269"/>
       <c r="C5" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D5" s="255"/>
+        <v>1085</v>
+      </c>
+      <c r="D5" s="253"/>
       <c r="E5" s="158" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F5" s="158"/>
       <c r="G5" s="158" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H5" s="158" t="s">
         <v>1663</v>
       </c>
-      <c r="H5" s="158" t="s">
-        <v>1667</v>
-      </c>
       <c r="I5" s="158" t="s">
-        <v>1668</v>
-      </c>
-      <c r="J5" s="286" t="s">
-        <v>1658</v>
-      </c>
-      <c r="K5" s="294"/>
-      <c r="L5" s="287"/>
+        <v>1664</v>
+      </c>
+      <c r="J5" s="287" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="288"/>
       <c r="M5" s="158"/>
       <c r="N5" s="158" t="s">
-        <v>1217</v>
-      </c>
-      <c r="O5" s="250" t="s">
-        <v>1662</v>
+        <v>1678</v>
+      </c>
+      <c r="O5" s="248" t="s">
+        <v>1658</v>
       </c>
       <c r="P5" s="158" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Q5" s="158" t="s">
+        <v>1670</v>
+      </c>
+      <c r="R5" s="247" t="s">
         <v>1672</v>
-      </c>
-      <c r="Q5" s="158" t="s">
-        <v>1674</v>
-      </c>
-      <c r="R5" s="247" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" customHeight="1">
       <c r="A6" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="268" t="s">
         <v>1002</v>
       </c>
-      <c r="C6" s="288" t="s">
+      <c r="C6" s="290" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D6" s="261" t="s">
         <v>1091</v>
       </c>
-      <c r="D6" s="262" t="s">
-        <v>1092</v>
-      </c>
       <c r="E6" s="154" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F6" s="154"/>
       <c r="G6" s="154" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="H6" s="154" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="I6" s="154" t="s">
-        <v>1665</v>
-      </c>
-      <c r="J6" s="264" t="s">
-        <v>1656</v>
-      </c>
-      <c r="K6" s="266" t="s">
-        <v>1657</v>
-      </c>
-      <c r="L6" s="266" t="s">
-        <v>1659</v>
+        <v>1661</v>
+      </c>
+      <c r="J6" s="263" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K6" s="265" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L6" s="265" t="s">
+        <v>1655</v>
       </c>
       <c r="M6" s="154"/>
       <c r="N6" s="154" t="s">
-        <v>1660</v>
-      </c>
-      <c r="O6" s="251"/>
+        <v>1656</v>
+      </c>
+      <c r="O6" s="249"/>
       <c r="P6" s="154" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="Q6" s="154" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="R6" s="155"/>
     </row>
@@ -8052,26 +8059,26 @@
         <v>15</v>
       </c>
       <c r="B7" s="307"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="282"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="281"/>
       <c r="E7" s="161"/>
       <c r="F7" s="161"/>
       <c r="G7" s="161" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H7" s="258" t="s">
-        <v>1669</v>
-      </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="265"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
+        <v>1662</v>
+      </c>
+      <c r="H7" s="257" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I7" s="258"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="264"/>
+      <c r="L7" s="264"/>
       <c r="M7" s="207"/>
       <c r="N7" s="161" t="s">
-        <v>1622</v>
-      </c>
-      <c r="O7" s="250" t="s">
-        <v>1661</v>
+        <v>1680</v>
+      </c>
+      <c r="O7" s="248" t="s">
+        <v>1657</v>
       </c>
       <c r="P7" s="161"/>
       <c r="Q7" s="161"/>
@@ -8081,40 +8088,40 @@
       <c r="A8" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="270"/>
+      <c r="B8" s="269"/>
       <c r="C8" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D8" s="263"/>
+        <v>1085</v>
+      </c>
+      <c r="D8" s="262"/>
       <c r="E8" s="158" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F8" s="158"/>
       <c r="G8" s="158" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H8" s="260" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I8" s="261"/>
+        <v>1666</v>
+      </c>
+      <c r="H8" s="259" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I8" s="260"/>
       <c r="J8" s="246" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="K8" s="169" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L8" s="245" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="M8" s="206"/>
       <c r="N8" s="158" t="s">
-        <v>1622</v>
-      </c>
-      <c r="O8" s="253"/>
+        <v>1679</v>
+      </c>
+      <c r="O8" s="251"/>
       <c r="P8" s="158"/>
       <c r="Q8" s="158"/>
       <c r="R8" s="159" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
@@ -8138,10 +8145,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="305" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C10" s="130"/>
-      <c r="D10" s="295" t="s">
+      <c r="D10" s="282" t="s">
         <v>1004</v>
       </c>
       <c r="E10" s="128"/>
@@ -8165,7 +8172,7 @@
       </c>
       <c r="B11" s="306"/>
       <c r="C11" s="132"/>
-      <c r="D11" s="296"/>
+      <c r="D11" s="283"/>
       <c r="E11" s="133"/>
       <c r="F11" s="133"/>
       <c r="G11" s="133"/>
@@ -8201,43 +8208,43 @@
       <c r="A13" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>1003</v>
       </c>
       <c r="C13" s="152" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D13" s="262" t="s">
-        <v>1100</v>
+        <v>1093</v>
+      </c>
+      <c r="D13" s="261" t="s">
+        <v>1099</v>
       </c>
       <c r="E13" s="154" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F13" s="154"/>
       <c r="G13" s="154" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H13" s="154" t="s">
         <v>1096</v>
       </c>
-      <c r="H13" s="154" t="s">
+      <c r="I13" s="154" t="s">
         <v>1097</v>
       </c>
-      <c r="I13" s="154" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J13" s="290" t="s">
-        <v>1609</v>
-      </c>
-      <c r="K13" s="262" t="s">
+      <c r="J13" s="292" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K13" s="261" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L13" s="250" t="s">
         <v>1179</v>
-      </c>
-      <c r="L13" s="252" t="s">
-        <v>1180</v>
       </c>
       <c r="M13" s="203"/>
       <c r="N13" s="154" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O13" s="154" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="P13" s="154"/>
       <c r="Q13" s="154"/>
@@ -8247,28 +8254,28 @@
       <c r="A14" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="270"/>
+      <c r="B14" s="269"/>
       <c r="C14" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D14" s="263"/>
+        <v>1085</v>
+      </c>
+      <c r="D14" s="262"/>
       <c r="E14" s="158" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F14" s="158"/>
       <c r="G14" s="181" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H14" s="249" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I14" s="249"/>
-      <c r="J14" s="293"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="253"/>
+        <v>1094</v>
+      </c>
+      <c r="H14" s="256" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I14" s="256"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="262"/>
+      <c r="L14" s="251"/>
       <c r="M14" s="204"/>
       <c r="N14" s="158" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O14" s="158"/>
       <c r="P14" s="158"/>
@@ -8298,36 +8305,36 @@
       <c r="A16" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="269" t="s">
+      <c r="B16" s="268" t="s">
         <v>1007</v>
       </c>
       <c r="C16" s="152" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D16" s="262" t="s">
-        <v>1186</v>
+        <v>1093</v>
+      </c>
+      <c r="D16" s="261" t="s">
+        <v>1185</v>
       </c>
       <c r="E16" s="154" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F16" s="154"/>
       <c r="G16" s="154" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H16" s="154" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I16" s="154" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J16" s="290" t="s">
-        <v>1575</v>
-      </c>
-      <c r="K16" s="262" t="s">
-        <v>1181</v>
+        <v>1097</v>
+      </c>
+      <c r="J16" s="292" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K16" s="261" t="s">
+        <v>1180</v>
       </c>
       <c r="L16" s="180" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="M16" s="205"/>
       <c r="N16" s="154"/>
@@ -8340,28 +8347,28 @@
       <c r="A17" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="270"/>
+      <c r="B17" s="269"/>
       <c r="C17" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D17" s="263"/>
+        <v>1085</v>
+      </c>
+      <c r="D17" s="262"/>
       <c r="E17" s="158" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F17" s="158"/>
       <c r="G17" s="158" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H17" s="158" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I17" s="158" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J17" s="293"/>
-      <c r="K17" s="263"/>
+        <v>1097</v>
+      </c>
+      <c r="J17" s="295"/>
+      <c r="K17" s="262"/>
       <c r="L17" s="168" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M17" s="206"/>
       <c r="N17" s="158"/>
@@ -8390,36 +8397,36 @@
       <c r="A19" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="268" t="s">
         <v>1008</v>
       </c>
       <c r="C19" s="152" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D19" s="254" t="s">
-        <v>1187</v>
+        <v>1093</v>
+      </c>
+      <c r="D19" s="252" t="s">
+        <v>1186</v>
       </c>
       <c r="E19" s="154" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F19" s="154"/>
       <c r="G19" s="154" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H19" s="154" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I19" s="154" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J19" s="290" t="s">
-        <v>1576</v>
-      </c>
-      <c r="K19" s="254" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L19" s="252" t="s">
-        <v>1185</v>
+        <v>1097</v>
+      </c>
+      <c r="J19" s="292" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K19" s="252" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L19" s="250" t="s">
+        <v>1184</v>
       </c>
       <c r="M19" s="203"/>
       <c r="N19" s="154"/>
@@ -8432,27 +8439,27 @@
       <c r="A20" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="270"/>
+      <c r="B20" s="269"/>
       <c r="C20" s="156" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D20" s="255"/>
+        <v>1093</v>
+      </c>
+      <c r="D20" s="253"/>
       <c r="E20" s="158" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F20" s="158"/>
       <c r="G20" s="158" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H20" s="158" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I20" s="158" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J20" s="293"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="253"/>
+        <v>1097</v>
+      </c>
+      <c r="J20" s="295"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="251"/>
       <c r="M20" s="204"/>
       <c r="N20" s="158"/>
       <c r="O20" s="158"/>
@@ -8488,30 +8495,30 @@
         <v>1009</v>
       </c>
       <c r="C22" s="172" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D22" s="170" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E22" s="170" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F22" s="170"/>
       <c r="G22" s="170" t="s">
-        <v>1624</v>
-      </c>
-      <c r="H22" s="256" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I22" s="257"/>
+        <v>1621</v>
+      </c>
+      <c r="H22" s="254" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="255"/>
       <c r="J22" s="201" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="K22" s="201" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="L22" s="201" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="M22" s="201"/>
       <c r="N22" s="170"/>
@@ -8541,10 +8548,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="305" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C24" s="130"/>
-      <c r="D24" s="295" t="s">
+      <c r="D24" s="282" t="s">
         <v>1005</v>
       </c>
       <c r="E24" s="128"/>
@@ -8568,7 +8575,7 @@
       </c>
       <c r="B25" s="306"/>
       <c r="C25" s="132"/>
-      <c r="D25" s="296"/>
+      <c r="D25" s="283"/>
       <c r="E25" s="133"/>
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
@@ -8605,28 +8612,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="200" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C27" s="172" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E27" s="138"/>
       <c r="F27" s="138"/>
       <c r="G27" s="170" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H27" s="298" t="s">
         <v>1102</v>
       </c>
-      <c r="H27" s="300" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I27" s="300"/>
-      <c r="J27" s="301" t="s">
-        <v>1578</v>
+      <c r="I27" s="298"/>
+      <c r="J27" s="299" t="s">
+        <v>1576</v>
       </c>
       <c r="K27" s="138" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L27" s="173" t="s">
         <v>1058</v>
@@ -8642,27 +8649,27 @@
       <c r="A28" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="269" t="s">
+      <c r="B28" s="268" t="s">
         <v>1010</v>
       </c>
-      <c r="C28" s="271" t="s">
+      <c r="C28" s="270" t="s">
         <v>1071</v>
       </c>
       <c r="D28" s="154"/>
       <c r="E28" s="154" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F28" s="154"/>
       <c r="G28" s="154" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H28" s="285" t="s">
         <v>1104</v>
       </c>
-      <c r="H28" s="284" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I28" s="285"/>
-      <c r="J28" s="302"/>
+      <c r="I28" s="286"/>
+      <c r="J28" s="300"/>
       <c r="K28" s="215" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L28" s="153" t="s">
         <v>1058</v>
@@ -8678,28 +8685,28 @@
       <c r="A29" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="270"/>
-      <c r="C29" s="283"/>
+      <c r="B29" s="269"/>
+      <c r="C29" s="284"/>
       <c r="D29" s="158"/>
       <c r="E29" s="158"/>
       <c r="F29" s="158"/>
       <c r="G29" s="158" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H29" s="158" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I29" s="216" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J29" s="301" t="s">
-        <v>1579</v>
+        <v>1109</v>
+      </c>
+      <c r="J29" s="299" t="s">
+        <v>1577</v>
       </c>
       <c r="K29" s="218" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L29" s="157" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="M29" s="209"/>
       <c r="N29" s="158"/>
@@ -8712,34 +8719,34 @@
       <c r="A30" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="269" t="s">
+      <c r="B30" s="268" t="s">
         <v>1012</v>
       </c>
       <c r="C30" s="152" t="s">
         <v>1071</v>
       </c>
-      <c r="D30" s="252" t="s">
-        <v>1113</v>
+      <c r="D30" s="250" t="s">
+        <v>1112</v>
       </c>
       <c r="E30" s="154" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F30" s="154"/>
       <c r="G30" s="154" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H30" s="154" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I30" s="217" t="s">
         <v>1109</v>
       </c>
-      <c r="I30" s="217" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J30" s="303"/>
+      <c r="J30" s="301"/>
       <c r="K30" s="215" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L30" s="153" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="M30" s="208"/>
       <c r="N30" s="154"/>
@@ -8752,30 +8759,30 @@
       <c r="A31" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="270"/>
+      <c r="B31" s="269"/>
       <c r="C31" s="156" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D31" s="253"/>
+        <v>1107</v>
+      </c>
+      <c r="D31" s="251"/>
       <c r="E31" s="158" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F31" s="158"/>
       <c r="G31" s="158" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H31" s="158" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I31" s="216" t="s">
         <v>1111</v>
       </c>
-      <c r="H31" s="158" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I31" s="216" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J31" s="302"/>
+      <c r="J31" s="300"/>
       <c r="K31" s="218" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L31" s="157" t="s">
         <v>1196</v>
-      </c>
-      <c r="L31" s="157" t="s">
-        <v>1197</v>
       </c>
       <c r="M31" s="209"/>
       <c r="N31" s="158"/>
@@ -8788,36 +8795,36 @@
       <c r="A32" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="269" t="s">
+      <c r="B32" s="268" t="s">
         <v>1013</v>
       </c>
       <c r="C32" s="152" t="s">
         <v>1071</v>
       </c>
-      <c r="D32" s="252" t="s">
-        <v>1114</v>
+      <c r="D32" s="250" t="s">
+        <v>1113</v>
       </c>
       <c r="E32" s="154" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F32" s="154"/>
       <c r="G32" s="154" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H32" s="154" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I32" s="154" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J32" s="220" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="K32" s="154" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L32" s="153" t="s">
         <v>1198</v>
-      </c>
-      <c r="L32" s="153" t="s">
-        <v>1199</v>
       </c>
       <c r="M32" s="208"/>
       <c r="N32" s="154"/>
@@ -8830,30 +8837,30 @@
       <c r="A33" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="270"/>
+      <c r="B33" s="269"/>
       <c r="C33" s="156" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D33" s="253"/>
+        <v>1107</v>
+      </c>
+      <c r="D33" s="251"/>
       <c r="E33" s="158" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F33" s="158"/>
       <c r="G33" s="158" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H33" s="287" t="s">
         <v>1115</v>
       </c>
-      <c r="H33" s="286" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I33" s="287"/>
+      <c r="I33" s="288"/>
       <c r="J33" s="219" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="K33" s="158" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="L33" s="158" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="M33" s="158"/>
       <c r="N33" s="158"/>
@@ -8882,11 +8889,11 @@
       <c r="A35" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="267" t="s">
-        <v>1175</v>
+      <c r="B35" s="266" t="s">
+        <v>1174</v>
       </c>
       <c r="C35" s="174"/>
-      <c r="D35" s="280" t="s">
+      <c r="D35" s="279" t="s">
         <v>1006</v>
       </c>
       <c r="E35" s="163"/>
@@ -8908,9 +8915,9 @@
       <c r="A36" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="268"/>
+      <c r="B36" s="267"/>
       <c r="C36" s="176"/>
-      <c r="D36" s="281"/>
+      <c r="D36" s="280"/>
       <c r="E36" s="165"/>
       <c r="F36" s="165"/>
       <c r="G36" s="165"/>
@@ -8986,34 +8993,34 @@
       <c r="A40" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="269" t="s">
+      <c r="B40" s="268" t="s">
         <v>1014</v>
       </c>
       <c r="C40" s="152" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D40" s="262" t="s">
-        <v>1122</v>
+        <v>1116</v>
+      </c>
+      <c r="D40" s="261" t="s">
+        <v>1121</v>
       </c>
       <c r="E40" s="154" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F40" s="154"/>
       <c r="G40" s="154" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H40" s="248" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I40" s="248"/>
-      <c r="J40" s="290" t="s">
-        <v>1582</v>
-      </c>
-      <c r="K40" s="248" t="s">
-        <v>1201</v>
+        <v>1118</v>
+      </c>
+      <c r="H40" s="297" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I40" s="297"/>
+      <c r="J40" s="292" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K40" s="297" t="s">
+        <v>1200</v>
       </c>
       <c r="L40" s="182" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M40" s="208"/>
       <c r="N40" s="154"/>
@@ -9026,28 +9033,28 @@
       <c r="A41" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="270"/>
+      <c r="B41" s="269"/>
       <c r="C41" s="156" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D41" s="263"/>
+        <v>1117</v>
+      </c>
+      <c r="D41" s="262"/>
       <c r="E41" s="158" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F41" s="158"/>
       <c r="G41" s="158" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H41" s="158" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I41" s="158" t="s">
         <v>1120</v>
       </c>
-      <c r="H41" s="158" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I41" s="158" t="s">
-        <v>1121</v>
-      </c>
-      <c r="J41" s="293"/>
-      <c r="K41" s="249"/>
+      <c r="J41" s="295"/>
+      <c r="K41" s="256"/>
       <c r="L41" s="183" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="M41" s="209"/>
       <c r="N41" s="158"/>
@@ -9076,34 +9083,34 @@
       <c r="A43" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="269" t="s">
+      <c r="B43" s="268" t="s">
         <v>1015</v>
       </c>
       <c r="C43" s="152" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D43" s="262" t="s">
-        <v>1123</v>
+        <v>1116</v>
+      </c>
+      <c r="D43" s="261" t="s">
+        <v>1122</v>
       </c>
       <c r="E43" s="154"/>
       <c r="F43" s="154"/>
       <c r="G43" s="154" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H43" s="154" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I43" s="154" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J43" s="252" t="s">
-        <v>1583</v>
-      </c>
-      <c r="K43" s="248" t="s">
-        <v>1204</v>
+        <v>1159</v>
+      </c>
+      <c r="J43" s="250" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K43" s="297" t="s">
+        <v>1203</v>
       </c>
       <c r="L43" s="182" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="M43" s="208"/>
       <c r="N43" s="154"/>
@@ -9116,28 +9123,28 @@
       <c r="A44" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="270"/>
+      <c r="B44" s="269"/>
       <c r="C44" s="156" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D44" s="263"/>
+        <v>1117</v>
+      </c>
+      <c r="D44" s="262"/>
       <c r="E44" s="158" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F44" s="158"/>
       <c r="G44" s="158" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H44" s="158" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I44" s="158" t="s">
         <v>1124</v>
       </c>
-      <c r="I44" s="158" t="s">
-        <v>1125</v>
-      </c>
-      <c r="J44" s="253"/>
-      <c r="K44" s="249"/>
+      <c r="J44" s="251"/>
+      <c r="K44" s="256"/>
       <c r="L44" s="183" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="M44" s="209"/>
       <c r="N44" s="158"/>
@@ -9166,33 +9173,33 @@
       <c r="A46" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="276" t="s">
+      <c r="B46" s="275" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C46" s="135" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D46" s="297" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E46" s="154" t="s">
         <v>1141</v>
-      </c>
-      <c r="C46" s="135" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D46" s="248" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E46" s="154" t="s">
-        <v>1142</v>
       </c>
       <c r="F46" s="154"/>
       <c r="G46" s="154" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H46" s="154" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I46" s="154" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J46" s="252" t="s">
-        <v>1584</v>
-      </c>
-      <c r="K46" s="252" t="s">
-        <v>1205</v>
+        <v>1130</v>
+      </c>
+      <c r="J46" s="250" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K46" s="250" t="s">
+        <v>1204</v>
       </c>
       <c r="L46" s="154"/>
       <c r="M46" s="154"/>
@@ -9206,26 +9213,26 @@
       <c r="A47" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="277"/>
+      <c r="B47" s="276"/>
       <c r="C47" s="136" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D47" s="249"/>
+        <v>1117</v>
+      </c>
+      <c r="D47" s="256"/>
       <c r="E47" s="158" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F47" s="158"/>
       <c r="G47" s="158" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H47" s="158" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I47" s="158" t="s">
-        <v>1132</v>
-      </c>
-      <c r="J47" s="253"/>
-      <c r="K47" s="253"/>
+        <v>1131</v>
+      </c>
+      <c r="J47" s="251"/>
+      <c r="K47" s="251"/>
       <c r="L47" s="158"/>
       <c r="M47" s="158"/>
       <c r="N47" s="158"/>
@@ -9254,16 +9261,16 @@
       <c r="A49" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="278" t="s">
-        <v>1175</v>
+      <c r="B49" s="277" t="s">
+        <v>1174</v>
       </c>
       <c r="C49" s="130"/>
-      <c r="D49" s="295" t="s">
+      <c r="D49" s="282" t="s">
         <v>1079</v>
       </c>
-      <c r="E49" s="297"/>
-      <c r="F49" s="297"/>
-      <c r="G49" s="297"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
       <c r="H49" s="128"/>
       <c r="I49" s="128"/>
       <c r="J49" s="128"/>
@@ -9280,12 +9287,12 @@
       <c r="A50" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="279"/>
+      <c r="B50" s="278"/>
       <c r="C50" s="132"/>
-      <c r="D50" s="296"/>
-      <c r="E50" s="298"/>
-      <c r="F50" s="298"/>
-      <c r="G50" s="298"/>
+      <c r="D50" s="283"/>
+      <c r="E50" s="304"/>
+      <c r="F50" s="304"/>
+      <c r="G50" s="304"/>
       <c r="H50" s="133"/>
       <c r="I50" s="133"/>
       <c r="J50" s="133"/>
@@ -9318,36 +9325,36 @@
       <c r="A52" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="269" t="s">
+      <c r="B52" s="268" t="s">
         <v>1016</v>
       </c>
       <c r="C52" s="152" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D52" s="262" t="s">
-        <v>1630</v>
+        <v>1133</v>
+      </c>
+      <c r="D52" s="261" t="s">
+        <v>1627</v>
       </c>
       <c r="E52" s="154" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F52" s="154"/>
       <c r="G52" s="154" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H52" s="154" t="s">
         <v>1135</v>
       </c>
-      <c r="H52" s="154" t="s">
-        <v>1136</v>
-      </c>
       <c r="I52" s="154" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J52" s="221" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K52" s="248" t="s">
-        <v>1212</v>
+        <v>1583</v>
+      </c>
+      <c r="K52" s="297" t="s">
+        <v>1211</v>
       </c>
       <c r="L52" s="182" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="M52" s="208"/>
       <c r="N52" s="154"/>
@@ -9363,28 +9370,28 @@
       <c r="A53" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="270"/>
+      <c r="B53" s="269"/>
       <c r="C53" s="156" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D53" s="263"/>
+        <v>1132</v>
+      </c>
+      <c r="D53" s="262"/>
       <c r="E53" s="158"/>
       <c r="F53" s="158"/>
       <c r="G53" s="158" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H53" s="158" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I53" s="158" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J53" s="252" t="s">
-        <v>1631</v>
-      </c>
-      <c r="K53" s="249"/>
+        <v>1205</v>
+      </c>
+      <c r="J53" s="250" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K53" s="256"/>
       <c r="L53" s="183" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M53" s="209"/>
       <c r="N53" s="158"/>
@@ -9397,34 +9404,34 @@
       <c r="A54" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="273" t="s">
+      <c r="B54" s="272" t="s">
         <v>1077</v>
       </c>
-      <c r="C54" s="271" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D54" s="262" t="s">
-        <v>1632</v>
+      <c r="C54" s="270" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D54" s="261" t="s">
+        <v>1629</v>
       </c>
       <c r="E54" s="154" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F54" s="154"/>
       <c r="G54" s="154" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H54" s="154" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I54" s="154" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J54" s="299"/>
-      <c r="K54" s="248" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J54" s="289"/>
+      <c r="K54" s="297" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L54" s="153" t="s">
         <v>1208</v>
-      </c>
-      <c r="L54" s="153" t="s">
-        <v>1209</v>
       </c>
       <c r="M54" s="208"/>
       <c r="N54" s="154"/>
@@ -9437,22 +9444,22 @@
       <c r="A55" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="274"/>
-      <c r="C55" s="272"/>
-      <c r="D55" s="282"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="271"/>
+      <c r="D55" s="281"/>
       <c r="E55" s="161"/>
       <c r="F55" s="161"/>
       <c r="G55" s="161" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H55" s="161" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I55" s="161" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J55" s="251"/>
-      <c r="K55" s="304"/>
+        <v>1205</v>
+      </c>
+      <c r="J55" s="249"/>
+      <c r="K55" s="302"/>
       <c r="L55" s="160"/>
       <c r="M55" s="210"/>
       <c r="N55" s="161"/>
@@ -9465,29 +9472,29 @@
       <c r="A56" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="275"/>
+      <c r="B56" s="274"/>
       <c r="C56" s="156" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D56" s="158"/>
       <c r="E56" s="158" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F56" s="158"/>
       <c r="G56" s="158" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H56" s="158" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I56" s="158" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J56" s="248" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K56" s="158" t="s">
         <v>1206</v>
-      </c>
-      <c r="J56" s="250" t="s">
-        <v>1587</v>
-      </c>
-      <c r="K56" s="158" t="s">
-        <v>1207</v>
       </c>
       <c r="L56" s="158"/>
       <c r="M56" s="158"/>
@@ -9501,31 +9508,31 @@
       <c r="A57" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="269" t="s">
+      <c r="B57" s="268" t="s">
         <v>1078</v>
       </c>
       <c r="C57" s="152" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D57" s="254" t="s">
-        <v>1211</v>
+        <v>1136</v>
+      </c>
+      <c r="D57" s="252" t="s">
+        <v>1210</v>
       </c>
       <c r="E57" s="154" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F57" s="154"/>
       <c r="G57" s="154" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H57" s="154" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I57" s="154" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J57" s="251"/>
+        <v>1097</v>
+      </c>
+      <c r="J57" s="249"/>
       <c r="K57" s="154" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="L57" s="154" t="s">
         <v>1036</v>
@@ -9541,21 +9548,21 @@
       <c r="A58" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="270"/>
+      <c r="B58" s="269"/>
       <c r="C58" s="156" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D58" s="255"/>
+        <v>1137</v>
+      </c>
+      <c r="D58" s="253"/>
       <c r="E58" s="158"/>
       <c r="F58" s="158"/>
       <c r="G58" s="158" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H58" s="158" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I58" s="158" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J58" s="158"/>
       <c r="K58" s="158"/>
@@ -9639,7 +9646,6 @@
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="E49:G50"/>
-    <mergeCell ref="D52:D53"/>
     <mergeCell ref="J53:J55"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="N3:N4"/>
@@ -9648,6 +9654,8 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="D46:D47"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="H28:I28"/>
@@ -9671,7 +9679,7 @@
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D49:D50"/>
-    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="D52:D53"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L19:L20"/>
@@ -9681,7 +9689,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H40:I40"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="J6:J7"/>
@@ -9722,7 +9729,7 @@
     <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{C62E5C22-3ED3-4CE5-A9B2-51FC4CFEDB5C}">
+          <x14:cfRule type="containsText" priority="89" operator="containsText" id="{C62E5C22-3ED3-4CE5-A9B2-51FC4CFEDB5C}">
             <xm:f>NOT(ISERROR(SEARCH("CI1",A1)))</xm:f>
             <xm:f>"CI1"</xm:f>
             <x14:dxf>
@@ -9843,10 +9850,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1"/>
@@ -9904,87 +9911,87 @@
     <row r="2" spans="1:25" s="214" customFormat="1" ht="135" customHeight="1" thickBot="1">
       <c r="A2" s="228"/>
       <c r="B2" s="223" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C2" s="225" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D2" s="225" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F2" s="213" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G2" s="213" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H2" s="213" t="s">
         <v>1551</v>
       </c>
-      <c r="G2" s="213" t="s">
+      <c r="I2" s="213" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J2" s="213" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K2" s="213" t="s">
+        <v>1555</v>
+      </c>
+      <c r="L2" s="213" t="s">
+        <v>1563</v>
+      </c>
+      <c r="M2" s="213" t="s">
+        <v>1564</v>
+      </c>
+      <c r="N2" s="213" t="s">
+        <v>1565</v>
+      </c>
+      <c r="O2" s="213" t="s">
+        <v>1558</v>
+      </c>
+      <c r="P2" s="213" t="s">
+        <v>1559</v>
+      </c>
+      <c r="Q2" s="213" t="s">
+        <v>1560</v>
+      </c>
+      <c r="R2" s="213" t="s">
+        <v>1554</v>
+      </c>
+      <c r="S2" s="213" t="s">
+        <v>1561</v>
+      </c>
+      <c r="T2" s="213" t="s">
+        <v>1562</v>
+      </c>
+      <c r="U2" s="213" t="s">
+        <v>1566</v>
+      </c>
+      <c r="V2" s="213" t="s">
+        <v>1567</v>
+      </c>
+      <c r="W2" s="213" t="s">
+        <v>1568</v>
+      </c>
+      <c r="X2" s="213" t="s">
         <v>1552</v>
       </c>
-      <c r="H2" s="213" t="s">
+      <c r="Y2" s="213" t="s">
         <v>1553</v>
-      </c>
-      <c r="I2" s="213" t="s">
-        <v>1558</v>
-      </c>
-      <c r="J2" s="213" t="s">
-        <v>1559</v>
-      </c>
-      <c r="K2" s="213" t="s">
-        <v>1557</v>
-      </c>
-      <c r="L2" s="213" t="s">
-        <v>1565</v>
-      </c>
-      <c r="M2" s="213" t="s">
-        <v>1566</v>
-      </c>
-      <c r="N2" s="213" t="s">
-        <v>1567</v>
-      </c>
-      <c r="O2" s="213" t="s">
-        <v>1560</v>
-      </c>
-      <c r="P2" s="213" t="s">
-        <v>1561</v>
-      </c>
-      <c r="Q2" s="213" t="s">
-        <v>1562</v>
-      </c>
-      <c r="R2" s="213" t="s">
-        <v>1556</v>
-      </c>
-      <c r="S2" s="213" t="s">
-        <v>1563</v>
-      </c>
-      <c r="T2" s="213" t="s">
-        <v>1564</v>
-      </c>
-      <c r="U2" s="213" t="s">
-        <v>1568</v>
-      </c>
-      <c r="V2" s="213" t="s">
-        <v>1569</v>
-      </c>
-      <c r="W2" s="213" t="s">
-        <v>1570</v>
-      </c>
-      <c r="X2" s="213" t="s">
-        <v>1554</v>
-      </c>
-      <c r="Y2" s="213" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1">
       <c r="A3" s="319" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B3" s="314" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C3" s="231" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D3" s="231" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E3" s="231"/>
       <c r="F3" s="232" t="s">
@@ -10018,10 +10025,10 @@
       <c r="A4" s="320"/>
       <c r="B4" s="315"/>
       <c r="C4" s="229" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D4" s="229" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E4" s="229"/>
       <c r="F4" s="230" t="s">
@@ -10055,10 +10062,10 @@
       <c r="A5" s="321"/>
       <c r="B5" s="316"/>
       <c r="C5" s="235" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D5" s="235" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E5" s="235"/>
       <c r="F5" s="236" t="s">
@@ -10091,19 +10098,19 @@
     <row r="6" spans="1:25" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:25" ht="24.95" customHeight="1">
       <c r="A7" s="319" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B7" s="314" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C7" s="322" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D7" s="311" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E7" s="231" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F7" s="232" t="s">
         <v>83</v>
@@ -10146,7 +10153,7 @@
       <c r="C8" s="323"/>
       <c r="D8" s="312"/>
       <c r="E8" s="229" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F8" s="230" t="s">
         <v>83</v>
@@ -10187,7 +10194,7 @@
       <c r="C9" s="323"/>
       <c r="D9" s="312"/>
       <c r="E9" s="229" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F9" s="230" t="s">
         <v>83</v>
@@ -10224,7 +10231,7 @@
       <c r="C10" s="324"/>
       <c r="D10" s="313"/>
       <c r="E10" s="235" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="F10" s="236" t="s">
         <v>83</v>
@@ -10258,19 +10265,19 @@
     <row r="11" spans="1:25" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="12" spans="1:25" ht="24.95" customHeight="1">
       <c r="A12" s="319" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B12" s="314" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C12" s="308" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="D12" s="308" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E12" s="231" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F12" s="232" t="s">
         <v>83</v>
@@ -10317,7 +10324,7 @@
       <c r="C13" s="309"/>
       <c r="D13" s="309"/>
       <c r="E13" s="229" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F13" s="230" t="s">
         <v>83</v>
@@ -10358,7 +10365,7 @@
       <c r="C14" s="309"/>
       <c r="D14" s="309"/>
       <c r="E14" s="229" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="F14" s="230" t="s">
         <v>83</v>
@@ -10399,7 +10406,7 @@
       <c r="C15" s="310"/>
       <c r="D15" s="310"/>
       <c r="E15" s="235" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F15" s="236" t="s">
         <v>83</v>
@@ -10437,19 +10444,19 @@
     </row>
     <row r="17" spans="1:25" ht="24.95" customHeight="1">
       <c r="A17" s="319" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B17" s="314" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C17" s="308" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D17" s="308" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E17" s="231" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F17" s="232" t="s">
         <v>83</v>
@@ -10494,7 +10501,7 @@
       <c r="C18" s="309"/>
       <c r="D18" s="309"/>
       <c r="E18" s="229" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F18" s="230"/>
       <c r="G18" s="230"/>
@@ -10531,7 +10538,7 @@
       <c r="C19" s="309"/>
       <c r="D19" s="309"/>
       <c r="E19" s="229" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F19" s="230" t="s">
         <v>83</v>
@@ -10570,7 +10577,7 @@
       <c r="C20" s="310"/>
       <c r="D20" s="310"/>
       <c r="E20" s="235" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F20" s="236"/>
       <c r="G20" s="236"/>
@@ -10604,19 +10611,19 @@
     </row>
     <row r="22" spans="1:25" ht="24.95" customHeight="1">
       <c r="A22" s="319" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B22" s="314" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C22" s="308" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D22" s="308" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E22" s="231" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F22" s="232" t="s">
         <v>83</v>
@@ -10663,7 +10670,7 @@
       <c r="C23" s="309"/>
       <c r="D23" s="309"/>
       <c r="E23" s="229" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F23" s="230"/>
       <c r="G23" s="230"/>
@@ -10698,7 +10705,7 @@
       <c r="C24" s="309"/>
       <c r="D24" s="309"/>
       <c r="E24" s="229" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="F24" s="230" t="s">
         <v>83</v>
@@ -10735,7 +10742,7 @@
       <c r="C25" s="310"/>
       <c r="D25" s="310"/>
       <c r="E25" s="235" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F25" s="236"/>
       <c r="G25" s="236"/>
@@ -10771,19 +10778,19 @@
     </row>
     <row r="27" spans="1:25" ht="24.95" customHeight="1">
       <c r="A27" s="319" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B27" s="314" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C27" s="308" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D27" s="308" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E27" s="231" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F27" s="232" t="s">
         <v>83</v>
@@ -10836,7 +10843,7 @@
       <c r="C28" s="309"/>
       <c r="D28" s="309"/>
       <c r="E28" s="229" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F28" s="230"/>
       <c r="G28" s="230"/>
@@ -10871,7 +10878,7 @@
       <c r="C29" s="309"/>
       <c r="D29" s="309"/>
       <c r="E29" s="229" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="F29" s="230" t="s">
         <v>83</v>
@@ -10916,7 +10923,7 @@
       <c r="C30" s="310"/>
       <c r="D30" s="310"/>
       <c r="E30" s="235" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F30" s="236"/>
       <c r="G30" s="236"/>
@@ -10957,16 +10964,16 @@
     </row>
     <row r="32" spans="1:25" ht="24.95" customHeight="1">
       <c r="A32" s="319" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B32" s="314" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C32" s="308" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D32" s="308" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E32" s="311"/>
       <c r="F32" s="311"/>
@@ -11054,10 +11061,10 @@
     </row>
     <row r="36" spans="1:25" ht="24.95" customHeight="1">
       <c r="A36" s="318" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B36" s="325" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="24.95" customHeight="1">
@@ -11070,18 +11077,18 @@
     </row>
     <row r="40" spans="1:25" ht="24.95" customHeight="1">
       <c r="A40" s="212" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B40" s="223" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="24.95" customHeight="1">
       <c r="A42" s="212" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B42" s="223" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="24.95" customHeight="1">
@@ -11089,10 +11096,10 @@
     </row>
     <row r="44" spans="1:25" ht="24.95" customHeight="1">
       <c r="A44" s="318" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B44" s="325" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="24.95" customHeight="1">
@@ -11104,10 +11111,10 @@
     </row>
     <row r="47" spans="1:25" ht="24.95" customHeight="1">
       <c r="A47" s="318" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B47" s="325" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="24.95" customHeight="1">
@@ -11123,10 +11130,10 @@
     </row>
     <row r="51" spans="1:2" ht="24.95" customHeight="1">
       <c r="A51" s="318" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B51" s="325" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24.95" customHeight="1">
@@ -11142,7 +11149,7 @@
     </row>
     <row r="55" spans="1:2" ht="24.95" customHeight="1">
       <c r="A55" s="212" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B55" s="224"/>
     </row>
@@ -11151,10 +11158,10 @@
     </row>
     <row r="57" spans="1:2" ht="24.95" customHeight="1">
       <c r="A57" s="318" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B57" s="325" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.95" customHeight="1">
@@ -11167,10 +11174,10 @@
     </row>
     <row r="61" spans="1:2" ht="24.95" customHeight="1">
       <c r="A61" s="318" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B61" s="325" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24.95" customHeight="1">
@@ -11293,12 +11300,12 @@
       </c>
       <c r="H1" s="51"/>
       <c r="M1" s="25" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="74" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B2" s="75"/>
       <c r="D2" s="85" t="s">
@@ -11308,16 +11315,16 @@
         <v>1064</v>
       </c>
       <c r="G2" s="239" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="H2" s="75"/>
       <c r="M2" s="25" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="81" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>71</v>
@@ -11327,27 +11334,27 @@
         <v>72</v>
       </c>
       <c r="G3" s="239" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="74" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D4" s="58"/>
       <c r="G4" s="239" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="81" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>85</v>
@@ -11360,24 +11367,24 @@
         <v>226</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" s="74" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D6" s="32"/>
       <c r="G6" s="239" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>102</v>
@@ -11387,15 +11394,15 @@
         <v>72</v>
       </c>
       <c r="G7" s="240" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="13" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>112</v>
@@ -11405,15 +11412,15 @@
         <v>113</v>
       </c>
       <c r="G8" s="241" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="13" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>135</v>
@@ -11431,7 +11438,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="13" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>145</v>
@@ -11441,12 +11448,12 @@
         <v>113</v>
       </c>
       <c r="G10" s="242" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
       <c r="A11" s="13" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>152</v>
@@ -11456,12 +11463,12 @@
         <v>136</v>
       </c>
       <c r="G11" s="242" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="13" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>160</v>
@@ -11474,12 +11481,12 @@
         <v>72</v>
       </c>
       <c r="G12" s="242" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>166</v>
@@ -11497,7 +11504,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="13" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>176</v>
@@ -11510,12 +11517,12 @@
         <v>72</v>
       </c>
       <c r="G14" s="239" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>186</v>
@@ -11525,12 +11532,12 @@
         <v>113</v>
       </c>
       <c r="G15" s="239" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
       <c r="A16" s="81" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>212</v>
@@ -11540,7 +11547,7 @@
         <v>113</v>
       </c>
       <c r="G16" s="239" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75">
@@ -11554,16 +11561,16 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="74" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D18" s="32"/>
       <c r="G18" s="239" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="79" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>230</v>
@@ -11573,20 +11580,20 @@
         <v>113</v>
       </c>
       <c r="G19" s="239" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="77" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="G20" s="239" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>248</v>
@@ -11601,7 +11608,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="13" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>265</v>
@@ -11611,12 +11618,12 @@
         <v>136</v>
       </c>
       <c r="G22" s="242" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="13" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>277</v>
@@ -11626,12 +11633,12 @@
         <v>72</v>
       </c>
       <c r="G23" s="242" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B24" s="76" t="s">
         <v>291</v>
@@ -11641,12 +11648,12 @@
         <v>113</v>
       </c>
       <c r="G24" s="242" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="13" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B25" s="76" t="s">
         <v>303</v>
@@ -11661,7 +11668,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="13" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B26" s="76" t="s">
         <v>315</v>
@@ -11671,12 +11678,12 @@
         <v>113</v>
       </c>
       <c r="G26" s="243" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
       <c r="A27" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B27" s="76" t="s">
         <v>330</v>
@@ -11686,12 +11693,12 @@
         <v>136</v>
       </c>
       <c r="G27" s="239" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1">
       <c r="A28" s="13" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B28" s="76" t="s">
         <v>351</v>
@@ -11703,7 +11710,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="13" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B29" s="76" t="s">
         <v>364</v>
@@ -11747,7 +11754,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1">
       <c r="A33" s="50" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B33" s="78" t="s">
         <v>401</v>
@@ -11759,7 +11766,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1">
       <c r="A34" s="13" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B34" s="76" t="s">
         <v>439</v>
@@ -11771,7 +11778,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1">
       <c r="A35" s="13" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B35" s="76" t="s">
         <v>455</v>
@@ -11783,7 +11790,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1">
       <c r="A36" s="13" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>467</v>
@@ -11795,7 +11802,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="13" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B37" s="76" t="s">
         <v>488</v>
@@ -11807,7 +11814,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="13" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B38" s="76" t="s">
         <v>510</v>
@@ -11819,7 +11826,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="13" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>525</v>
@@ -11831,7 +11838,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1">
       <c r="A40" s="13" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B40" s="76" t="s">
         <v>551</v>
@@ -11846,7 +11853,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1">
       <c r="A41" s="13" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B41" s="76" t="s">
         <v>568</v>
@@ -11858,7 +11865,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1">
       <c r="A42" s="81" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B42" s="80" t="s">
         <v>579</v>
@@ -11870,7 +11877,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1">
       <c r="A43" s="82" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B43" s="83"/>
       <c r="C43" s="84"/>
@@ -11878,7 +11885,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="81" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B44" s="80" t="s">
         <v>610</v>
@@ -11990,13 +11997,13 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
       <c r="A53" s="74" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
       <c r="A54" s="81" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B54" s="80" t="s">
         <v>717</v>
@@ -12011,7 +12018,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
       <c r="A55" s="74" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -12019,7 +12026,7 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1">
       <c r="A56" s="81" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B56" s="80" t="s">
         <v>731</v>
@@ -12034,7 +12041,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
       <c r="A57" s="74" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -12042,7 +12049,7 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1">
       <c r="A58" s="13" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B58" s="76" t="s">
         <v>753</v>
@@ -12057,7 +12064,7 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1">
       <c r="A59" s="81" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B59" s="80" t="s">
         <v>706</v>
@@ -12080,13 +12087,13 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="74" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1">
       <c r="A62" s="13" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B62" s="76" t="s">
         <v>774</v>
@@ -12101,7 +12108,7 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1">
       <c r="A63" s="13" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B63" s="76" t="s">
         <v>785</v>
@@ -12116,7 +12123,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1">
       <c r="A64" s="13" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B64" s="76" t="s">
         <v>793</v>
@@ -12131,7 +12138,7 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1">
       <c r="A65" s="81" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B65" s="80" t="s">
         <v>812</v>
@@ -12146,13 +12153,13 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1">
       <c r="A66" s="74" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1">
       <c r="A67" s="81" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B67" s="80" t="s">
         <v>835</v>
@@ -12167,13 +12174,13 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1">
       <c r="A68" s="74" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D68" s="32"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1">
       <c r="A69" s="81" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B69" s="103" t="s">
         <v>845</v>
@@ -12285,7 +12292,7 @@
     </row>
     <row r="78" spans="1:5" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="104" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B78" s="104"/>
       <c r="C78" s="55"/>
@@ -12293,7 +12300,7 @@
     </row>
     <row r="79" spans="1:5" ht="13.5" customHeight="1" thickBot="1">
       <c r="A79" s="13" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B79" s="76" t="s">
         <v>920</v>
@@ -12308,7 +12315,7 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1">
       <c r="A80" s="13" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B80" s="105" t="s">
         <v>929</v>
@@ -12323,7 +12330,7 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1" thickBot="1">
       <c r="A81" s="81" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B81" s="80" t="s">
         <v>944</v>
@@ -12338,13 +12345,13 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1" thickBot="1">
       <c r="A82" s="74" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B82" s="74"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" thickBot="1">
       <c r="A83" s="13" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B83" s="76" t="s">
         <v>950</v>
@@ -12359,7 +12366,7 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1">
       <c r="A84" s="81" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B84" s="80" t="s">
         <v>958</v>
@@ -12386,8 +12393,8 @@
   </sheetPr>
   <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -12443,7 +12450,7 @@
         <v>999</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E7" s="333" t="s">
         <v>71</v>
@@ -12458,7 +12465,7 @@
     </row>
     <row r="8" spans="3:8" s="14" customFormat="1">
       <c r="D8" s="15" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E8" s="340" t="s">
         <v>76</v>
@@ -12469,7 +12476,7 @@
     </row>
     <row r="9" spans="3:8" s="16" customFormat="1">
       <c r="D9" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19" t="s">
@@ -12480,7 +12487,7 @@
     </row>
     <row r="10" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D10" s="20" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="22" t="s">
@@ -12509,7 +12516,7 @@
         <v>999</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E13" s="333" t="s">
         <v>85</v>
@@ -12524,7 +12531,7 @@
     </row>
     <row r="14" spans="3:8" s="14" customFormat="1">
       <c r="D14" s="15" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E14" s="340" t="s">
         <v>89</v>
@@ -12535,7 +12542,7 @@
     </row>
     <row r="15" spans="3:8" s="14" customFormat="1">
       <c r="D15" s="15" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E15" s="357" t="s">
         <v>91</v>
@@ -12546,7 +12553,7 @@
     </row>
     <row r="16" spans="3:8" s="14" customFormat="1">
       <c r="D16" s="15" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E16" s="340" t="s">
         <v>94</v>
@@ -12557,7 +12564,7 @@
     </row>
     <row r="17" spans="3:8" s="16" customFormat="1">
       <c r="D17" s="17" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19" t="s">
@@ -12568,7 +12575,7 @@
     </row>
     <row r="18" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D18" s="20" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
@@ -12595,7 +12602,7 @@
         <v>999</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E21" s="333" t="s">
         <v>102</v>
@@ -12610,7 +12617,7 @@
     </row>
     <row r="22" spans="3:8" s="14" customFormat="1">
       <c r="D22" s="15" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E22" s="340" t="s">
         <v>106</v>
@@ -12621,7 +12628,7 @@
     </row>
     <row r="23" spans="3:8" s="14" customFormat="1">
       <c r="D23" s="15" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E23" s="340" t="s">
         <v>108</v>
@@ -12632,7 +12639,7 @@
     </row>
     <row r="24" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D24" s="20" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22" t="s">
@@ -12651,7 +12658,7 @@
         <v>999</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E26" s="333" t="s">
         <v>112</v>
@@ -12666,7 +12673,7 @@
     </row>
     <row r="27" spans="3:8" s="14" customFormat="1" ht="26.25" customHeight="1">
       <c r="D27" s="15" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E27" s="340" t="s">
         <v>116</v>
@@ -12677,7 +12684,7 @@
     </row>
     <row r="28" spans="3:8" s="14" customFormat="1" ht="26.25" customHeight="1">
       <c r="D28" s="15" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E28" s="340" t="s">
         <v>119</v>
@@ -12688,7 +12695,7 @@
     </row>
     <row r="29" spans="3:8" s="14" customFormat="1">
       <c r="D29" s="15" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E29" s="340" t="s">
         <v>121</v>
@@ -12699,7 +12706,7 @@
     </row>
     <row r="30" spans="3:8" s="16" customFormat="1">
       <c r="D30" s="17" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="19" t="s">
@@ -12710,7 +12717,7 @@
     </row>
     <row r="31" spans="3:8" s="16" customFormat="1">
       <c r="D31" s="17" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="19" t="s">
@@ -12721,7 +12728,7 @@
     </row>
     <row r="32" spans="3:8" s="16" customFormat="1">
       <c r="D32" s="17" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="19" t="s">
@@ -12732,7 +12739,7 @@
     </row>
     <row r="33" spans="3:8" s="16" customFormat="1">
       <c r="D33" s="17" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="19" t="s">
@@ -12743,7 +12750,7 @@
     </row>
     <row r="34" spans="3:8" s="16" customFormat="1">
       <c r="D34" s="17" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="19" t="s">
@@ -12754,7 +12761,7 @@
     </row>
     <row r="35" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D35" s="20" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="22" t="s">
@@ -12771,7 +12778,7 @@
     </row>
     <row r="37" spans="3:8" s="12" customFormat="1">
       <c r="D37" s="13" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E37" s="333" t="s">
         <v>135</v>
@@ -12786,7 +12793,7 @@
     </row>
     <row r="38" spans="3:8" s="14" customFormat="1">
       <c r="D38" s="15" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E38" s="340" t="s">
         <v>139</v>
@@ -12797,7 +12804,7 @@
     </row>
     <row r="39" spans="3:8" s="14" customFormat="1">
       <c r="D39" s="15" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E39" s="340" t="s">
         <v>141</v>
@@ -12808,7 +12815,7 @@
     </row>
     <row r="40" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D40" s="20" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
@@ -12824,10 +12831,10 @@
     </row>
     <row r="42" spans="3:8" s="12" customFormat="1">
       <c r="C42" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E42" s="333" t="s">
         <v>145</v>
@@ -12842,7 +12849,7 @@
     </row>
     <row r="43" spans="3:8" s="14" customFormat="1">
       <c r="D43" s="15" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>139</v>
@@ -12853,7 +12860,7 @@
     </row>
     <row r="44" spans="3:8" s="14" customFormat="1">
       <c r="D44" s="15" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E44" s="340" t="s">
         <v>141</v>
@@ -12864,7 +12871,7 @@
     </row>
     <row r="45" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D45" s="20" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22" t="s">
@@ -12880,7 +12887,7 @@
     </row>
     <row r="47" spans="3:8" s="12" customFormat="1">
       <c r="D47" s="13" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E47" s="333" t="s">
         <v>152</v>
@@ -12893,7 +12900,7 @@
     </row>
     <row r="48" spans="3:8" s="14" customFormat="1">
       <c r="D48" s="15" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E48" s="340" t="s">
         <v>154</v>
@@ -12904,7 +12911,7 @@
     </row>
     <row r="49" spans="4:8" s="14" customFormat="1">
       <c r="D49" s="15" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E49" s="340" t="s">
         <v>156</v>
@@ -12915,7 +12922,7 @@
     </row>
     <row r="50" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D50" s="20" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22" t="s">
@@ -12931,7 +12938,7 @@
     </row>
     <row r="52" spans="4:8" s="12" customFormat="1">
       <c r="D52" s="13" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E52" s="333" t="s">
         <v>160</v>
@@ -12944,7 +12951,7 @@
     </row>
     <row r="53" spans="4:8" s="14" customFormat="1">
       <c r="D53" s="15" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E53" s="340" t="s">
         <v>162</v>
@@ -12955,7 +12962,7 @@
     </row>
     <row r="54" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D54" s="20" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22" t="s">
@@ -12973,7 +12980,7 @@
     </row>
     <row r="56" spans="4:8" s="12" customFormat="1">
       <c r="D56" s="13" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E56" s="333" t="s">
         <v>166</v>
@@ -12986,7 +12993,7 @@
     </row>
     <row r="57" spans="4:8" s="14" customFormat="1">
       <c r="D57" s="15" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E57" s="340" t="s">
         <v>168</v>
@@ -12997,7 +13004,7 @@
     </row>
     <row r="58" spans="4:8" s="14" customFormat="1">
       <c r="D58" s="15" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E58" s="340" t="s">
         <v>170</v>
@@ -13008,7 +13015,7 @@
     </row>
     <row r="59" spans="4:8" s="16" customFormat="1">
       <c r="D59" s="15" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E59" s="340" t="s">
         <v>172</v>
@@ -13019,7 +13026,7 @@
     </row>
     <row r="60" spans="4:8" ht="13.5" thickBot="1">
       <c r="D60" s="20" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22" t="s">
@@ -13034,7 +13041,7 @@
     </row>
     <row r="62" spans="4:8" s="12" customFormat="1">
       <c r="D62" s="13" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E62" s="333" t="s">
         <v>176</v>
@@ -13049,7 +13056,7 @@
     </row>
     <row r="63" spans="4:8" s="14" customFormat="1">
       <c r="D63" s="15" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>154</v>
@@ -13060,7 +13067,7 @@
     </row>
     <row r="64" spans="4:8" s="14" customFormat="1">
       <c r="D64" s="15" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E64" s="340" t="s">
         <v>180</v>
@@ -13071,7 +13078,7 @@
     </row>
     <row r="65" spans="3:8" s="14" customFormat="1">
       <c r="D65" s="15" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E65" s="340" t="s">
         <v>182</v>
@@ -13082,7 +13089,7 @@
     </row>
     <row r="66" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D66" s="20" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22" t="s">
@@ -13098,7 +13105,7 @@
     </row>
     <row r="68" spans="3:8" s="12" customFormat="1">
       <c r="D68" s="13" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E68" s="333" t="s">
         <v>186</v>
@@ -13111,7 +13118,7 @@
     </row>
     <row r="69" spans="3:8" s="14" customFormat="1" ht="26.25" customHeight="1">
       <c r="D69" s="15" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E69" s="340" t="s">
         <v>189</v>
@@ -13122,7 +13129,7 @@
     </row>
     <row r="70" spans="3:8" s="14" customFormat="1">
       <c r="D70" s="15" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E70" s="340" t="s">
         <v>191</v>
@@ -13133,7 +13140,7 @@
     </row>
     <row r="71" spans="3:8" s="14" customFormat="1">
       <c r="D71" s="15" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E71" s="340" t="s">
         <v>193</v>
@@ -13144,7 +13151,7 @@
     </row>
     <row r="72" spans="3:8" s="14" customFormat="1">
       <c r="D72" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E72" s="340" t="s">
         <v>195</v>
@@ -13155,7 +13162,7 @@
     </row>
     <row r="73" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D73" s="20" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22" t="s">
@@ -13176,7 +13183,7 @@
         <v>1014</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E75" s="333" t="s">
         <v>200</v>
@@ -13191,7 +13198,7 @@
     </row>
     <row r="76" spans="3:8" s="14" customFormat="1">
       <c r="D76" s="15" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E76" s="340" t="s">
         <v>204</v>
@@ -13202,7 +13209,7 @@
     </row>
     <row r="77" spans="3:8" s="14" customFormat="1">
       <c r="D77" s="15" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E77" s="340" t="s">
         <v>206</v>
@@ -13213,7 +13220,7 @@
     </row>
     <row r="78" spans="3:8" s="16" customFormat="1">
       <c r="D78" s="17" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E78" s="19"/>
       <c r="F78" s="19" t="s">
@@ -13224,7 +13231,7 @@
     </row>
     <row r="79" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D79" s="20" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22" t="s">
@@ -13240,10 +13247,10 @@
     </row>
     <row r="81" spans="3:8" s="12" customFormat="1">
       <c r="C81" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E81" s="333" t="s">
         <v>212</v>
@@ -13258,7 +13265,7 @@
     </row>
     <row r="82" spans="3:8" s="14" customFormat="1">
       <c r="D82" s="15" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E82" s="340" t="s">
         <v>215</v>
@@ -13269,7 +13276,7 @@
     </row>
     <row r="83" spans="3:8" s="14" customFormat="1">
       <c r="D83" s="15" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E83" s="340" t="s">
         <v>217</v>
@@ -13280,7 +13287,7 @@
     </row>
     <row r="84" spans="3:8" s="14" customFormat="1">
       <c r="D84" s="15" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E84" s="340" t="s">
         <v>219</v>
@@ -13291,7 +13298,7 @@
     </row>
     <row r="85" spans="3:8" s="16" customFormat="1">
       <c r="D85" s="17" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E85" s="33"/>
       <c r="F85" s="19" t="s">
@@ -13302,7 +13309,7 @@
     </row>
     <row r="86" spans="3:8" s="16" customFormat="1">
       <c r="D86" s="17" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="19" t="s">
@@ -13313,7 +13320,7 @@
     </row>
     <row r="87" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D87" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E87" s="21"/>
       <c r="F87" s="22" t="s">
@@ -13351,7 +13358,7 @@
         <v>1077</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E92" s="333" t="s">
         <v>230</v>
@@ -13366,7 +13373,7 @@
     </row>
     <row r="93" spans="3:8" s="14" customFormat="1">
       <c r="D93" s="36" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E93" s="340" t="s">
         <v>233</v>
@@ -13377,7 +13384,7 @@
     </row>
     <row r="94" spans="3:8" s="14" customFormat="1">
       <c r="D94" s="36" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E94" s="340" t="s">
         <v>235</v>
@@ -13388,7 +13395,7 @@
     </row>
     <row r="95" spans="3:8" s="16" customFormat="1" ht="25.5">
       <c r="D95" s="37" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="19" t="s">
@@ -13399,7 +13406,7 @@
     </row>
     <row r="96" spans="3:8" s="16" customFormat="1">
       <c r="D96" s="37" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19" t="s">
@@ -13410,7 +13417,7 @@
     </row>
     <row r="97" spans="1:8" s="16" customFormat="1">
       <c r="D97" s="37" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="19" t="s">
@@ -13421,7 +13428,7 @@
     </row>
     <row r="98" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D98" s="38" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E98" s="22"/>
       <c r="F98" s="22" t="s">
@@ -13448,10 +13455,10 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1">
       <c r="C102" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E102" s="333" t="s">
         <v>248</v>
@@ -13464,7 +13471,7 @@
     </row>
     <row r="103" spans="1:8" s="14" customFormat="1">
       <c r="D103" s="15" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E103" s="340" t="s">
         <v>252</v>
@@ -13475,7 +13482,7 @@
     </row>
     <row r="104" spans="1:8" s="14" customFormat="1">
       <c r="D104" s="15" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E104" s="340" t="s">
         <v>254</v>
@@ -13486,7 +13493,7 @@
     </row>
     <row r="105" spans="1:8" s="14" customFormat="1">
       <c r="D105" s="15" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E105" s="340" t="s">
         <v>257</v>
@@ -13497,7 +13504,7 @@
     </row>
     <row r="106" spans="1:8" s="16" customFormat="1" ht="25.5">
       <c r="D106" s="17" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E106" s="19"/>
       <c r="F106" s="19" t="s">
@@ -13508,7 +13515,7 @@
     </row>
     <row r="107" spans="1:8" s="16" customFormat="1">
       <c r="D107" s="17" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="19" t="s">
@@ -13519,7 +13526,7 @@
     </row>
     <row r="108" spans="1:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D108" s="20" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E108" s="22"/>
       <c r="F108" s="22" t="s">
@@ -13540,7 +13547,7 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1">
       <c r="D110" s="13" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E110" s="333" t="s">
         <v>265</v>
@@ -13555,7 +13562,7 @@
     </row>
     <row r="111" spans="1:8" s="14" customFormat="1">
       <c r="D111" s="15" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E111" s="340" t="s">
         <v>268</v>
@@ -13566,7 +13573,7 @@
     </row>
     <row r="112" spans="1:8" s="14" customFormat="1">
       <c r="D112" s="15" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E112" s="340" t="s">
         <v>270</v>
@@ -13577,7 +13584,7 @@
     </row>
     <row r="113" spans="3:8" s="14" customFormat="1">
       <c r="D113" s="15" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E113" s="340" t="s">
         <v>272</v>
@@ -13588,7 +13595,7 @@
     </row>
     <row r="114" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D114" s="20" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E114" s="22"/>
       <c r="F114" s="22" t="s">
@@ -13604,10 +13611,10 @@
     </row>
     <row r="116" spans="3:8" s="12" customFormat="1">
       <c r="C116" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E116" s="333" t="s">
         <v>277</v>
@@ -13620,7 +13627,7 @@
     </row>
     <row r="117" spans="3:8" s="14" customFormat="1">
       <c r="D117" s="15" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E117" s="340" t="s">
         <v>281</v>
@@ -13631,7 +13638,7 @@
     </row>
     <row r="118" spans="3:8" s="14" customFormat="1">
       <c r="D118" s="15" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E118" s="340" t="s">
         <v>283</v>
@@ -13642,7 +13649,7 @@
     </row>
     <row r="119" spans="3:8" s="14" customFormat="1">
       <c r="D119" s="15" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E119" s="340" t="s">
         <v>285</v>
@@ -13653,7 +13660,7 @@
     </row>
     <row r="120" spans="3:8" s="16" customFormat="1">
       <c r="D120" s="17" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19" t="s">
@@ -13664,7 +13671,7 @@
     </row>
     <row r="121" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D121" s="20" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E121" s="22"/>
       <c r="F121" s="22" t="s">
@@ -13680,7 +13687,7 @@
     </row>
     <row r="123" spans="3:8" s="12" customFormat="1">
       <c r="D123" s="13" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E123" s="333" t="s">
         <v>291</v>
@@ -13695,7 +13702,7 @@
     </row>
     <row r="124" spans="3:8" s="14" customFormat="1">
       <c r="D124" s="15" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E124" s="340" t="s">
         <v>295</v>
@@ -13706,7 +13713,7 @@
     </row>
     <row r="125" spans="3:8" s="14" customFormat="1">
       <c r="D125" s="15" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E125" s="340" t="s">
         <v>297</v>
@@ -13717,7 +13724,7 @@
     </row>
     <row r="126" spans="3:8" s="14" customFormat="1">
       <c r="D126" s="15" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E126" s="340" t="s">
         <v>299</v>
@@ -13728,7 +13735,7 @@
     </row>
     <row r="127" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D127" s="20" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E127" s="22"/>
       <c r="F127" s="22" t="s">
@@ -13747,7 +13754,7 @@
         <v>1000</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E129" s="333" t="s">
         <v>303</v>
@@ -13760,7 +13767,7 @@
     </row>
     <row r="130" spans="3:8" s="14" customFormat="1">
       <c r="D130" s="15" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E130" s="350" t="s">
         <v>305</v>
@@ -13771,7 +13778,7 @@
     </row>
     <row r="131" spans="3:8" s="14" customFormat="1">
       <c r="D131" s="15" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E131" s="340" t="s">
         <v>307</v>
@@ -13782,7 +13789,7 @@
     </row>
     <row r="132" spans="3:8" s="14" customFormat="1">
       <c r="D132" s="15" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E132" s="340" t="s">
         <v>309</v>
@@ -13793,7 +13800,7 @@
     </row>
     <row r="133" spans="3:8" s="16" customFormat="1">
       <c r="D133" s="17" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="19" t="s">
@@ -13804,7 +13811,7 @@
     </row>
     <row r="134" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D134" s="20" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E134" s="22"/>
       <c r="F134" s="22" t="s">
@@ -13822,10 +13829,10 @@
     </row>
     <row r="136" spans="3:8" s="12" customFormat="1">
       <c r="C136" s="12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E136" s="333" t="s">
         <v>315</v>
@@ -13840,7 +13847,7 @@
     </row>
     <row r="137" spans="3:8" s="14" customFormat="1">
       <c r="D137" s="15" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E137" s="340" t="s">
         <v>318</v>
@@ -13851,7 +13858,7 @@
     </row>
     <row r="138" spans="3:8" s="14" customFormat="1">
       <c r="D138" s="15" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E138" s="340" t="s">
         <v>320</v>
@@ -13862,7 +13869,7 @@
     </row>
     <row r="139" spans="3:8" s="14" customFormat="1">
       <c r="D139" s="15" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E139" s="340" t="s">
         <v>322</v>
@@ -13873,7 +13880,7 @@
     </row>
     <row r="140" spans="3:8" s="14" customFormat="1">
       <c r="D140" s="15" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E140" s="340" t="s">
         <v>324</v>
@@ -13884,7 +13891,7 @@
     </row>
     <row r="141" spans="3:8">
       <c r="D141" s="17" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="19" t="s">
@@ -13895,7 +13902,7 @@
     </row>
     <row r="142" spans="3:8" ht="13.5" thickBot="1">
       <c r="D142" s="20" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E142" s="22"/>
       <c r="F142" s="22" t="s">
@@ -13911,7 +13918,7 @@
     </row>
     <row r="144" spans="3:8" s="12" customFormat="1">
       <c r="D144" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E144" s="333" t="s">
         <v>330</v>
@@ -13926,7 +13933,7 @@
     </row>
     <row r="145" spans="4:8" s="14" customFormat="1">
       <c r="D145" s="15" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E145" s="340" t="s">
         <v>333</v>
@@ -13937,7 +13944,7 @@
     </row>
     <row r="146" spans="4:8" s="14" customFormat="1">
       <c r="D146" s="15" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E146" s="340" t="s">
         <v>335</v>
@@ -13948,7 +13955,7 @@
     </row>
     <row r="147" spans="4:8" s="14" customFormat="1">
       <c r="D147" s="15" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E147" s="340" t="s">
         <v>337</v>
@@ -13959,7 +13966,7 @@
     </row>
     <row r="148" spans="4:8" s="14" customFormat="1">
       <c r="D148" s="15" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E148" s="340" t="s">
         <v>339</v>
@@ -13970,7 +13977,7 @@
     </row>
     <row r="149" spans="4:8" s="14" customFormat="1">
       <c r="D149" s="15" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E149" s="340" t="s">
         <v>341</v>
@@ -13981,7 +13988,7 @@
     </row>
     <row r="150" spans="4:8" s="14" customFormat="1">
       <c r="D150" s="15" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E150" s="340" t="s">
         <v>343</v>
@@ -13992,7 +13999,7 @@
     </row>
     <row r="151" spans="4:8" s="14" customFormat="1">
       <c r="D151" s="15" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E151" s="340" t="s">
         <v>345</v>
@@ -14003,7 +14010,7 @@
     </row>
     <row r="152" spans="4:8" s="16" customFormat="1" ht="25.5">
       <c r="D152" s="17" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="19" t="s">
@@ -14014,7 +14021,7 @@
     </row>
     <row r="153" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D153" s="20" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E153" s="22"/>
       <c r="F153" s="22" t="s">
@@ -14030,7 +14037,7 @@
     </row>
     <row r="155" spans="4:8" s="12" customFormat="1">
       <c r="D155" s="13" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E155" s="333" t="s">
         <v>351</v>
@@ -14045,7 +14052,7 @@
     </row>
     <row r="156" spans="4:8" s="14" customFormat="1">
       <c r="D156" s="15" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E156" s="340" t="s">
         <v>354</v>
@@ -14056,7 +14063,7 @@
     </row>
     <row r="157" spans="4:8" s="14" customFormat="1">
       <c r="D157" s="15" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E157" s="340" t="s">
         <v>356</v>
@@ -14067,7 +14074,7 @@
     </row>
     <row r="158" spans="4:8" s="16" customFormat="1">
       <c r="D158" s="17" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="19" t="s">
@@ -14078,7 +14085,7 @@
     </row>
     <row r="159" spans="4:8" s="16" customFormat="1">
       <c r="D159" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="19" t="s">
@@ -14089,7 +14096,7 @@
     </row>
     <row r="160" spans="4:8" ht="13.5" thickBot="1">
       <c r="D160" s="20" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E160" s="22"/>
       <c r="F160" s="22" t="s">
@@ -14105,10 +14112,10 @@
     </row>
     <row r="162" spans="3:8" s="12" customFormat="1">
       <c r="C162" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E162" s="333" t="s">
         <v>364</v>
@@ -14121,7 +14128,7 @@
     </row>
     <row r="163" spans="3:8" s="14" customFormat="1">
       <c r="D163" s="15" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E163" s="340" t="s">
         <v>366</v>
@@ -14132,7 +14139,7 @@
     </row>
     <row r="164" spans="3:8" s="16" customFormat="1">
       <c r="D164" s="17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="19" t="s">
@@ -14143,10 +14150,10 @@
     </row>
     <row r="165" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="C165" s="16" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E165" s="22" t="s">
         <v>1019</v>
@@ -14159,7 +14166,7 @@
     </row>
     <row r="166" spans="3:8" s="14" customFormat="1">
       <c r="D166" s="39" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E166" s="40" t="s">
         <v>375</v>
@@ -14174,7 +14181,7 @@
     </row>
     <row r="167" spans="3:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D167" s="20" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E167" s="22"/>
       <c r="F167" s="22" t="s">
@@ -14185,7 +14192,7 @@
     </row>
     <row r="168" spans="3:8" s="16" customFormat="1">
       <c r="D168" s="39" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E168" s="345" t="s">
         <v>380</v>
@@ -14200,7 +14207,7 @@
     </row>
     <row r="169" spans="3:8" s="16" customFormat="1" ht="25.5">
       <c r="D169" s="17" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E169" s="19"/>
       <c r="F169" s="19" t="s">
@@ -14211,7 +14218,7 @@
     </row>
     <row r="170" spans="3:8" s="16" customFormat="1" ht="25.5">
       <c r="D170" s="17" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="19" t="s">
@@ -14222,7 +14229,7 @@
     </row>
     <row r="171" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D171" s="20" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E171" s="22"/>
       <c r="F171" s="22" t="s">
@@ -14233,7 +14240,7 @@
     </row>
     <row r="172" spans="3:8" s="14" customFormat="1">
       <c r="D172" s="39" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E172" s="345" t="s">
         <v>389</v>
@@ -14246,7 +14253,7 @@
     </row>
     <row r="173" spans="3:8" s="16" customFormat="1">
       <c r="D173" s="17" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="19" t="s">
@@ -14257,7 +14264,7 @@
     </row>
     <row r="174" spans="3:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D174" s="20" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E174" s="21"/>
       <c r="F174" s="22" t="s">
@@ -14268,7 +14275,7 @@
     </row>
     <row r="175" spans="3:8" s="14" customFormat="1">
       <c r="D175" s="39" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E175" s="345" t="s">
         <v>395</v>
@@ -14281,7 +14288,7 @@
     </row>
     <row r="176" spans="3:8" s="16" customFormat="1" ht="25.5">
       <c r="D176" s="17" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="19" t="s">
@@ -14292,7 +14299,7 @@
     </row>
     <row r="177" spans="2:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D177" s="20" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E177" s="21"/>
       <c r="F177" s="22" t="s">
@@ -14311,7 +14318,7 @@
         <v>1010</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="E179" s="333" t="s">
         <v>401</v>
@@ -14325,7 +14332,7 @@
     <row r="180" spans="2:8" s="14" customFormat="1" ht="38.25" customHeight="1">
       <c r="B180" s="42"/>
       <c r="D180" s="15" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E180" s="340" t="s">
         <v>405</v>
@@ -14336,7 +14343,7 @@
     </row>
     <row r="181" spans="2:8" s="16" customFormat="1">
       <c r="D181" s="17" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E181" s="19"/>
       <c r="F181" s="19" t="s">
@@ -14347,7 +14354,7 @@
     </row>
     <row r="182" spans="2:8" s="16" customFormat="1">
       <c r="D182" s="17" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E182" s="19"/>
       <c r="F182" s="19" t="s">
@@ -14358,7 +14365,7 @@
     </row>
     <row r="183" spans="2:8" s="16" customFormat="1">
       <c r="D183" s="17" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="19" t="s">
@@ -14369,7 +14376,7 @@
     </row>
     <row r="184" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D184" s="20" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E184" s="22"/>
       <c r="F184" s="22" t="s">
@@ -14380,7 +14387,7 @@
     </row>
     <row r="185" spans="2:8" s="14" customFormat="1">
       <c r="D185" s="39" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E185" s="345" t="s">
         <v>418</v>
@@ -14393,7 +14400,7 @@
     </row>
     <row r="186" spans="2:8" s="14" customFormat="1">
       <c r="D186" s="15" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E186" s="340" t="s">
         <v>421</v>
@@ -14404,7 +14411,7 @@
     </row>
     <row r="187" spans="2:8" s="14" customFormat="1">
       <c r="D187" s="15" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E187" s="340" t="s">
         <v>423</v>
@@ -14415,7 +14422,7 @@
     </row>
     <row r="188" spans="2:8" s="14" customFormat="1" ht="13.5" thickBot="1">
       <c r="D188" s="43" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E188" s="346" t="s">
         <v>425</v>
@@ -14426,7 +14433,7 @@
     </row>
     <row r="189" spans="2:8" s="14" customFormat="1">
       <c r="D189" s="39" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E189" s="345" t="s">
         <v>427</v>
@@ -14441,7 +14448,7 @@
     </row>
     <row r="190" spans="2:8" s="16" customFormat="1">
       <c r="D190" s="17" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="19" t="s">
@@ -14452,7 +14459,7 @@
     </row>
     <row r="191" spans="2:8" s="16" customFormat="1" ht="25.5">
       <c r="D191" s="17" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" s="19" t="s">
@@ -14463,7 +14470,7 @@
     </row>
     <row r="192" spans="2:8" s="16" customFormat="1">
       <c r="D192" s="17" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" s="19" t="s">
@@ -14474,7 +14481,7 @@
     </row>
     <row r="193" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D193" s="20" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E193" s="22"/>
       <c r="F193" s="22" t="s">
@@ -14490,13 +14497,13 @@
     </row>
     <row r="195" spans="2:8" s="12" customFormat="1">
       <c r="B195" s="12" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>1002</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E195" s="333" t="s">
         <v>439</v>
@@ -14509,10 +14516,10 @@
     </row>
     <row r="196" spans="2:8" s="14" customFormat="1">
       <c r="B196" s="14" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E196" s="340" t="s">
         <v>441</v>
@@ -14523,10 +14530,10 @@
     </row>
     <row r="197" spans="2:8" s="14" customFormat="1">
       <c r="B197" s="14" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E197" s="340" t="s">
         <v>443</v>
@@ -14537,7 +14544,7 @@
     </row>
     <row r="198" spans="2:8" s="14" customFormat="1">
       <c r="D198" s="15" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E198" s="340" t="s">
         <v>445</v>
@@ -14548,10 +14555,10 @@
     </row>
     <row r="199" spans="2:8" s="16" customFormat="1">
       <c r="B199" s="16" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="19" t="s">
@@ -14562,7 +14569,7 @@
     </row>
     <row r="200" spans="2:8" s="16" customFormat="1" ht="25.5">
       <c r="D200" s="17" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="19" t="s">
@@ -14573,7 +14580,7 @@
     </row>
     <row r="201" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D201" s="20" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E201" s="22"/>
       <c r="F201" s="22" t="s">
@@ -14591,7 +14598,7 @@
     </row>
     <row r="203" spans="2:8" s="12" customFormat="1">
       <c r="D203" s="13" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E203" s="333" t="s">
         <v>455</v>
@@ -14604,7 +14611,7 @@
     </row>
     <row r="204" spans="2:8" s="14" customFormat="1">
       <c r="D204" s="15" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E204" s="340" t="s">
         <v>457</v>
@@ -14615,7 +14622,7 @@
     </row>
     <row r="205" spans="2:8" s="14" customFormat="1">
       <c r="D205" s="15" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E205" s="340" t="s">
         <v>459</v>
@@ -14626,7 +14633,7 @@
     </row>
     <row r="206" spans="2:8" s="14" customFormat="1">
       <c r="D206" s="15" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E206" s="340" t="s">
         <v>461</v>
@@ -14637,7 +14644,7 @@
     </row>
     <row r="207" spans="2:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D207" s="20" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E207" s="22"/>
       <c r="F207" s="22" t="s">
@@ -14658,7 +14665,7 @@
         <v>1078</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E209" s="333" t="s">
         <v>467</v>
@@ -14671,7 +14678,7 @@
     </row>
     <row r="210" spans="2:8" s="14" customFormat="1">
       <c r="D210" s="15" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E210" s="340" t="s">
         <v>469</v>
@@ -14682,7 +14689,7 @@
     </row>
     <row r="211" spans="2:8" s="14" customFormat="1">
       <c r="D211" s="15" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E211" s="340" t="s">
         <v>471</v>
@@ -14693,7 +14700,7 @@
     </row>
     <row r="212" spans="2:8" s="14" customFormat="1">
       <c r="D212" s="15" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E212" s="340" t="s">
         <v>473</v>
@@ -14704,10 +14711,10 @@
     </row>
     <row r="213" spans="2:8" s="16" customFormat="1">
       <c r="B213" s="16" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="19" t="s">
@@ -14718,10 +14725,10 @@
     </row>
     <row r="214" spans="2:8" s="16" customFormat="1" ht="25.5">
       <c r="B214" s="16" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="19" t="s">
@@ -14732,10 +14739,10 @@
     </row>
     <row r="215" spans="2:8" s="16" customFormat="1">
       <c r="B215" s="16" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="19" t="s">
@@ -14746,7 +14753,7 @@
     </row>
     <row r="216" spans="2:8" s="16" customFormat="1">
       <c r="D216" s="17" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="19" t="s">
@@ -14757,7 +14764,7 @@
     </row>
     <row r="217" spans="2:8" s="16" customFormat="1">
       <c r="D217" s="17" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="19" t="s">
@@ -14768,7 +14775,7 @@
     </row>
     <row r="218" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D218" s="20" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E218" s="22"/>
       <c r="F218" s="22" t="s">
@@ -14787,7 +14794,7 @@
         <v>1077</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E220" s="333" t="s">
         <v>488</v>
@@ -14800,7 +14807,7 @@
     </row>
     <row r="221" spans="2:8" s="14" customFormat="1" ht="74.25" customHeight="1">
       <c r="D221" s="15" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E221" s="340" t="s">
         <v>491</v>
@@ -14811,7 +14818,7 @@
     </row>
     <row r="222" spans="2:8" s="14" customFormat="1">
       <c r="D222" s="15" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E222" s="340" t="s">
         <v>493</v>
@@ -14822,7 +14829,7 @@
     </row>
     <row r="223" spans="2:8" s="14" customFormat="1">
       <c r="D223" s="15" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E223" s="340" t="s">
         <v>495</v>
@@ -14833,7 +14840,7 @@
     </row>
     <row r="224" spans="2:8" s="16" customFormat="1">
       <c r="D224" s="17" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E224" s="19"/>
       <c r="F224" s="19" t="s">
@@ -14844,7 +14851,7 @@
     </row>
     <row r="225" spans="4:8" s="16" customFormat="1" ht="25.5">
       <c r="D225" s="17" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E225" s="19"/>
       <c r="F225" s="19" t="s">
@@ -14855,7 +14862,7 @@
     </row>
     <row r="226" spans="4:8" s="16" customFormat="1" ht="25.5">
       <c r="D226" s="17" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E226" s="19"/>
       <c r="F226" s="19" t="s">
@@ -14866,7 +14873,7 @@
     </row>
     <row r="227" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D227" s="20" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E227" s="22"/>
       <c r="F227" s="22" t="s">
@@ -14877,7 +14884,7 @@
     </row>
     <row r="228" spans="4:8" s="14" customFormat="1">
       <c r="D228" s="39" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E228" s="345" t="s">
         <v>505</v>
@@ -14890,7 +14897,7 @@
     </row>
     <row r="229" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D229" s="20" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E229" s="22"/>
       <c r="F229" s="22" t="s">
@@ -14908,7 +14915,7 @@
     </row>
     <row r="231" spans="4:8" s="12" customFormat="1">
       <c r="D231" s="13" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E231" s="333" t="s">
         <v>510</v>
@@ -14921,7 +14928,7 @@
     </row>
     <row r="232" spans="4:8" s="14" customFormat="1">
       <c r="D232" s="15" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E232" s="340" t="s">
         <v>512</v>
@@ -14932,7 +14939,7 @@
     </row>
     <row r="233" spans="4:8" s="14" customFormat="1">
       <c r="D233" s="15" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E233" s="340" t="s">
         <v>514</v>
@@ -14943,7 +14950,7 @@
     </row>
     <row r="234" spans="4:8" s="14" customFormat="1">
       <c r="D234" s="15" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E234" s="340" t="s">
         <v>516</v>
@@ -14954,7 +14961,7 @@
     </row>
     <row r="235" spans="4:8" s="14" customFormat="1">
       <c r="D235" s="15" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E235" s="340" t="s">
         <v>516</v>
@@ -14965,7 +14972,7 @@
     </row>
     <row r="236" spans="4:8" s="16" customFormat="1">
       <c r="D236" s="17" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E236" s="19"/>
       <c r="F236" s="19" t="s">
@@ -14976,7 +14983,7 @@
     </row>
     <row r="237" spans="4:8" s="16" customFormat="1">
       <c r="D237" s="17" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E237" s="19"/>
       <c r="F237" s="19" t="s">
@@ -14987,7 +14994,7 @@
     </row>
     <row r="238" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D238" s="20" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E238" s="22"/>
       <c r="F238" s="22" t="s">
@@ -15005,7 +15012,7 @@
     </row>
     <row r="240" spans="4:8" s="12" customFormat="1">
       <c r="D240" s="13" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E240" s="333" t="s">
         <v>525</v>
@@ -15018,7 +15025,7 @@
     </row>
     <row r="241" spans="4:8" s="14" customFormat="1">
       <c r="D241" s="15" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E241" s="340" t="s">
         <v>527</v>
@@ -15029,7 +15036,7 @@
     </row>
     <row r="242" spans="4:8" s="14" customFormat="1">
       <c r="D242" s="15" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E242" s="340" t="s">
         <v>529</v>
@@ -15040,7 +15047,7 @@
     </row>
     <row r="243" spans="4:8" s="14" customFormat="1">
       <c r="D243" s="15" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E243" s="340" t="s">
         <v>531</v>
@@ -15051,7 +15058,7 @@
     </row>
     <row r="244" spans="4:8" s="14" customFormat="1">
       <c r="D244" s="15" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E244" s="340" t="s">
         <v>533</v>
@@ -15062,7 +15069,7 @@
     </row>
     <row r="245" spans="4:8" s="16" customFormat="1" ht="26.25" customHeight="1">
       <c r="D245" s="17" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E245" s="19"/>
       <c r="F245" s="19" t="s">
@@ -15073,7 +15080,7 @@
     </row>
     <row r="246" spans="4:8" s="16" customFormat="1">
       <c r="D246" s="17" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E246" s="19"/>
       <c r="F246" s="19" t="s">
@@ -15084,7 +15091,7 @@
     </row>
     <row r="247" spans="4:8" s="16" customFormat="1" ht="25.5">
       <c r="D247" s="17" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E247" s="19"/>
       <c r="F247" s="19" t="s">
@@ -15095,7 +15102,7 @@
     </row>
     <row r="248" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D248" s="20" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E248" s="22"/>
       <c r="F248" s="22" t="s">
@@ -15106,7 +15113,7 @@
     </row>
     <row r="249" spans="4:8" s="14" customFormat="1">
       <c r="D249" s="39" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E249" s="345" t="s">
         <v>543</v>
@@ -15119,7 +15126,7 @@
     </row>
     <row r="250" spans="4:8" s="14" customFormat="1">
       <c r="D250" s="15" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E250" s="340" t="s">
         <v>545</v>
@@ -15130,7 +15137,7 @@
     </row>
     <row r="251" spans="4:8" s="16" customFormat="1">
       <c r="D251" s="17" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E251" s="19"/>
       <c r="F251" s="19" t="s">
@@ -15141,7 +15148,7 @@
     </row>
     <row r="252" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D252" s="20" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E252" s="22"/>
       <c r="F252" s="22" t="s">
@@ -15157,7 +15164,7 @@
     </row>
     <row r="254" spans="4:8" s="12" customFormat="1">
       <c r="D254" s="13" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E254" s="333" t="s">
         <v>551</v>
@@ -15172,7 +15179,7 @@
     </row>
     <row r="255" spans="4:8" s="14" customFormat="1">
       <c r="D255" s="15" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E255" s="340" t="s">
         <v>554</v>
@@ -15183,7 +15190,7 @@
     </row>
     <row r="256" spans="4:8" s="14" customFormat="1">
       <c r="D256" s="15" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E256" s="340" t="s">
         <v>556</v>
@@ -15194,7 +15201,7 @@
     </row>
     <row r="257" spans="4:8" s="14" customFormat="1">
       <c r="D257" s="15" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E257" s="340" t="s">
         <v>558</v>
@@ -15205,7 +15212,7 @@
     </row>
     <row r="258" spans="4:8" s="14" customFormat="1">
       <c r="D258" s="15" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E258" s="340" t="s">
         <v>560</v>
@@ -15216,7 +15223,7 @@
     </row>
     <row r="259" spans="4:8" s="14" customFormat="1">
       <c r="D259" s="15" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E259" s="340" t="s">
         <v>562</v>
@@ -15227,7 +15234,7 @@
     </row>
     <row r="260" spans="4:8" s="16" customFormat="1">
       <c r="D260" s="17" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E260" s="33"/>
       <c r="F260" s="45" t="s">
@@ -15238,7 +15245,7 @@
     </row>
     <row r="261" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D261" s="20" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E261" s="46"/>
       <c r="F261" s="47" t="s">
@@ -15260,7 +15267,7 @@
     </row>
     <row r="264" spans="4:8" s="12" customFormat="1">
       <c r="D264" s="13" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E264" s="333" t="s">
         <v>568</v>
@@ -15275,7 +15282,7 @@
     </row>
     <row r="265" spans="4:8" s="14" customFormat="1">
       <c r="D265" s="15" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E265" s="340" t="s">
         <v>571</v>
@@ -15286,7 +15293,7 @@
     </row>
     <row r="266" spans="4:8" s="14" customFormat="1">
       <c r="D266" s="15" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E266" s="340" t="s">
         <v>573</v>
@@ -15297,7 +15304,7 @@
     </row>
     <row r="267" spans="4:8" s="16" customFormat="1">
       <c r="D267" s="17" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E267" s="33"/>
       <c r="F267" s="45" t="s">
@@ -15308,7 +15315,7 @@
     </row>
     <row r="268" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D268" s="20" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E268" s="46"/>
       <c r="F268" s="47" t="s">
@@ -15324,7 +15331,7 @@
     </row>
     <row r="270" spans="4:8" s="12" customFormat="1">
       <c r="D270" s="13" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E270" s="333" t="s">
         <v>579</v>
@@ -15337,7 +15344,7 @@
     </row>
     <row r="271" spans="4:8" s="12" customFormat="1" ht="95.25" customHeight="1">
       <c r="D271" s="15" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E271" s="340" t="s">
         <v>582</v>
@@ -15350,7 +15357,7 @@
     </row>
     <row r="272" spans="4:8" s="12" customFormat="1" ht="13.5" thickBot="1">
       <c r="D272" s="20" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E272" s="46"/>
       <c r="F272" s="47" t="s">
@@ -15361,7 +15368,7 @@
     </row>
     <row r="273" spans="4:8" s="14" customFormat="1">
       <c r="D273" s="15" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E273" s="340" t="s">
         <v>587</v>
@@ -15374,7 +15381,7 @@
     </row>
     <row r="274" spans="4:8" s="14" customFormat="1">
       <c r="D274" s="15" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E274" s="340" t="s">
         <v>589</v>
@@ -15385,7 +15392,7 @@
     </row>
     <row r="275" spans="4:8" s="14" customFormat="1">
       <c r="D275" s="15" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E275" s="340" t="s">
         <v>591</v>
@@ -15396,7 +15403,7 @@
     </row>
     <row r="276" spans="4:8" s="14" customFormat="1">
       <c r="D276" s="15" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E276" s="340" t="s">
         <v>593</v>
@@ -15407,7 +15414,7 @@
     </row>
     <row r="277" spans="4:8" s="16" customFormat="1">
       <c r="D277" s="17" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="19" t="s">
@@ -15418,7 +15425,7 @@
     </row>
     <row r="278" spans="4:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D278" s="20" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E278" s="22"/>
       <c r="F278" s="22" t="s">
@@ -15429,7 +15436,7 @@
     </row>
     <row r="279" spans="4:8" s="14" customFormat="1" ht="26.25" customHeight="1">
       <c r="D279" s="39" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E279" s="345" t="s">
         <v>599</v>
@@ -15442,7 +15449,7 @@
     </row>
     <row r="280" spans="4:8" s="14" customFormat="1" ht="26.25" customHeight="1">
       <c r="D280" s="15" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E280" s="340" t="s">
         <v>601</v>
@@ -15453,7 +15460,7 @@
     </row>
     <row r="281" spans="4:8" s="14" customFormat="1" ht="26.25" customHeight="1">
       <c r="D281" s="15" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E281" s="340" t="s">
         <v>603</v>
@@ -15466,7 +15473,7 @@
     </row>
     <row r="282" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D282" s="20" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E282" s="22"/>
       <c r="F282" s="22" t="s">
@@ -15495,7 +15502,7 @@
     </row>
     <row r="286" spans="4:8" s="12" customFormat="1">
       <c r="D286" s="13" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E286" s="333" t="s">
         <v>610</v>
@@ -15510,7 +15517,7 @@
     </row>
     <row r="287" spans="4:8" s="14" customFormat="1">
       <c r="D287" s="15" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E287" s="340" t="s">
         <v>613</v>
@@ -15521,7 +15528,7 @@
     </row>
     <row r="288" spans="4:8" s="14" customFormat="1">
       <c r="D288" s="15" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E288" s="340" t="s">
         <v>615</v>
@@ -15532,7 +15539,7 @@
     </row>
     <row r="289" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D289" s="20" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E289" s="22"/>
       <c r="F289" s="22" t="s">
@@ -15543,7 +15550,7 @@
     </row>
     <row r="290" spans="3:8" s="14" customFormat="1">
       <c r="D290" s="39" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E290" s="345" t="s">
         <v>619</v>
@@ -15556,7 +15563,7 @@
     </row>
     <row r="291" spans="3:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D291" s="20" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E291" s="22"/>
       <c r="F291" s="22" t="s">
@@ -15858,7 +15865,7 @@
     </row>
     <row r="320" spans="3:8" s="12" customFormat="1">
       <c r="C320" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D320" s="13" t="s">
         <v>673</v>
@@ -15912,7 +15919,7 @@
     </row>
     <row r="325" spans="3:8" s="12" customFormat="1">
       <c r="C325" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D325" s="13" t="s">
         <v>684</v>
@@ -16105,7 +16112,7 @@
     </row>
     <row r="343" spans="4:8" s="12" customFormat="1">
       <c r="D343" s="13" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E343" s="333" t="s">
         <v>717</v>
@@ -16118,7 +16125,7 @@
     </row>
     <row r="344" spans="4:8" s="14" customFormat="1">
       <c r="D344" s="15" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E344" s="340" t="s">
         <v>719</v>
@@ -16129,7 +16136,7 @@
     </row>
     <row r="345" spans="4:8" s="16" customFormat="1">
       <c r="D345" s="17" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E345" s="19"/>
       <c r="F345" s="19" t="s">
@@ -16140,7 +16147,7 @@
     </row>
     <row r="346" spans="4:8" s="16" customFormat="1">
       <c r="D346" s="17" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E346" s="19"/>
       <c r="F346" s="19" t="s">
@@ -16151,7 +16158,7 @@
     </row>
     <row r="347" spans="4:8" s="16" customFormat="1">
       <c r="D347" s="17" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E347" s="19"/>
       <c r="F347" s="19" t="s">
@@ -16162,7 +16169,7 @@
     </row>
     <row r="348" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D348" s="20" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E348" s="22"/>
       <c r="F348" s="22" t="s">
@@ -16194,7 +16201,7 @@
     </row>
     <row r="352" spans="4:8" s="12" customFormat="1">
       <c r="D352" s="13" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E352" s="333" t="s">
         <v>731</v>
@@ -16207,7 +16214,7 @@
     </row>
     <row r="353" spans="4:8" s="14" customFormat="1">
       <c r="D353" s="15" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E353" s="340" t="s">
         <v>733</v>
@@ -16218,7 +16225,7 @@
     </row>
     <row r="354" spans="4:8" s="14" customFormat="1">
       <c r="D354" s="15" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E354" s="340" t="s">
         <v>735</v>
@@ -16229,7 +16236,7 @@
     </row>
     <row r="355" spans="4:8" s="14" customFormat="1">
       <c r="D355" s="15" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E355" s="340" t="s">
         <v>737</v>
@@ -16240,7 +16247,7 @@
     </row>
     <row r="356" spans="4:8" s="16" customFormat="1">
       <c r="D356" s="17" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E356" s="19"/>
       <c r="F356" s="19" t="s">
@@ -16251,7 +16258,7 @@
     </row>
     <row r="357" spans="4:8" s="16" customFormat="1">
       <c r="D357" s="17" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E357" s="19"/>
       <c r="F357" s="19" t="s">
@@ -16262,7 +16269,7 @@
     </row>
     <row r="358" spans="4:8" s="16" customFormat="1">
       <c r="D358" s="17" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E358" s="19"/>
       <c r="F358" s="19" t="s">
@@ -16273,7 +16280,7 @@
     </row>
     <row r="359" spans="4:8" s="16" customFormat="1">
       <c r="D359" s="17" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E359" s="19"/>
       <c r="F359" s="19" t="s">
@@ -16284,7 +16291,7 @@
     </row>
     <row r="360" spans="4:8" s="16" customFormat="1" ht="25.5">
       <c r="D360" s="17" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E360" s="19"/>
       <c r="F360" s="19" t="s">
@@ -16295,7 +16302,7 @@
     </row>
     <row r="361" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D361" s="20" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E361" s="22"/>
       <c r="F361" s="22" t="s">
@@ -16325,7 +16332,7 @@
     </row>
     <row r="365" spans="4:8" s="12" customFormat="1">
       <c r="D365" s="13" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E365" s="333" t="s">
         <v>753</v>
@@ -16338,7 +16345,7 @@
     </row>
     <row r="366" spans="4:8" s="14" customFormat="1">
       <c r="D366" s="15" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E366" s="340" t="s">
         <v>706</v>
@@ -16349,7 +16356,7 @@
     </row>
     <row r="367" spans="4:8" s="14" customFormat="1">
       <c r="D367" s="15" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E367" s="340" t="s">
         <v>708</v>
@@ -16360,7 +16367,7 @@
     </row>
     <row r="368" spans="4:8" s="16" customFormat="1">
       <c r="D368" s="17" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E368" s="19"/>
       <c r="F368" s="19" t="s">
@@ -16371,7 +16378,7 @@
     </row>
     <row r="369" spans="4:8" s="16" customFormat="1">
       <c r="D369" s="17" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E369" s="19"/>
       <c r="F369" s="19" t="s">
@@ -16382,7 +16389,7 @@
     </row>
     <row r="370" spans="4:8" s="16" customFormat="1">
       <c r="D370" s="17" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E370" s="19"/>
       <c r="F370" s="19" t="s">
@@ -16393,7 +16400,7 @@
     </row>
     <row r="371" spans="4:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D371" s="20" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E371" s="22"/>
       <c r="F371" s="22" t="s">
@@ -16409,7 +16416,7 @@
     </row>
     <row r="373" spans="4:8" s="12" customFormat="1">
       <c r="D373" s="13" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E373" s="333" t="s">
         <v>706</v>
@@ -16422,7 +16429,7 @@
     </row>
     <row r="374" spans="4:8" s="14" customFormat="1">
       <c r="D374" s="15" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E374" s="340" t="s">
         <v>766</v>
@@ -16433,7 +16440,7 @@
     </row>
     <row r="375" spans="4:8" s="16" customFormat="1">
       <c r="D375" s="17" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E375" s="19"/>
       <c r="F375" s="19" t="s">
@@ -16444,7 +16451,7 @@
     </row>
     <row r="376" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D376" s="20" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E376" s="22"/>
       <c r="F376" s="22" t="s">
@@ -16481,7 +16488,7 @@
     </row>
     <row r="381" spans="4:8" s="12" customFormat="1">
       <c r="D381" s="13" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E381" s="333" t="s">
         <v>774</v>
@@ -16496,7 +16503,7 @@
     </row>
     <row r="382" spans="4:8" s="14" customFormat="1">
       <c r="D382" s="15" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E382" s="340" t="s">
         <v>777</v>
@@ -16507,7 +16514,7 @@
     </row>
     <row r="383" spans="4:8" s="14" customFormat="1">
       <c r="D383" s="15" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E383" s="340" t="s">
         <v>779</v>
@@ -16518,7 +16525,7 @@
     </row>
     <row r="384" spans="4:8" s="16" customFormat="1">
       <c r="D384" s="17" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E384" s="19"/>
       <c r="F384" s="19" t="s">
@@ -16529,7 +16536,7 @@
     </row>
     <row r="385" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D385" s="20" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E385" s="22"/>
       <c r="F385" s="22" t="s">
@@ -16545,7 +16552,7 @@
     </row>
     <row r="387" spans="3:8" s="12" customFormat="1">
       <c r="D387" s="13" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E387" s="333" t="s">
         <v>785</v>
@@ -16558,7 +16565,7 @@
     </row>
     <row r="388" spans="3:8" s="14" customFormat="1">
       <c r="D388" s="15" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E388" s="340" t="s">
         <v>787</v>
@@ -16569,7 +16576,7 @@
     </row>
     <row r="389" spans="3:8" s="14" customFormat="1">
       <c r="D389" s="15" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E389" s="340" t="s">
         <v>789</v>
@@ -16580,7 +16587,7 @@
     </row>
     <row r="390" spans="3:8" s="16" customFormat="1" ht="26.25" thickBot="1">
       <c r="D390" s="20" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E390" s="22"/>
       <c r="F390" s="22" t="s">
@@ -16598,10 +16605,10 @@
     </row>
     <row r="392" spans="3:8" s="12" customFormat="1">
       <c r="C392" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E392" s="333" t="s">
         <v>793</v>
@@ -16616,7 +16623,7 @@
     </row>
     <row r="393" spans="3:8" s="14" customFormat="1">
       <c r="D393" s="15" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E393" s="340" t="s">
         <v>796</v>
@@ -16627,7 +16634,7 @@
     </row>
     <row r="394" spans="3:8" s="14" customFormat="1">
       <c r="D394" s="15" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E394" s="340" t="s">
         <v>798</v>
@@ -16638,7 +16645,7 @@
     </row>
     <row r="395" spans="3:8" s="14" customFormat="1">
       <c r="D395" s="15" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E395" s="340" t="s">
         <v>800</v>
@@ -16649,7 +16656,7 @@
     </row>
     <row r="396" spans="3:8" s="14" customFormat="1">
       <c r="D396" s="15" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E396" s="340" t="s">
         <v>802</v>
@@ -16660,7 +16667,7 @@
     </row>
     <row r="397" spans="3:8" s="14" customFormat="1">
       <c r="D397" s="15" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E397" s="340" t="s">
         <v>804</v>
@@ -16671,7 +16678,7 @@
     </row>
     <row r="398" spans="3:8" s="14" customFormat="1">
       <c r="D398" s="15" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E398" s="340" t="s">
         <v>806</v>
@@ -16682,7 +16689,7 @@
     </row>
     <row r="399" spans="3:8" s="16" customFormat="1">
       <c r="D399" s="17" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E399" s="19"/>
       <c r="F399" s="19" t="s">
@@ -16693,7 +16700,7 @@
     </row>
     <row r="400" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D400" s="20" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E400" s="22"/>
       <c r="F400" s="22" t="s">
@@ -16709,10 +16716,10 @@
     </row>
     <row r="402" spans="3:8" s="12" customFormat="1">
       <c r="C402" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E402" s="333" t="s">
         <v>812</v>
@@ -16727,7 +16734,7 @@
     </row>
     <row r="403" spans="3:8" s="14" customFormat="1">
       <c r="D403" s="15" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E403" s="340" t="s">
         <v>815</v>
@@ -16738,7 +16745,7 @@
     </row>
     <row r="404" spans="3:8" s="14" customFormat="1">
       <c r="D404" s="15" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E404" s="340" t="s">
         <v>817</v>
@@ -16749,7 +16756,7 @@
     </row>
     <row r="405" spans="3:8" s="14" customFormat="1">
       <c r="D405" s="15" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E405" s="340" t="s">
         <v>819</v>
@@ -16760,7 +16767,7 @@
     </row>
     <row r="406" spans="3:8" s="14" customFormat="1">
       <c r="D406" s="15" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E406" s="340" t="s">
         <v>821</v>
@@ -16771,7 +16778,7 @@
     </row>
     <row r="407" spans="3:8" s="14" customFormat="1">
       <c r="D407" s="15" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E407" s="340" t="s">
         <v>823</v>
@@ -16782,7 +16789,7 @@
     </row>
     <row r="408" spans="3:8" s="14" customFormat="1">
       <c r="D408" s="15" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E408" s="340" t="s">
         <v>825</v>
@@ -16793,7 +16800,7 @@
     </row>
     <row r="409" spans="3:8" s="14" customFormat="1">
       <c r="D409" s="15" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E409" s="340" t="s">
         <v>827</v>
@@ -16804,7 +16811,7 @@
     </row>
     <row r="410" spans="3:8" s="16" customFormat="1">
       <c r="D410" s="17" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E410" s="18"/>
       <c r="F410" s="19" t="s">
@@ -16815,7 +16822,7 @@
     </row>
     <row r="411" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D411" s="20" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E411" s="21"/>
       <c r="F411" s="22" t="s">
@@ -16844,7 +16851,7 @@
     </row>
     <row r="415" spans="3:8" s="12" customFormat="1">
       <c r="D415" s="13" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E415" s="333" t="s">
         <v>835</v>
@@ -16859,7 +16866,7 @@
     </row>
     <row r="416" spans="3:8" s="14" customFormat="1">
       <c r="D416" s="15" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E416" s="340" t="s">
         <v>838</v>
@@ -16870,7 +16877,7 @@
     </row>
     <row r="417" spans="3:8" s="16" customFormat="1">
       <c r="D417" s="17" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E417" s="19"/>
       <c r="F417" s="19" t="s">
@@ -16881,7 +16888,7 @@
     </row>
     <row r="418" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D418" s="20" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E418" s="22"/>
       <c r="F418" s="22" t="s">
@@ -16910,7 +16917,7 @@
     </row>
     <row r="422" spans="3:8" s="12" customFormat="1">
       <c r="D422" s="13" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E422" s="333" t="s">
         <v>845</v>
@@ -16925,7 +16932,7 @@
     </row>
     <row r="423" spans="3:8" s="14" customFormat="1">
       <c r="D423" s="15" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E423" s="340" t="s">
         <v>848</v>
@@ -16936,7 +16943,7 @@
     </row>
     <row r="424" spans="3:8" s="14" customFormat="1">
       <c r="D424" s="15" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E424" s="340" t="s">
         <v>850</v>
@@ -16947,7 +16954,7 @@
     </row>
     <row r="425" spans="3:8" s="14" customFormat="1">
       <c r="D425" s="15" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E425" s="340" t="s">
         <v>852</v>
@@ -16958,7 +16965,7 @@
     </row>
     <row r="426" spans="3:8" s="14" customFormat="1">
       <c r="D426" s="15" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E426" s="340" t="s">
         <v>854</v>
@@ -16969,10 +16976,10 @@
     </row>
     <row r="427" spans="3:8" s="14" customFormat="1">
       <c r="C427" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D427" s="15" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="E427" s="340" t="s">
         <v>856</v>
@@ -16983,7 +16990,7 @@
     </row>
     <row r="428" spans="3:8" s="14" customFormat="1">
       <c r="D428" s="15" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E428" s="340" t="s">
         <v>858</v>
@@ -16994,10 +17001,10 @@
     </row>
     <row r="429" spans="3:8" s="14" customFormat="1">
       <c r="C429" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D429" s="15" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E429" s="340" t="s">
         <v>860</v>
@@ -17008,7 +17015,7 @@
     </row>
     <row r="430" spans="3:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D430" s="20" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E430" s="22"/>
       <c r="F430" s="22" t="s">
@@ -17036,7 +17043,7 @@
     </row>
     <row r="434" spans="3:8" s="12" customFormat="1">
       <c r="C434" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D434" s="13" t="s">
         <v>865</v>
@@ -17360,10 +17367,10 @@
     </row>
     <row r="466" spans="2:8" s="12" customFormat="1">
       <c r="C466" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D466" s="13" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E466" s="333" t="s">
         <v>920</v>
@@ -17378,10 +17385,10 @@
     </row>
     <row r="467" spans="2:8" s="16" customFormat="1">
       <c r="B467" s="16" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D467" s="17" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E467" s="18"/>
       <c r="F467" s="19" t="s">
@@ -17392,10 +17399,10 @@
     </row>
     <row r="468" spans="2:8" s="16" customFormat="1">
       <c r="B468" s="16" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D468" s="17" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E468" s="18"/>
       <c r="F468" s="19" t="s">
@@ -17406,10 +17413,10 @@
     </row>
     <row r="469" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="C469" s="16" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D469" s="20" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E469" s="21"/>
       <c r="F469" s="22" t="s">
@@ -17425,13 +17432,13 @@
     </row>
     <row r="471" spans="2:8" s="12" customFormat="1">
       <c r="B471" s="12" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="C471" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D471" s="13" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E471" s="333" t="s">
         <v>929</v>
@@ -17446,7 +17453,7 @@
     </row>
     <row r="472" spans="2:8" s="16" customFormat="1">
       <c r="D472" s="17" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E472" s="18"/>
       <c r="F472" s="19" t="s">
@@ -17457,7 +17464,7 @@
     </row>
     <row r="473" spans="2:8" s="16" customFormat="1">
       <c r="D473" s="17" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E473" s="18"/>
       <c r="F473" s="19" t="s">
@@ -17468,7 +17475,7 @@
     </row>
     <row r="474" spans="2:8" s="16" customFormat="1">
       <c r="D474" s="17" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E474" s="18"/>
       <c r="F474" s="19" t="s">
@@ -17479,7 +17486,7 @@
     </row>
     <row r="475" spans="2:8" s="16" customFormat="1">
       <c r="D475" s="17" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E475" s="18"/>
       <c r="F475" s="19" t="s">
@@ -17490,7 +17497,7 @@
     </row>
     <row r="476" spans="2:8" s="16" customFormat="1">
       <c r="D476" s="17" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E476" s="18"/>
       <c r="F476" s="19" t="s">
@@ -17501,7 +17508,7 @@
     </row>
     <row r="477" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D477" s="20" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E477" s="21"/>
       <c r="F477" s="22" t="s">
@@ -17516,7 +17523,7 @@
     </row>
     <row r="479" spans="2:8" s="12" customFormat="1">
       <c r="D479" s="13" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E479" s="333" t="s">
         <v>944</v>
@@ -17529,7 +17536,7 @@
     </row>
     <row r="480" spans="2:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D480" s="20" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E480" s="21"/>
       <c r="F480" s="22" t="s">
@@ -17561,7 +17568,7 @@
     </row>
     <row r="484" spans="4:8" s="12" customFormat="1">
       <c r="D484" s="13" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E484" s="333" t="s">
         <v>950</v>
@@ -17574,7 +17581,7 @@
     </row>
     <row r="485" spans="4:8" s="16" customFormat="1">
       <c r="D485" s="17" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E485" s="18"/>
       <c r="F485" s="19" t="s">
@@ -17585,7 +17592,7 @@
     </row>
     <row r="486" spans="4:8" s="16" customFormat="1">
       <c r="D486" s="17" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E486" s="18"/>
       <c r="F486" s="19" t="s">
@@ -17596,7 +17603,7 @@
     </row>
     <row r="487" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D487" s="20" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E487" s="21"/>
       <c r="F487" s="22" t="s">
@@ -17612,7 +17619,7 @@
     </row>
     <row r="489" spans="4:8" s="12" customFormat="1">
       <c r="D489" s="13" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E489" s="59" t="s">
         <v>958</v>
@@ -17625,7 +17632,7 @@
     </row>
     <row r="490" spans="4:8" s="16" customFormat="1">
       <c r="D490" s="17" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E490" s="18"/>
       <c r="F490" s="19" t="s">
@@ -17636,7 +17643,7 @@
     </row>
     <row r="491" spans="4:8" s="16" customFormat="1" ht="13.5" thickBot="1">
       <c r="D491" s="20" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E491" s="21"/>
       <c r="F491" s="22" t="s">
@@ -24777,7 +24784,7 @@
         <v>1056</v>
       </c>
       <c r="W2" s="109" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="X2" s="109" t="s">
         <v>1069</v>

--- a/Progression/Progression_PTSI_2014_2015.xlsx
+++ b/Progression/Progression_PTSI_2014_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="7050" tabRatio="611"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="7050" tabRatio="611" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PTSI_Rouviere" sheetId="7" r:id="rId1"/>
@@ -9098,15 +9098,15 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="182" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="71" customWidth="1"/>
@@ -10926,7 +10926,7 @@
       <c r="P58" s="158"/>
       <c r="Q58" s="159"/>
     </row>
-    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B59" s="143"/>
       <c r="C59" s="137"/>
       <c r="D59" s="140"/>
@@ -10944,7 +10944,7 @@
       <c r="P59" s="141"/>
       <c r="Q59" s="141"/>
     </row>
-    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E60" s="108"/>
       <c r="F60" s="108"/>
       <c r="G60" s="108"/>
@@ -13038,7 +13038,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13049,8 +13049,8 @@
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14168,8 +14168,8 @@
   </sheetPr>
   <dimension ref="A1:G491"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D427" sqref="D427:E427"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
